--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t>35 - Stars And Slime Forever &amp; End Titles</t>
+  </si>
+  <si>
+    <t>Smooth Hector</t>
+  </si>
+  <si>
+    <t>Grim Fandango</t>
+  </si>
+  <si>
+    <t>Zak McKracken</t>
+  </si>
+  <si>
+    <t>Zak Mcommando Kracken Puffy64 Remix</t>
+  </si>
+  <si>
+    <t>Audio Drama</t>
+  </si>
+  <si>
+    <t>Loom</t>
+  </si>
+  <si>
+    <t>Ending Theme</t>
+  </si>
+  <si>
+    <t>782-loom-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>2566-maniac-mansion-day-of-the-tentacle-dos-front-cover</t>
+  </si>
+  <si>
+    <t>94348-zak-mckracken-and-the-alien-mindbenders-dos-front-cover.png</t>
+  </si>
+  <si>
+    <t>94335-grim-fandango-windows-front-cover.png</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -255,9 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,19 +577,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E59"/>
+  <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,8 +606,11 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -583,8 +626,11 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -600,8 +646,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -617,8 +666,11 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -634,8 +686,11 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -651,8 +706,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,8 +726,11 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -685,8 +746,11 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -702,8 +766,11 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -719,8 +786,11 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -736,8 +806,11 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -753,8 +826,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -770,8 +846,11 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -787,8 +866,11 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -804,8 +886,11 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -821,8 +906,11 @@
       <c r="E17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -838,8 +926,11 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -855,8 +946,11 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -872,8 +966,11 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -889,8 +986,11 @@
       <c r="E21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -906,8 +1006,11 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -923,8 +1026,11 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -940,8 +1046,11 @@
       <c r="E24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -951,8 +1060,14 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1993</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -962,8 +1077,14 @@
       <c r="C26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1993</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -973,8 +1094,14 @@
       <c r="C27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1993</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -984,8 +1111,14 @@
       <c r="C28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1993</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -995,8 +1128,14 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1993</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1006,8 +1145,14 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1993</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1017,8 +1162,14 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1993</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1028,8 +1179,14 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1993</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1039,8 +1196,14 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1993</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1050,8 +1213,14 @@
       <c r="C34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1993</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1061,8 +1230,14 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1993</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1072,8 +1247,14 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1993</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1083,8 +1264,14 @@
       <c r="C37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1993</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1094,8 +1281,14 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1993</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1105,8 +1298,14 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1993</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1116,8 +1315,14 @@
       <c r="C40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1993</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1127,8 +1332,14 @@
       <c r="C41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1993</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1138,8 +1349,14 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1993</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1149,8 +1366,14 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1993</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1160,8 +1383,14 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1993</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1171,8 +1400,14 @@
       <c r="C45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1993</v>
+      </c>
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1182,8 +1417,14 @@
       <c r="C46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1993</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1193,8 +1434,14 @@
       <c r="C47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1993</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1204,8 +1451,14 @@
       <c r="C48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1993</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1215,8 +1468,14 @@
       <c r="C49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1993</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1226,8 +1485,14 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1993</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1237,8 +1502,14 @@
       <c r="C51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1993</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1248,8 +1519,14 @@
       <c r="C52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1993</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1259,8 +1536,14 @@
       <c r="C53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1993</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1270,8 +1553,14 @@
       <c r="C54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1993</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1281,8 +1570,14 @@
       <c r="C55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1993</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1292,8 +1587,14 @@
       <c r="C56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1303,8 +1604,14 @@
       <c r="C57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1314,8 +1621,14 @@
       <c r="C58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1324,6 +1637,97 @@
       </c>
       <c r="C59" t="s">
         <v>66</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>1998</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>1988</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>1990</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>1993</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="122">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -105,9 +105,6 @@
     <t>4948-alone-in-the-dark-2-dos-front-cover.jpg</t>
   </si>
   <si>
-    <t>783-out-of-this-world-dos-front-cover</t>
-  </si>
-  <si>
     <t>108537-betrayal-at-krondor-dos-front-cover.jpg</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>782-loom-dos-front-cover.jpg</t>
   </si>
   <si>
-    <t>2566-maniac-mansion-day-of-the-tentacle-dos-front-cover</t>
-  </si>
-  <si>
     <t>94348-zak-mckracken-and-the-alien-mindbenders-dos-front-cover.png</t>
   </si>
   <si>
@@ -256,6 +250,141 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>2566-maniac-mansion-day-of-the-tentacle-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>783-out-of-this-world-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Diablo I: Hellfire</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>Crypts</t>
+  </si>
+  <si>
+    <t>2046-hellfire-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Diablo I</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Catacombs</t>
+  </si>
+  <si>
+    <t>Caves</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>73987-diablo-macintosh-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>152949-diablo-ii-lord-of-destruction-macintosh-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Diablo II: Lord of Destruction</t>
+  </si>
+  <si>
+    <t>Fortress</t>
+  </si>
+  <si>
+    <t>Halls</t>
+  </si>
+  <si>
+    <t>Ancients</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Diablo II</t>
+  </si>
+  <si>
+    <t>Wilderness</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Sisters</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Zakarum</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>Toru</t>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
+    <t>Crypt</t>
+  </si>
+  <si>
+    <t>Tombs</t>
+  </si>
+  <si>
+    <t>Monestary</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Leoric</t>
+  </si>
+  <si>
+    <t>Coda</t>
+  </si>
+  <si>
+    <t>Roger and Me</t>
+  </si>
+  <si>
+    <t>Docks</t>
+  </si>
+  <si>
+    <t>Kurast</t>
+  </si>
+  <si>
+    <t>Maggot</t>
+  </si>
+  <si>
+    <t>Mephisto</t>
+  </si>
+  <si>
+    <t>Sewer</t>
+  </si>
+  <si>
+    <t>Tristram</t>
+  </si>
+  <si>
+    <t>177638-diablo-ii-macintosh-front-cover.jpg</t>
   </si>
 </sst>
 </file>
@@ -577,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J64"/>
+  <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +736,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -624,10 +753,10 @@
         <v>1991</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -644,10 +773,10 @@
         <v>1993</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -664,10 +793,10 @@
         <v>1995</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -684,10 +813,10 @@
         <v>1995</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,10 +833,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -724,10 +853,10 @@
         <v>1995</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -744,10 +873,10 @@
         <v>1995</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -764,10 +893,10 @@
         <v>1995</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,10 +913,10 @@
         <v>1995</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,10 +933,10 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -824,10 +953,10 @@
         <v>1995</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,10 +973,10 @@
         <v>1995</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,10 +993,10 @@
         <v>1995</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,10 +1013,10 @@
         <v>1995</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,10 +1033,10 @@
         <v>1995</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -924,10 +1053,10 @@
         <v>1995</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -944,10 +1073,10 @@
         <v>1995</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -964,10 +1093,10 @@
         <v>1995</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -984,10 +1113,10 @@
         <v>1995</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,10 +1133,10 @@
         <v>1995</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1024,10 +1153,10 @@
         <v>1995</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,10 +1173,10 @@
         <v>1995</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,16 +1184,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>1993</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,16 +1204,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26">
         <v>1993</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,16 +1224,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>1993</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,16 +1244,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>1993</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1123,16 +1264,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>1993</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1140,16 +1284,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>1993</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,16 +1304,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>1993</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,500 +1324,587 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>1993</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>1993</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>1993</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>1993</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>1993</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>1993</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>1993</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>1993</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <v>1993</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>1993</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>1993</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>1993</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>1993</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>1993</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>1993</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>1993</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>1993</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>1993</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>1993</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>1993</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>1993</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>1993</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>1993</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>1993</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>1993</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>1993</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>1993</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60">
         <v>1998</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -1676,58 +1913,682 @@
         <v>1988</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
         <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
       </c>
       <c r="D62">
         <v>1988</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>1990</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64">
+        <v>1993</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>1998</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66">
+        <v>1998</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1997</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>1997</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>1997</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70">
+        <v>1997</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71">
+        <v>1997</v>
+      </c>
+      <c r="E71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <v>1997</v>
+      </c>
+      <c r="E72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73">
+        <v>2001</v>
+      </c>
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="D64">
-        <v>1993</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74">
+        <v>2001</v>
+      </c>
+      <c r="E74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75">
+        <v>2001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76">
+        <v>2001</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77">
+        <v>2001</v>
+      </c>
+      <c r="E77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78">
+        <v>2000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79">
+        <v>2000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>2000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81">
+        <v>2000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82">
+        <v>2000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83">
+        <v>2000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84">
+        <v>2000</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85">
+        <v>2000</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86">
+        <v>2000</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87">
+        <v>2000</v>
+      </c>
+      <c r="E87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88">
+        <v>2000</v>
+      </c>
+      <c r="E88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89">
+        <v>2000</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90">
+        <v>2000</v>
+      </c>
+      <c r="E90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91">
+        <v>2000</v>
+      </c>
+      <c r="E91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92">
+        <v>2000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93">
+        <v>2000</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94">
+        <v>2000</v>
+      </c>
+      <c r="E94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95">
+        <v>2000</v>
+      </c>
+      <c r="E95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96">
+        <v>2000</v>
+      </c>
+      <c r="E96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97">
+        <v>2000</v>
+      </c>
+      <c r="E97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98">
+        <v>2000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99">
+        <v>2000</v>
+      </c>
+      <c r="E99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100">
+        <v>2000</v>
+      </c>
+      <c r="E100" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="154">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -385,6 +385,102 @@
   </si>
   <si>
     <t>177638-diablo-ii-macintosh-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Duke Nukem 3D</t>
+  </si>
+  <si>
+    <t>duke-nukem-3d.jpg</t>
+  </si>
+  <si>
+    <t>Grabbag</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>Taking the Death Toll</t>
+  </si>
+  <si>
+    <t>The City Streets</t>
+  </si>
+  <si>
+    <t>Water World</t>
+  </si>
+  <si>
+    <t>Sneaky Snake</t>
+  </si>
+  <si>
+    <t>The Call of Death</t>
+  </si>
+  <si>
+    <t>Ah, Geez!</t>
+  </si>
+  <si>
+    <t>Future Military Conquests</t>
+  </si>
+  <si>
+    <t>Space Storm</t>
+  </si>
+  <si>
+    <t>Gut Wrencher</t>
+  </si>
+  <si>
+    <t>RoboCreeping</t>
+  </si>
+  <si>
+    <t>Stalag 3-D</t>
+  </si>
+  <si>
+    <t>Pissed!</t>
+  </si>
+  <si>
+    <t>Aliens, Say Your Prayers!</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Gloomy</t>
+  </si>
+  <si>
+    <t>In Tents</t>
+  </si>
+  <si>
+    <t>In Hiding</t>
+  </si>
+  <si>
+    <t>Going After the Fat Commander</t>
+  </si>
+  <si>
+    <t>Taking Names</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Invader</t>
+  </si>
+  <si>
+    <t>Gotham</t>
+  </si>
+  <si>
+    <t>233.778 Celsius</t>
+  </si>
+  <si>
+    <t>Lord of L.A.</t>
+  </si>
+  <si>
+    <t>Alfred H.</t>
+  </si>
+  <si>
+    <t>Urban Jungle</t>
+  </si>
+  <si>
+    <t>Spook</t>
+  </si>
+  <si>
+    <t>Whomp</t>
   </si>
 </sst>
 </file>
@@ -706,15 +802,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J100"/>
+  <dimension ref="A2:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
@@ -2591,6 +2687,521 @@
         <v>121</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101">
+        <v>1996</v>
+      </c>
+      <c r="E101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102">
+        <v>1996</v>
+      </c>
+      <c r="E102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103">
+        <v>1996</v>
+      </c>
+      <c r="E103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104">
+        <v>1996</v>
+      </c>
+      <c r="E104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105">
+        <v>1996</v>
+      </c>
+      <c r="E105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106">
+        <v>1996</v>
+      </c>
+      <c r="E106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107">
+        <v>1996</v>
+      </c>
+      <c r="E107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108">
+        <v>1996</v>
+      </c>
+      <c r="E108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109">
+        <v>1996</v>
+      </c>
+      <c r="E109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110">
+        <v>1996</v>
+      </c>
+      <c r="E110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111">
+        <v>1996</v>
+      </c>
+      <c r="E111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112">
+        <v>1996</v>
+      </c>
+      <c r="E112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113">
+        <v>1996</v>
+      </c>
+      <c r="E113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114">
+        <v>1996</v>
+      </c>
+      <c r="E114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115">
+        <v>1996</v>
+      </c>
+      <c r="E115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116">
+        <v>1996</v>
+      </c>
+      <c r="E116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117">
+        <v>1996</v>
+      </c>
+      <c r="E117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118">
+        <v>1996</v>
+      </c>
+      <c r="E118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119">
+        <v>1996</v>
+      </c>
+      <c r="E119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120">
+        <v>1996</v>
+      </c>
+      <c r="E120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121">
+        <v>1996</v>
+      </c>
+      <c r="E121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122">
+        <v>1996</v>
+      </c>
+      <c r="E122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123">
+        <v>1996</v>
+      </c>
+      <c r="E123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124">
+        <v>1996</v>
+      </c>
+      <c r="E124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125">
+        <v>1996</v>
+      </c>
+      <c r="E125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126">
+        <v>1996</v>
+      </c>
+      <c r="E126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127">
+        <v>1996</v>
+      </c>
+      <c r="E127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128">
+        <v>1996</v>
+      </c>
+      <c r="E128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129">
+        <v>1996</v>
+      </c>
+      <c r="E129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130">
+        <v>1996</v>
+      </c>
+      <c r="E130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="320">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -243,12 +243,6 @@
     <t>782-loom-dos-front-cover.jpg</t>
   </si>
   <si>
-    <t>94348-zak-mckracken-and-the-alien-mindbenders-dos-front-cover.png</t>
-  </si>
-  <si>
-    <t>94335-grim-fandango-windows-front-cover.png</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -481,13 +475,517 @@
   </si>
   <si>
     <t>Whomp</t>
+  </si>
+  <si>
+    <t>Escape from Monkey Island</t>
+  </si>
+  <si>
+    <t>01 - Finding the Wedding Gifts</t>
+  </si>
+  <si>
+    <t>01 - Main Titles</t>
+  </si>
+  <si>
+    <t>02 - The Lua Bar</t>
+  </si>
+  <si>
+    <t>02 - Tied to the Mast</t>
+  </si>
+  <si>
+    <t>03 - Meathook's</t>
+  </si>
+  <si>
+    <t>03 - The Mast Cue</t>
+  </si>
+  <si>
+    <t>04 - Act Screen</t>
+  </si>
+  <si>
+    <t>04 - Jambalaya Town</t>
+  </si>
+  <si>
+    <t>05 - Jambalaya Map</t>
+  </si>
+  <si>
+    <t>05 - Options Screen</t>
+  </si>
+  <si>
+    <t>06 - Jambalaya Map Near the Knuttin Atoll</t>
+  </si>
+  <si>
+    <t>06 - The Docks</t>
+  </si>
+  <si>
+    <t>07 - Melee Town</t>
+  </si>
+  <si>
+    <t>07 - The Knuttin Atoll</t>
+  </si>
+  <si>
+    <t>08 - Melee Map</t>
+  </si>
+  <si>
+    <t>08 - Star Buccaneers Coffee Shop</t>
+  </si>
+  <si>
+    <t>09 - Microgroggery</t>
+  </si>
+  <si>
+    <t>09 - Outside the Governor's Mansion</t>
+  </si>
+  <si>
+    <t>10 - Inside the Governor's Mansion</t>
+  </si>
+  <si>
+    <t>10 - Planet Threepwood</t>
+  </si>
+  <si>
+    <t>11 - Destroying the Catapult</t>
+  </si>
+  <si>
+    <t>11 - Stan's Time Sharing Agency</t>
+  </si>
+  <si>
+    <t>12 - Catapult Destroyed</t>
+  </si>
+  <si>
+    <t>12 - Diving Competition</t>
+  </si>
+  <si>
+    <t>13 - Charles L. Charles Appears</t>
+  </si>
+  <si>
+    <t>13 - Talking with Jumbeaux LaFeet</t>
+  </si>
+  <si>
+    <t>14 - Losing the Diving Competition</t>
+  </si>
+  <si>
+    <t>14 - Talking with Carla and Otis</t>
+  </si>
+  <si>
+    <t>15 - The International House of Mojo</t>
+  </si>
+  <si>
+    <t>15 - Winning the Diving Competition</t>
+  </si>
+  <si>
+    <t>16 - Admiral Ricardo Casaba</t>
+  </si>
+  <si>
+    <t>16 - The Harbor</t>
+  </si>
+  <si>
+    <t>17 - Admiral Casaba Cue</t>
+  </si>
+  <si>
+    <t>17 - Outside Meathook's</t>
+  </si>
+  <si>
+    <t>18 - Scumm Bar (Main)</t>
+  </si>
+  <si>
+    <t>18 - The Transmogrification School for Pirates</t>
+  </si>
+  <si>
+    <t>19 - Miss Rivers Gets Angry</t>
+  </si>
+  <si>
+    <t>19 - Scumm Bar (Talking with Mr. Cheese)</t>
+  </si>
+  <si>
+    <t>20 - Miss Rivers Cue</t>
+  </si>
+  <si>
+    <t>20 - Scumm Bar (Talking with the Bar Tender)</t>
+  </si>
+  <si>
+    <t>21 - A Life of Endless Puzzles</t>
+  </si>
+  <si>
+    <t>21 - Lucre Town</t>
+  </si>
+  <si>
+    <t>22 - Lucre Island Map</t>
+  </si>
+  <si>
+    <t>22 - Monkey Island Beach - Canyon</t>
+  </si>
+  <si>
+    <t>23 - Monkey Island Map</t>
+  </si>
+  <si>
+    <t>23 - The Lawyers</t>
+  </si>
+  <si>
+    <t>24 - Herman Toothrot</t>
+  </si>
+  <si>
+    <t>24 - House of Sticks</t>
+  </si>
+  <si>
+    <t>25 - Boulder Machinery</t>
+  </si>
+  <si>
+    <t>25 - Protheses Shop</t>
+  </si>
+  <si>
+    <t>26 - Bait Shop</t>
+  </si>
+  <si>
+    <t>26 - The Mine</t>
+  </si>
+  <si>
+    <t>27 - Machinery Room</t>
+  </si>
+  <si>
+    <t>27 - Termite Circus</t>
+  </si>
+  <si>
+    <t>28 - The Bank</t>
+  </si>
+  <si>
+    <t>28 - The Lava Field</t>
+  </si>
+  <si>
+    <t>29 - Hectic Lava Cue</t>
+  </si>
+  <si>
+    <t>29 - Prisoner in the Vault</t>
+  </si>
+  <si>
+    <t>30 - First Church of LeChuck... Orthodox</t>
+  </si>
+  <si>
+    <t>30 - Guybrush Escapes from the Vault</t>
+  </si>
+  <si>
+    <t>31 - Switching on the Lights at the Bank</t>
+  </si>
+  <si>
+    <t>31 - The Monkey Head</t>
+  </si>
+  <si>
+    <t>32 - Hall of Justice</t>
+  </si>
+  <si>
+    <t>32 - The Monkey Village</t>
+  </si>
+  <si>
+    <t>33 - Speaking with Inspector Canard</t>
+  </si>
+  <si>
+    <t>33 - Talking to Jojo Junior</t>
+  </si>
+  <si>
+    <t>34 - Meeting a Monkey in the Woods</t>
+  </si>
+  <si>
+    <t>34 - Ozzie Mandrill</t>
+  </si>
+  <si>
+    <t>35 - Monkey Combat</t>
+  </si>
+  <si>
+    <t>35 - Outside Ozzie's House</t>
+  </si>
+  <si>
+    <t>36 - Inside Ozzie's House</t>
+  </si>
+  <si>
+    <t>36 - Monkey Combat - Loser</t>
+  </si>
+  <si>
+    <t>37 - Monkey Combat - Winner</t>
+  </si>
+  <si>
+    <t>37 - The Ozzie Mandrill Cue</t>
+  </si>
+  <si>
+    <t>38 - Monkey Combat - Winning the Final Round</t>
+  </si>
+  <si>
+    <t>38 - The Swamp</t>
+  </si>
+  <si>
+    <t>39 - Herman Toothrot's Memory Returns &amp; Showdown</t>
+  </si>
+  <si>
+    <t>39 - Pegnose Pete</t>
+  </si>
+  <si>
+    <t>40 - Arriving at Pegnose's House</t>
+  </si>
+  <si>
+    <t>40 - Transmission Tower</t>
+  </si>
+  <si>
+    <t>41 - Pegnose Panics</t>
+  </si>
+  <si>
+    <t>41 - Ultimate Monkey Combat</t>
+  </si>
+  <si>
+    <t>42 - Closing Medley</t>
+  </si>
+  <si>
+    <t>42 - Outside the Booty Showcase</t>
+  </si>
+  <si>
+    <t>43 - Pegnose's Booty Showcase</t>
+  </si>
+  <si>
+    <t>44 - The Curtain Opens (Booty Showcase)</t>
+  </si>
+  <si>
+    <t>45 - The Wood</t>
+  </si>
+  <si>
+    <t>46 - Under Water</t>
+  </si>
+  <si>
+    <t>47 - The Scumm Bar Cue</t>
+  </si>
+  <si>
+    <t>20078-escape-from-monkey-island-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>94348-zak-mckracken-and-the-alien-mindbenders-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Age of Empires</t>
+  </si>
+  <si>
+    <t>196503-age-of-empires-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Gamelan</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Wally</t>
+  </si>
+  <si>
+    <t>Gray Sky</t>
+  </si>
+  <si>
+    <t>1313-magic-the-gathering-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Magic: The Gathering</t>
+  </si>
+  <si>
+    <t>Local Music 00</t>
+  </si>
+  <si>
+    <t>Local Music 01</t>
+  </si>
+  <si>
+    <t>Local Music 02</t>
+  </si>
+  <si>
+    <t>Local Music 03</t>
+  </si>
+  <si>
+    <t>Local Music 04</t>
+  </si>
+  <si>
+    <t>Local Music 05</t>
+  </si>
+  <si>
+    <t>Local Music 06</t>
+  </si>
+  <si>
+    <t>Local Music 07</t>
+  </si>
+  <si>
+    <t>Local Music 08</t>
+  </si>
+  <si>
+    <t>Local Music 09</t>
+  </si>
+  <si>
+    <t>Local Music 10</t>
+  </si>
+  <si>
+    <t>Local Music 11</t>
+  </si>
+  <si>
+    <t>Local Music 12</t>
+  </si>
+  <si>
+    <t>Local Music 13</t>
+  </si>
+  <si>
+    <t>Local Music 14</t>
+  </si>
+  <si>
+    <t>Local Music 15</t>
+  </si>
+  <si>
+    <t>Local Music 16</t>
+  </si>
+  <si>
+    <t>Local Music 17</t>
+  </si>
+  <si>
+    <t>Local Music 18</t>
+  </si>
+  <si>
+    <t>Local Music 19</t>
+  </si>
+  <si>
+    <t>Temple Music</t>
+  </si>
+  <si>
+    <t>Black Castle</t>
+  </si>
+  <si>
+    <t>Blue Castle</t>
+  </si>
+  <si>
+    <t>Green Castle</t>
+  </si>
+  <si>
+    <t>Red Castle</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>Track 01</t>
+  </si>
+  <si>
+    <t>Track 02</t>
+  </si>
+  <si>
+    <t>Track 03</t>
+  </si>
+  <si>
+    <t>Track 04</t>
+  </si>
+  <si>
+    <t>Track 05</t>
+  </si>
+  <si>
+    <t>Track 06</t>
+  </si>
+  <si>
+    <t>Track 07</t>
+  </si>
+  <si>
+    <t>Track 08</t>
+  </si>
+  <si>
+    <t>Track 09</t>
+  </si>
+  <si>
+    <t>Track 10</t>
+  </si>
+  <si>
+    <t>38501-grand-theft-auto-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>94335-grim-fandango-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Arcanum Of Steamworks and Magick Obscura</t>
+  </si>
+  <si>
+    <t>10442-arcanum-of-steamworks-magick-obscura-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Arcanum</t>
+  </si>
+  <si>
+    <t>Battle at Vendigroth</t>
+  </si>
+  <si>
+    <t>Caladon Catacombs</t>
+  </si>
+  <si>
+    <t>Caladon</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Dungeons</t>
+  </si>
+  <si>
+    <t>Kerghan's Castle</t>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>Qintarra</t>
+  </si>
+  <si>
+    <t>Radcliffe's Commission</t>
+  </si>
+  <si>
+    <t>Tarant</t>
+  </si>
+  <si>
+    <t>The Demise of the Zephyr</t>
+  </si>
+  <si>
+    <t>The Isle of Despair</t>
+  </si>
+  <si>
+    <t>The Tarant Sewers</t>
+  </si>
+  <si>
+    <t>The Vendigroth Wastes</t>
+  </si>
+  <si>
+    <t>The Void</t>
+  </si>
+  <si>
+    <t>The Wheel Clan</t>
+  </si>
+  <si>
+    <t>Towns</t>
+  </si>
+  <si>
+    <t>Tulla</t>
+  </si>
+  <si>
+    <t>Villages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,13 +993,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,18 +1024,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,16 +1319,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J131"/>
+  <dimension ref="A2:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -832,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -849,10 +1367,10 @@
         <v>1991</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -872,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -892,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,7 +1450,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -972,7 +1490,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1550,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,7 +1570,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,7 +1590,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1092,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,7 +1650,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,7 +1690,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1730,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,10 +1807,10 @@
         <v>1993</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,10 +1827,10 @@
         <v>1993</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,10 +1847,10 @@
         <v>1993</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1349,10 +1867,10 @@
         <v>1993</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,10 +1887,10 @@
         <v>1993</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,10 +1907,10 @@
         <v>1993</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,10 +1927,10 @@
         <v>1993</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1429,10 +1947,10 @@
         <v>1993</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1449,10 +1967,10 @@
         <v>1993</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,10 +1987,10 @@
         <v>1993</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,10 +2007,10 @@
         <v>1993</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,10 +2027,10 @@
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,10 +2047,10 @@
         <v>1993</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,10 +2067,10 @@
         <v>1993</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1569,10 +2087,10 @@
         <v>1993</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,10 +2107,10 @@
         <v>1993</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1609,10 +2127,10 @@
         <v>1993</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,10 +2147,10 @@
         <v>1993</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,10 +2167,10 @@
         <v>1993</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1669,10 +2187,10 @@
         <v>1993</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,10 +2207,10 @@
         <v>1993</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1709,10 +2227,10 @@
         <v>1993</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,10 +2247,10 @@
         <v>1993</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1749,10 +2267,10 @@
         <v>1993</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1769,10 +2287,10 @@
         <v>1993</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,10 +2307,10 @@
         <v>1993</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,10 +2327,10 @@
         <v>1993</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1829,10 +2347,10 @@
         <v>1993</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,10 +2367,10 @@
         <v>1993</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1869,10 +2387,10 @@
         <v>1993</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1889,10 +2407,10 @@
         <v>1993</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,10 +2427,10 @@
         <v>1993</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1929,10 +2447,10 @@
         <v>1993</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -1949,10 +2467,10 @@
         <v>1993</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,10 +2487,10 @@
         <v>1993</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,10 +2507,10 @@
         <v>1998</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,10 +2527,10 @@
         <v>1988</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,10 +2547,10 @@
         <v>1988</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,52 +2587,52 @@
         <v>1993</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <v>1998</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
         <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>81</v>
       </c>
       <c r="D66">
         <v>1998</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2123,500 +2641,509 @@
         <v>1997</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1997</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" s="3">
+        <v>1997</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D68">
+      <c r="D70" s="3">
         <v>1997</v>
       </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D69">
+      <c r="D71" s="3">
         <v>1997</v>
       </c>
-      <c r="E69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D70">
+      <c r="D72" s="3">
         <v>1997</v>
       </c>
-      <c r="E70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E72" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D71">
-        <v>1997</v>
-      </c>
-      <c r="E71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72">
-        <v>1997</v>
-      </c>
-      <c r="E72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D73">
         <v>2001</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
         <v>91</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
       </c>
       <c r="D74">
         <v>2001</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D75">
         <v>2001</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D76">
         <v>2001</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D77">
         <v>2001</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D79" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D78">
-        <v>2000</v>
-      </c>
-      <c r="E78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D80" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D79">
-        <v>2000</v>
-      </c>
-      <c r="E79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80">
-        <v>2000</v>
-      </c>
-      <c r="E80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81">
-        <v>2000</v>
-      </c>
-      <c r="E81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D82">
         <v>2000</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83">
         <v>2000</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84">
         <v>2000</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85">
         <v>2000</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86">
         <v>2000</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D87">
         <v>2000</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D88">
         <v>2000</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89">
         <v>2000</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D90">
         <v>2000</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>2000</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D92">
         <v>2000</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D93">
         <v>2000</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>2000</v>
       </c>
       <c r="E94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D95">
         <v>2000</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96">
         <v>2000</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,16 +3151,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D97">
         <v>2000</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,16 +3168,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D98">
         <v>2000</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,16 +3185,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99">
+        <v>2000</v>
+      </c>
+      <c r="E99" t="s">
         <v>119</v>
-      </c>
-      <c r="D99">
-        <v>2000</v>
-      </c>
-      <c r="E99" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,16 +3202,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D100">
         <v>2000</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,16 +3219,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
         <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>124</v>
       </c>
       <c r="D101">
         <v>1996</v>
       </c>
       <c r="E101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,16 +3236,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D102">
         <v>1996</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,16 +3253,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D103">
         <v>1996</v>
       </c>
       <c r="E103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2743,16 +3270,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D104">
         <v>1996</v>
       </c>
       <c r="E104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,16 +3287,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D105">
         <v>1996</v>
       </c>
       <c r="E105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,16 +3304,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D106">
         <v>1996</v>
       </c>
       <c r="E106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,16 +3321,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D107">
         <v>1996</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,16 +3338,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D108">
         <v>1996</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,16 +3355,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D109">
         <v>1996</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,16 +3372,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D110">
         <v>1996</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,16 +3389,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D111">
         <v>1996</v>
       </c>
       <c r="E111" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,16 +3406,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D112">
         <v>1996</v>
       </c>
       <c r="E112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,16 +3423,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D113">
         <v>1996</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,16 +3440,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D114">
         <v>1996</v>
       </c>
       <c r="E114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,16 +3457,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D115">
         <v>1996</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,16 +3474,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D116">
         <v>1996</v>
       </c>
       <c r="E116" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,16 +3491,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D117">
         <v>1996</v>
       </c>
       <c r="E117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,16 +3508,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D118">
         <v>1996</v>
       </c>
       <c r="E118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,16 +3525,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D119">
         <v>1996</v>
       </c>
       <c r="E119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,16 +3542,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D120">
         <v>1996</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,16 +3559,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D121">
         <v>1996</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,16 +3576,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D122">
         <v>1996</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,16 +3593,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D123">
         <v>1996</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,16 +3610,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D124">
         <v>1996</v>
       </c>
       <c r="E124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,16 +3627,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D125">
         <v>1996</v>
       </c>
       <c r="E125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,16 +3644,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D126">
         <v>1996</v>
       </c>
       <c r="E126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,16 +3661,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D127">
         <v>1996</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,16 +3678,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D128">
         <v>1996</v>
       </c>
       <c r="E128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,16 +3695,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D129">
         <v>1996</v>
       </c>
       <c r="E129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,21 +3712,2534 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D130">
         <v>1996</v>
       </c>
       <c r="E130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131">
+        <v>2000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132">
+        <v>2000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133">
+        <v>2000</v>
+      </c>
+      <c r="E133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134">
+        <v>2000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135">
+        <v>2000</v>
+      </c>
+      <c r="E135" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136">
+        <v>2000</v>
+      </c>
+      <c r="E136" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" t="s">
+        <v>159</v>
+      </c>
+      <c r="D137">
+        <v>2000</v>
+      </c>
+      <c r="E137" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138">
+        <v>2000</v>
+      </c>
+      <c r="E138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139">
+        <v>2000</v>
+      </c>
+      <c r="E139" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140">
+        <v>2000</v>
+      </c>
+      <c r="E140" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141">
+        <v>2000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142">
+        <v>2000</v>
+      </c>
+      <c r="E142" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143">
+        <v>2000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144">
+        <v>2000</v>
+      </c>
+      <c r="E144" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145">
+        <v>2000</v>
+      </c>
+      <c r="E145" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146">
+        <v>2000</v>
+      </c>
+      <c r="E146" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147">
+        <v>2000</v>
+      </c>
+      <c r="E147" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148">
+        <v>2000</v>
+      </c>
+      <c r="E148" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" t="s">
+        <v>171</v>
+      </c>
+      <c r="D149">
+        <v>2000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150">
+        <v>2000</v>
+      </c>
+      <c r="E150" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151">
+        <v>2000</v>
+      </c>
+      <c r="E151" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152">
+        <v>2000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153">
+        <v>2000</v>
+      </c>
+      <c r="E153" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154">
+        <v>2000</v>
+      </c>
+      <c r="E154" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155">
+        <v>2000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>178</v>
+      </c>
+      <c r="D156">
+        <v>2000</v>
+      </c>
+      <c r="E156" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157">
+        <v>2000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" t="s">
+        <v>180</v>
+      </c>
+      <c r="D158">
+        <v>2000</v>
+      </c>
+      <c r="E158" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" t="s">
+        <v>181</v>
+      </c>
+      <c r="D159">
+        <v>2000</v>
+      </c>
+      <c r="E159" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" t="s">
+        <v>182</v>
+      </c>
+      <c r="D160">
+        <v>2000</v>
+      </c>
+      <c r="E160" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161">
+        <v>2000</v>
+      </c>
+      <c r="E161" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162">
+        <v>2000</v>
+      </c>
+      <c r="E162" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" t="s">
+        <v>185</v>
+      </c>
+      <c r="D163">
+        <v>2000</v>
+      </c>
+      <c r="E163" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164" t="s">
+        <v>186</v>
+      </c>
+      <c r="D164">
+        <v>2000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>152</v>
+      </c>
+      <c r="C165" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165">
+        <v>2000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>152</v>
+      </c>
+      <c r="C166" t="s">
+        <v>188</v>
+      </c>
+      <c r="D166">
+        <v>2000</v>
+      </c>
+      <c r="E166" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>152</v>
+      </c>
+      <c r="C167" t="s">
+        <v>189</v>
+      </c>
+      <c r="D167">
+        <v>2000</v>
+      </c>
+      <c r="E167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" t="s">
+        <v>190</v>
+      </c>
+      <c r="D168">
+        <v>2000</v>
+      </c>
+      <c r="E168" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" t="s">
+        <v>191</v>
+      </c>
+      <c r="D169">
+        <v>2000</v>
+      </c>
+      <c r="E169" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>152</v>
+      </c>
+      <c r="C170" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170">
+        <v>2000</v>
+      </c>
+      <c r="E170" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171">
+        <v>2000</v>
+      </c>
+      <c r="E171" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" t="s">
+        <v>194</v>
+      </c>
+      <c r="D172">
+        <v>2000</v>
+      </c>
+      <c r="E172" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" t="s">
+        <v>195</v>
+      </c>
+      <c r="D173">
+        <v>2000</v>
+      </c>
+      <c r="E173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174">
+        <v>2000</v>
+      </c>
+      <c r="E174" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>152</v>
+      </c>
+      <c r="C175" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175">
+        <v>2000</v>
+      </c>
+      <c r="E175" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>152</v>
+      </c>
+      <c r="C176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176">
+        <v>2000</v>
+      </c>
+      <c r="E176" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177">
+        <v>2000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" t="s">
+        <v>200</v>
+      </c>
+      <c r="D178">
+        <v>2000</v>
+      </c>
+      <c r="E178" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179" t="s">
+        <v>201</v>
+      </c>
+      <c r="D179">
+        <v>2000</v>
+      </c>
+      <c r="E179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" t="s">
+        <v>202</v>
+      </c>
+      <c r="D180">
+        <v>2000</v>
+      </c>
+      <c r="E180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>152</v>
+      </c>
+      <c r="C181" t="s">
+        <v>203</v>
+      </c>
+      <c r="D181">
+        <v>2000</v>
+      </c>
+      <c r="E181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>152</v>
+      </c>
+      <c r="C182" t="s">
+        <v>204</v>
+      </c>
+      <c r="D182">
+        <v>2000</v>
+      </c>
+      <c r="E182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>152</v>
+      </c>
+      <c r="C183" t="s">
+        <v>205</v>
+      </c>
+      <c r="D183">
+        <v>2000</v>
+      </c>
+      <c r="E183" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>152</v>
+      </c>
+      <c r="C184" t="s">
+        <v>206</v>
+      </c>
+      <c r="D184">
+        <v>2000</v>
+      </c>
+      <c r="E184" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" t="s">
+        <v>207</v>
+      </c>
+      <c r="D185">
+        <v>2000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>152</v>
+      </c>
+      <c r="C186" t="s">
+        <v>208</v>
+      </c>
+      <c r="D186">
+        <v>2000</v>
+      </c>
+      <c r="E186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" t="s">
+        <v>209</v>
+      </c>
+      <c r="D187">
+        <v>2000</v>
+      </c>
+      <c r="E187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>152</v>
+      </c>
+      <c r="C188" t="s">
+        <v>210</v>
+      </c>
+      <c r="D188">
+        <v>2000</v>
+      </c>
+      <c r="E188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>152</v>
+      </c>
+      <c r="C189" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189">
+        <v>2000</v>
+      </c>
+      <c r="E189" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>152</v>
+      </c>
+      <c r="C190" t="s">
+        <v>212</v>
+      </c>
+      <c r="D190">
+        <v>2000</v>
+      </c>
+      <c r="E190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>152</v>
+      </c>
+      <c r="C191" t="s">
+        <v>213</v>
+      </c>
+      <c r="D191">
+        <v>2000</v>
+      </c>
+      <c r="E191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" t="s">
+        <v>214</v>
+      </c>
+      <c r="D192">
+        <v>2000</v>
+      </c>
+      <c r="E192" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" t="s">
+        <v>215</v>
+      </c>
+      <c r="D193">
+        <v>2000</v>
+      </c>
+      <c r="E193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>152</v>
+      </c>
+      <c r="C194" t="s">
+        <v>216</v>
+      </c>
+      <c r="D194">
+        <v>2000</v>
+      </c>
+      <c r="E194" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>152</v>
+      </c>
+      <c r="C195" t="s">
+        <v>217</v>
+      </c>
+      <c r="D195">
+        <v>2000</v>
+      </c>
+      <c r="E195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>152</v>
+      </c>
+      <c r="C196" t="s">
+        <v>218</v>
+      </c>
+      <c r="D196">
+        <v>2000</v>
+      </c>
+      <c r="E196" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>152</v>
+      </c>
+      <c r="C197" t="s">
+        <v>219</v>
+      </c>
+      <c r="D197">
+        <v>2000</v>
+      </c>
+      <c r="E197" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>152</v>
+      </c>
+      <c r="C198" t="s">
+        <v>220</v>
+      </c>
+      <c r="D198">
+        <v>2000</v>
+      </c>
+      <c r="E198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" t="s">
+        <v>221</v>
+      </c>
+      <c r="D199">
+        <v>2000</v>
+      </c>
+      <c r="E199" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>152</v>
+      </c>
+      <c r="C200" t="s">
+        <v>222</v>
+      </c>
+      <c r="D200">
+        <v>2000</v>
+      </c>
+      <c r="E200" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>152</v>
+      </c>
+      <c r="C201" t="s">
+        <v>223</v>
+      </c>
+      <c r="D201">
+        <v>2000</v>
+      </c>
+      <c r="E201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>152</v>
+      </c>
+      <c r="C202" t="s">
+        <v>224</v>
+      </c>
+      <c r="D202">
+        <v>2000</v>
+      </c>
+      <c r="E202" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" t="s">
+        <v>225</v>
+      </c>
+      <c r="D203">
+        <v>2000</v>
+      </c>
+      <c r="E203" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>152</v>
+      </c>
+      <c r="C204" t="s">
+        <v>226</v>
+      </c>
+      <c r="D204">
+        <v>2000</v>
+      </c>
+      <c r="E204" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+      <c r="C205" t="s">
+        <v>227</v>
+      </c>
+      <c r="D205">
+        <v>2000</v>
+      </c>
+      <c r="E205" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>152</v>
+      </c>
+      <c r="C206" t="s">
+        <v>228</v>
+      </c>
+      <c r="D206">
+        <v>2000</v>
+      </c>
+      <c r="E206" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>152</v>
+      </c>
+      <c r="C207" t="s">
+        <v>229</v>
+      </c>
+      <c r="D207">
+        <v>2000</v>
+      </c>
+      <c r="E207" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>152</v>
+      </c>
+      <c r="C208" t="s">
+        <v>230</v>
+      </c>
+      <c r="D208">
+        <v>2000</v>
+      </c>
+      <c r="E208" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>152</v>
+      </c>
+      <c r="C209" t="s">
+        <v>231</v>
+      </c>
+      <c r="D209">
+        <v>2000</v>
+      </c>
+      <c r="E209" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>152</v>
+      </c>
+      <c r="C210" t="s">
+        <v>232</v>
+      </c>
+      <c r="D210">
+        <v>2000</v>
+      </c>
+      <c r="E210" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>152</v>
+      </c>
+      <c r="C211" t="s">
+        <v>233</v>
+      </c>
+      <c r="D211">
+        <v>2000</v>
+      </c>
+      <c r="E211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>152</v>
+      </c>
+      <c r="C212" t="s">
+        <v>234</v>
+      </c>
+      <c r="D212">
+        <v>2000</v>
+      </c>
+      <c r="E212" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>152</v>
+      </c>
+      <c r="C213" t="s">
+        <v>235</v>
+      </c>
+      <c r="D213">
+        <v>2000</v>
+      </c>
+      <c r="E213" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>152</v>
+      </c>
+      <c r="C214" t="s">
+        <v>236</v>
+      </c>
+      <c r="D214">
+        <v>2000</v>
+      </c>
+      <c r="E214" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>152</v>
+      </c>
+      <c r="C215" t="s">
+        <v>237</v>
+      </c>
+      <c r="D215">
+        <v>2000</v>
+      </c>
+      <c r="E215" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>152</v>
+      </c>
+      <c r="C216" t="s">
+        <v>238</v>
+      </c>
+      <c r="D216">
+        <v>2000</v>
+      </c>
+      <c r="E216" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>152</v>
+      </c>
+      <c r="C217" t="s">
+        <v>239</v>
+      </c>
+      <c r="D217">
+        <v>2000</v>
+      </c>
+      <c r="E217" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>152</v>
+      </c>
+      <c r="C218" t="s">
+        <v>240</v>
+      </c>
+      <c r="D218">
+        <v>2000</v>
+      </c>
+      <c r="E218" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>152</v>
+      </c>
+      <c r="C219" t="s">
+        <v>241</v>
+      </c>
+      <c r="D219">
+        <v>2000</v>
+      </c>
+      <c r="E219" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>244</v>
+      </c>
+      <c r="C220" t="s">
+        <v>246</v>
+      </c>
+      <c r="D220">
+        <v>1997</v>
+      </c>
+      <c r="E220" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>244</v>
+      </c>
+      <c r="C221" t="s">
+        <v>247</v>
+      </c>
+      <c r="D221">
+        <v>1997</v>
+      </c>
+      <c r="E221" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>244</v>
+      </c>
+      <c r="C222" t="s">
+        <v>248</v>
+      </c>
+      <c r="D222">
+        <v>1997</v>
+      </c>
+      <c r="E222" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>244</v>
+      </c>
+      <c r="C223" t="s">
+        <v>108</v>
+      </c>
+      <c r="D223">
+        <v>1997</v>
+      </c>
+      <c r="E223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" t="s">
+        <v>249</v>
+      </c>
+      <c r="D224">
+        <v>1997</v>
+      </c>
+      <c r="E224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>244</v>
+      </c>
+      <c r="C225" t="s">
+        <v>250</v>
+      </c>
+      <c r="D225">
+        <v>1997</v>
+      </c>
+      <c r="E225" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>244</v>
+      </c>
+      <c r="C226" t="s">
+        <v>251</v>
+      </c>
+      <c r="D226">
+        <v>1997</v>
+      </c>
+      <c r="E226" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>244</v>
+      </c>
+      <c r="C227" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227">
+        <v>1997</v>
+      </c>
+      <c r="E227" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>244</v>
+      </c>
+      <c r="C228" t="s">
+        <v>253</v>
+      </c>
+      <c r="D228">
+        <v>1997</v>
+      </c>
+      <c r="E228" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>244</v>
+      </c>
+      <c r="C229" t="s">
+        <v>254</v>
+      </c>
+      <c r="D229">
+        <v>1997</v>
+      </c>
+      <c r="E229" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230" t="s">
+        <v>255</v>
+      </c>
+      <c r="D230">
+        <v>1997</v>
+      </c>
+      <c r="E230" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>244</v>
+      </c>
+      <c r="C231" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231">
+        <v>1997</v>
+      </c>
+      <c r="E231" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>244</v>
+      </c>
+      <c r="C232" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232">
+        <v>1997</v>
+      </c>
+      <c r="E232" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>259</v>
+      </c>
+      <c r="C233" t="s">
+        <v>260</v>
+      </c>
+      <c r="D233" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>259</v>
+      </c>
+      <c r="C234" t="s">
+        <v>261</v>
+      </c>
+      <c r="D234" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>259</v>
+      </c>
+      <c r="C235" t="s">
+        <v>262</v>
+      </c>
+      <c r="D235" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>259</v>
+      </c>
+      <c r="C236" t="s">
+        <v>263</v>
+      </c>
+      <c r="D236" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>259</v>
+      </c>
+      <c r="C237" t="s">
+        <v>264</v>
+      </c>
+      <c r="D237" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>259</v>
+      </c>
+      <c r="C238" t="s">
+        <v>265</v>
+      </c>
+      <c r="D238" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" t="s">
+        <v>266</v>
+      </c>
+      <c r="D239" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>259</v>
+      </c>
+      <c r="C240" t="s">
+        <v>267</v>
+      </c>
+      <c r="D240" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" t="s">
+        <v>268</v>
+      </c>
+      <c r="D241" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>259</v>
+      </c>
+      <c r="C242" t="s">
+        <v>269</v>
+      </c>
+      <c r="D242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>259</v>
+      </c>
+      <c r="C243" t="s">
+        <v>270</v>
+      </c>
+      <c r="D243" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>259</v>
+      </c>
+      <c r="C244" t="s">
+        <v>271</v>
+      </c>
+      <c r="D244" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>259</v>
+      </c>
+      <c r="C245" t="s">
+        <v>272</v>
+      </c>
+      <c r="D245" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>259</v>
+      </c>
+      <c r="C246" t="s">
+        <v>273</v>
+      </c>
+      <c r="D246" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>259</v>
+      </c>
+      <c r="C247" t="s">
+        <v>274</v>
+      </c>
+      <c r="D247" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>259</v>
+      </c>
+      <c r="C248" t="s">
+        <v>275</v>
+      </c>
+      <c r="D248" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="C249" t="s">
+        <v>276</v>
+      </c>
+      <c r="D249" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>259</v>
+      </c>
+      <c r="C250" t="s">
+        <v>277</v>
+      </c>
+      <c r="D250" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>259</v>
+      </c>
+      <c r="C251" t="s">
+        <v>278</v>
+      </c>
+      <c r="D251" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>259</v>
+      </c>
+      <c r="C252" t="s">
+        <v>279</v>
+      </c>
+      <c r="D252" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>259</v>
+      </c>
+      <c r="C253" t="s">
+        <v>280</v>
+      </c>
+      <c r="D253" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" t="s">
+        <v>281</v>
+      </c>
+      <c r="D254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255" t="s">
+        <v>282</v>
+      </c>
+      <c r="D255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>283</v>
+      </c>
+      <c r="D256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" t="s">
+        <v>284</v>
+      </c>
+      <c r="D257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" t="s">
+        <v>286</v>
+      </c>
+      <c r="D258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>285</v>
+      </c>
+      <c r="C259" t="s">
+        <v>287</v>
+      </c>
+      <c r="D259" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>285</v>
+      </c>
+      <c r="C260" t="s">
+        <v>288</v>
+      </c>
+      <c r="D260" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>285</v>
+      </c>
+      <c r="C261" t="s">
+        <v>289</v>
+      </c>
+      <c r="D261" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>285</v>
+      </c>
+      <c r="C262" t="s">
+        <v>290</v>
+      </c>
+      <c r="D262" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>285</v>
+      </c>
+      <c r="C263" t="s">
+        <v>291</v>
+      </c>
+      <c r="D263" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>285</v>
+      </c>
+      <c r="C264" t="s">
+        <v>292</v>
+      </c>
+      <c r="D264" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" t="s">
+        <v>293</v>
+      </c>
+      <c r="D265" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>285</v>
+      </c>
+      <c r="C266" t="s">
+        <v>294</v>
+      </c>
+      <c r="D266" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>285</v>
+      </c>
+      <c r="C267" t="s">
+        <v>295</v>
+      </c>
+      <c r="D267" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" t="s">
+        <v>300</v>
+      </c>
+      <c r="D268" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>298</v>
+      </c>
+      <c r="C269" t="s">
+        <v>301</v>
+      </c>
+      <c r="D269" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>298</v>
+      </c>
+      <c r="C270" t="s">
+        <v>302</v>
+      </c>
+      <c r="D270" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>298</v>
+      </c>
+      <c r="C271" t="s">
+        <v>303</v>
+      </c>
+      <c r="D271" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>298</v>
+      </c>
+      <c r="C272" t="s">
+        <v>304</v>
+      </c>
+      <c r="D272" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>298</v>
+      </c>
+      <c r="C273" t="s">
+        <v>305</v>
+      </c>
+      <c r="D273" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>298</v>
+      </c>
+      <c r="C274" t="s">
+        <v>306</v>
+      </c>
+      <c r="D274" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>298</v>
+      </c>
+      <c r="C275" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>298</v>
+      </c>
+      <c r="C276" t="s">
+        <v>308</v>
+      </c>
+      <c r="D276" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>298</v>
+      </c>
+      <c r="C277" t="s">
+        <v>309</v>
+      </c>
+      <c r="D277" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>298</v>
+      </c>
+      <c r="C278" t="s">
+        <v>310</v>
+      </c>
+      <c r="D278" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>298</v>
+      </c>
+      <c r="C279" t="s">
+        <v>311</v>
+      </c>
+      <c r="D279" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>298</v>
+      </c>
+      <c r="C280" t="s">
+        <v>312</v>
+      </c>
+      <c r="D280" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>298</v>
+      </c>
+      <c r="C281" t="s">
+        <v>313</v>
+      </c>
+      <c r="D281" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>298</v>
+      </c>
+      <c r="C282" t="s">
+        <v>314</v>
+      </c>
+      <c r="D282" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>298</v>
+      </c>
+      <c r="C283" t="s">
+        <v>315</v>
+      </c>
+      <c r="D283" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" t="s">
+        <v>316</v>
+      </c>
+      <c r="D284" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" t="s">
+        <v>317</v>
+      </c>
+      <c r="D285" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>298</v>
+      </c>
+      <c r="C286" t="s">
+        <v>318</v>
+      </c>
+      <c r="D286" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>298</v>
+      </c>
+      <c r="C287" t="s">
+        <v>319</v>
+      </c>
+      <c r="D287" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288" t="s">
+        <v>96</v>
+      </c>
+      <c r="D288" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="594">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -979,6 +979,828 @@
   </si>
   <si>
     <t>Villages</t>
+  </si>
+  <si>
+    <t>Baldur's Gate</t>
+  </si>
+  <si>
+    <t>173495-baldur-s-gate-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Attacked By Assassins</t>
+  </si>
+  <si>
+    <t>Attacked By Bounty Hunters</t>
+  </si>
+  <si>
+    <t>Bandit Melee</t>
+  </si>
+  <si>
+    <t>Candlekeep</t>
+  </si>
+  <si>
+    <t>Cloakwood Forest</t>
+  </si>
+  <si>
+    <t>Down To The Sewers</t>
+  </si>
+  <si>
+    <t>End Of The Quest</t>
+  </si>
+  <si>
+    <t>Entering Baldur's Gate</t>
+  </si>
+  <si>
+    <t>Ever Deeper</t>
+  </si>
+  <si>
+    <t>Exploring The Plains</t>
+  </si>
+  <si>
+    <t>Fighting For Survival</t>
+  </si>
+  <si>
+    <t>From Out Of The Storm</t>
+  </si>
+  <si>
+    <t>Giant Spiders</t>
+  </si>
+  <si>
+    <t>Gorion's Battle</t>
+  </si>
+  <si>
+    <t>Helm's Temple</t>
+  </si>
+  <si>
+    <t>Hobgoblins And Worgs</t>
+  </si>
+  <si>
+    <t>Leaving Home</t>
+  </si>
+  <si>
+    <t>Night Falls On Baldur's Gate</t>
+  </si>
+  <si>
+    <t>Night In Cloakwood</t>
+  </si>
+  <si>
+    <t>Night On The Plains</t>
+  </si>
+  <si>
+    <t>Safe In Beregost</t>
+  </si>
+  <si>
+    <t>Stealth In The Bandit Camp</t>
+  </si>
+  <si>
+    <t>Streets Of The City</t>
+  </si>
+  <si>
+    <t>Swords Against Darkness</t>
+  </si>
+  <si>
+    <t>The Beregost Night</t>
+  </si>
+  <si>
+    <t>The Dream</t>
+  </si>
+  <si>
+    <t>The Friendly Arms Inn</t>
+  </si>
+  <si>
+    <t>The Gibberling Horde</t>
+  </si>
+  <si>
+    <t>The Lady's House</t>
+  </si>
+  <si>
+    <t>The Last Battle</t>
+  </si>
+  <si>
+    <t>The Ruins Of Ulcaster</t>
+  </si>
+  <si>
+    <t>The Stage Is Set</t>
+  </si>
+  <si>
+    <t>Baldur's Gate II: Shadows of Amn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amongst the Sahaugin</t>
+  </si>
+  <si>
+    <t>Asylum Journey</t>
+  </si>
+  <si>
+    <t>City Battle I</t>
+  </si>
+  <si>
+    <t>City Battle II</t>
+  </si>
+  <si>
+    <t>City Gates</t>
+  </si>
+  <si>
+    <t>Forest Battle I</t>
+  </si>
+  <si>
+    <t>Forest Battle II</t>
+  </si>
+  <si>
+    <t>Galean Bayle Sailing</t>
+  </si>
+  <si>
+    <t>Jon Battle and Peace</t>
+  </si>
+  <si>
+    <t>Jon Irenicus Encounter Theme</t>
+  </si>
+  <si>
+    <t>Main Title</t>
+  </si>
+  <si>
+    <t>Mountain Battle I</t>
+  </si>
+  <si>
+    <t>Mountain Battle II</t>
+  </si>
+  <si>
+    <t>Nighttime in the Docks</t>
+  </si>
+  <si>
+    <t>Plains Battle I</t>
+  </si>
+  <si>
+    <t>Plains Battle II</t>
+  </si>
+  <si>
+    <t>Romance I</t>
+  </si>
+  <si>
+    <t>Romance II</t>
+  </si>
+  <si>
+    <t>Sewer Battle</t>
+  </si>
+  <si>
+    <t>Shadow Battle</t>
+  </si>
+  <si>
+    <t>Taverns</t>
+  </si>
+  <si>
+    <t>The Asylum</t>
+  </si>
+  <si>
+    <t>The Bad</t>
+  </si>
+  <si>
+    <t>The Domain of the Dragon</t>
+  </si>
+  <si>
+    <t>The Dreams</t>
+  </si>
+  <si>
+    <t>The Druid Grove</t>
+  </si>
+  <si>
+    <t>The Good</t>
+  </si>
+  <si>
+    <t>The Pirate Isle</t>
+  </si>
+  <si>
+    <t>The Planar Sphere</t>
+  </si>
+  <si>
+    <t>The Slums</t>
+  </si>
+  <si>
+    <t>Trademeet</t>
+  </si>
+  <si>
+    <t>Underdark</t>
+  </si>
+  <si>
+    <t>Waukeen's Promenade</t>
+  </si>
+  <si>
+    <t>7317-baldur-s-gate-ii-shadows-of-amn-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Tiberian Sun</t>
+  </si>
+  <si>
+    <t>21861-command-conquer-tiberian-sun-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Dusk Hour</t>
+  </si>
+  <si>
+    <t>Flurry</t>
+  </si>
+  <si>
+    <t>Gloom</t>
+  </si>
+  <si>
+    <t>Heroism</t>
+  </si>
+  <si>
+    <t>Infrared</t>
+  </si>
+  <si>
+    <t>Lone Trooper</t>
+  </si>
+  <si>
+    <t>Mad Rap</t>
+  </si>
+  <si>
+    <t>Mutants</t>
+  </si>
+  <si>
+    <t>Pharotek</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Scouting</t>
+  </si>
+  <si>
+    <t>The Defense</t>
+  </si>
+  <si>
+    <t>Timebomb</t>
+  </si>
+  <si>
+    <t>Valves</t>
+  </si>
+  <si>
+    <t>What Lurks</t>
+  </si>
+  <si>
+    <t>200 Meters</t>
+  </si>
+  <si>
+    <t>Blow it Up</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>C&amp;C in the House</t>
+  </si>
+  <si>
+    <t>Destroy</t>
+  </si>
+  <si>
+    <t>Eagle Hunter</t>
+  </si>
+  <si>
+    <t>Fortification</t>
+  </si>
+  <si>
+    <t>Grinder</t>
+  </si>
+  <si>
+    <t>HM2</t>
+  </si>
+  <si>
+    <t>In Deep</t>
+  </si>
+  <si>
+    <t>Industrofunk</t>
+  </si>
+  <si>
+    <t>Jank</t>
+  </si>
+  <si>
+    <t>Motorized</t>
+  </si>
+  <si>
+    <t>Probing</t>
+  </si>
+  <si>
+    <t>Ready the Army</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 2</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 3</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 4</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 5</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 6</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 7</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 8</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 9</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 10</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 11</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 12</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 13</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 14</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 15</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert 16</t>
+  </si>
+  <si>
+    <t>3914-command-conquer-red-alert-2-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Earthworm Jim</t>
+  </si>
+  <si>
+    <t>Andy Asteroids</t>
+  </si>
+  <si>
+    <t>Bass Mix</t>
+  </si>
+  <si>
+    <t>Down the Tubes</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>For Pete's Sake</t>
+  </si>
+  <si>
+    <t>New Junk City</t>
+  </si>
+  <si>
+    <t>Party Time</t>
+  </si>
+  <si>
+    <t>Psycrow</t>
+  </si>
+  <si>
+    <t>Snot a Problem</t>
+  </si>
+  <si>
+    <t>The Queen's Lair (Buttville Part 2)</t>
+  </si>
+  <si>
+    <t>Track 13</t>
+  </si>
+  <si>
+    <t>Track 15</t>
+  </si>
+  <si>
+    <t>Use Your Head (Buttville Part 1)</t>
+  </si>
+  <si>
+    <t>What the Heck</t>
+  </si>
+  <si>
+    <t>Who Turned Out the Lights</t>
+  </si>
+  <si>
+    <t>You're The Best</t>
+  </si>
+  <si>
+    <t>27641-earthworm-jim-special-edition-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Casino Calavera</t>
+  </si>
+  <si>
+    <t>Opening Credits</t>
+  </si>
+  <si>
+    <t>Lola Exterior</t>
+  </si>
+  <si>
+    <t>Manny's Office</t>
+  </si>
+  <si>
+    <t>Swanky Maximino</t>
+  </si>
+  <si>
+    <t>Mr. Frustration Man</t>
+  </si>
+  <si>
+    <t>The Garage</t>
+  </si>
+  <si>
+    <t>Glottis' Shop</t>
+  </si>
+  <si>
+    <t>Hector Steps Out</t>
+  </si>
+  <si>
+    <t>Hi-Tone Fandango</t>
+  </si>
+  <si>
+    <t>The Sunken Lola</t>
+  </si>
+  <si>
+    <t>Department of Death Lobby</t>
+  </si>
+  <si>
+    <t>Pearl Crater Sub</t>
+  </si>
+  <si>
+    <t>Companeros (Festival Music 1)</t>
+  </si>
+  <si>
+    <t>High Roller</t>
+  </si>
+  <si>
+    <t>Domino's in Charge</t>
+  </si>
+  <si>
+    <t>Factory Hub</t>
+  </si>
+  <si>
+    <t>Ninth Heaven (Festival Music 2)</t>
+  </si>
+  <si>
+    <t>Trouble with Carla</t>
+  </si>
+  <si>
+    <t>Ashtray Room</t>
+  </si>
+  <si>
+    <t>Blue Casket Bop</t>
+  </si>
+  <si>
+    <t>On the Ledge</t>
+  </si>
+  <si>
+    <t>Domino's Office</t>
+  </si>
+  <si>
+    <t>Don Copal's Office</t>
+  </si>
+  <si>
+    <t>Miner's Room</t>
+  </si>
+  <si>
+    <t>Packing Room</t>
+  </si>
+  <si>
+    <t>Rubacava</t>
+  </si>
+  <si>
+    <t>Blue Hector</t>
+  </si>
+  <si>
+    <t>Vault Door</t>
+  </si>
+  <si>
+    <t>Outer Vault</t>
+  </si>
+  <si>
+    <t>Tube Room</t>
+  </si>
+  <si>
+    <t>Brennis</t>
+  </si>
+  <si>
+    <t>LSA Headquarters</t>
+  </si>
+  <si>
+    <t>Neon Ledge</t>
+  </si>
+  <si>
+    <t>Nuevo Marrow</t>
+  </si>
+  <si>
+    <t>Underwater Conveyor</t>
+  </si>
+  <si>
+    <t>Gambling Glottis</t>
+  </si>
+  <si>
+    <t>Signpost Room</t>
+  </si>
+  <si>
+    <t>Bone Wagon</t>
+  </si>
+  <si>
+    <t>Scrimshaw</t>
+  </si>
+  <si>
+    <t>Talking Limbo</t>
+  </si>
+  <si>
+    <t>Coaxing Meche</t>
+  </si>
+  <si>
+    <t>Lost Souls' Alliance</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>The Enlightened Florist</t>
+  </si>
+  <si>
+    <t>Temple Gate</t>
+  </si>
+  <si>
+    <t>Duelling With Domino</t>
+  </si>
+  <si>
+    <t>Ninth Heaven</t>
+  </si>
+  <si>
+    <t>Companeros</t>
+  </si>
+  <si>
+    <t>Manny &amp; Meche</t>
+  </si>
+  <si>
+    <t>Cafe Exterior</t>
+  </si>
+  <si>
+    <t>Casino Interior</t>
+  </si>
+  <si>
+    <t>Mayan Workshop</t>
+  </si>
+  <si>
+    <t>Glottis Noodle</t>
+  </si>
+  <si>
+    <t>Mayan Train Station</t>
+  </si>
+  <si>
+    <t>Glottis Piano</t>
+  </si>
+  <si>
+    <t>Jello Bomb</t>
+  </si>
+  <si>
+    <t>New LSA Headquarters</t>
+  </si>
+  <si>
+    <t>LSA Sewers</t>
+  </si>
+  <si>
+    <t>Blue Casket Exterior</t>
+  </si>
+  <si>
+    <t>Sewer Maze</t>
+  </si>
+  <si>
+    <t>Inside the Blue Casket</t>
+  </si>
+  <si>
+    <t>Florist Shop Interior</t>
+  </si>
+  <si>
+    <t>Leman's Office</t>
+  </si>
+  <si>
+    <t>Elevator Station</t>
+  </si>
+  <si>
+    <t>Police Station Interior</t>
+  </si>
+  <si>
+    <t>The Meadow</t>
+  </si>
+  <si>
+    <t>The Morgue</t>
+  </si>
+  <si>
+    <t>Greenhouse Approach</t>
+  </si>
+  <si>
+    <t>Meadow Flowers</t>
+  </si>
+  <si>
+    <t>Kitty Stables</t>
+  </si>
+  <si>
+    <t>Hector Sprouts</t>
+  </si>
+  <si>
+    <t>End Credits</t>
+  </si>
+  <si>
+    <t>High Roller Lounge</t>
+  </si>
+  <si>
+    <t>Max's Office</t>
+  </si>
+  <si>
+    <t>LOL Security Interior</t>
+  </si>
+  <si>
+    <t>Lighthouse Exterior</t>
+  </si>
+  <si>
+    <t>Rusty Sans Vox</t>
+  </si>
+  <si>
+    <t>Carla's Life Story</t>
+  </si>
+  <si>
+    <t>Dillopede Elevator</t>
+  </si>
+  <si>
+    <t>Heroes_II_Gold.jpg</t>
+  </si>
+  <si>
+    <t>Ashes</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Battle music 1</t>
+  </si>
+  <si>
+    <t>Battle music 2</t>
+  </si>
+  <si>
+    <t>Battle music 3</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Necromancer</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Quilt</t>
+  </si>
+  <si>
+    <t>Sorceress</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Title 2</t>
+  </si>
+  <si>
+    <t>Track22</t>
+  </si>
+  <si>
+    <t>Track24</t>
+  </si>
+  <si>
+    <t>Track28</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Heroes of Might &amp; Magic 2: Gold</t>
+  </si>
+  <si>
+    <t>Title screen</t>
+  </si>
+  <si>
+    <t>Main menu</t>
+  </si>
+  <si>
+    <t>Showcase</t>
+  </si>
+  <si>
+    <t>Showcase ferarri 355 f1</t>
+  </si>
+  <si>
+    <t>Showcase ferarri f50</t>
+  </si>
+  <si>
+    <t>Showcase Ford GT90</t>
+  </si>
+  <si>
+    <t>Showcase Ford Indigo</t>
+  </si>
+  <si>
+    <t>Showcase Ford Mustang Mach iii</t>
+  </si>
+  <si>
+    <t>Showcase Italdesign Cala</t>
+  </si>
+  <si>
+    <t>Showcase Italdesign Nazca c2</t>
+  </si>
+  <si>
+    <t>Showcase Jaguar xj220</t>
+  </si>
+  <si>
+    <t>Showcase Lotus espirit v8</t>
+  </si>
+  <si>
+    <t>Showcase Lotus gt1</t>
+  </si>
+  <si>
+    <t>Showcase Mclaren f1</t>
+  </si>
+  <si>
+    <t>Headless Horse</t>
+  </si>
+  <si>
+    <t>Feta Cheese</t>
+  </si>
+  <si>
+    <t>Corroboree</t>
+  </si>
+  <si>
+    <t>Hell Bent for Lederhosen</t>
+  </si>
+  <si>
+    <t>Sound Stage Strut</t>
+  </si>
+  <si>
+    <t>Siwash Rock</t>
+  </si>
+  <si>
+    <t>Sanoqoua</t>
+  </si>
+  <si>
+    <t>Pavlova</t>
+  </si>
+  <si>
+    <t>Kangchenjunga</t>
+  </si>
+  <si>
+    <t>Angry Ghosts</t>
+  </si>
+  <si>
+    <t>Fasolatha</t>
+  </si>
+  <si>
+    <t>Halling it</t>
+  </si>
+  <si>
+    <t>Refried Jumping beans</t>
+  </si>
+  <si>
+    <t>Heinerklingle</t>
+  </si>
+  <si>
+    <t>Nashat</t>
+  </si>
+  <si>
+    <t>Gore</t>
+  </si>
+  <si>
+    <t>Demo 1</t>
+  </si>
+  <si>
+    <t>Demo 2</t>
+  </si>
+  <si>
+    <t>Demo 3</t>
+  </si>
+  <si>
+    <t>Сredits</t>
+  </si>
+  <si>
+    <t>Need For Speed II SE</t>
+  </si>
+  <si>
+    <t>245858-need-for-speed-ii-windows-front-cover.jpg</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J288"/>
+  <dimension ref="A2:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C292" sqref="C292"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="I533" sqref="I533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,7 +6290,10 @@
       <c r="C233" t="s">
         <v>260</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233">
+        <v>1997</v>
+      </c>
+      <c r="E233" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5482,7 +6307,10 @@
       <c r="C234" t="s">
         <v>261</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234">
+        <v>1997</v>
+      </c>
+      <c r="E234" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5496,7 +6324,10 @@
       <c r="C235" t="s">
         <v>262</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235">
+        <v>1997</v>
+      </c>
+      <c r="E235" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5510,7 +6341,10 @@
       <c r="C236" t="s">
         <v>263</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236">
+        <v>1997</v>
+      </c>
+      <c r="E236" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5524,7 +6358,10 @@
       <c r="C237" t="s">
         <v>264</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237">
+        <v>1997</v>
+      </c>
+      <c r="E237" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5538,7 +6375,10 @@
       <c r="C238" t="s">
         <v>265</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238">
+        <v>1997</v>
+      </c>
+      <c r="E238" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5552,7 +6392,10 @@
       <c r="C239" t="s">
         <v>266</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239">
+        <v>1997</v>
+      </c>
+      <c r="E239" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5566,11 +6409,14 @@
       <c r="C240" t="s">
         <v>267</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240">
+        <v>1997</v>
+      </c>
+      <c r="E240" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5580,11 +6426,14 @@
       <c r="C241" t="s">
         <v>268</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241">
+        <v>1997</v>
+      </c>
+      <c r="E241" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5594,11 +6443,14 @@
       <c r="C242" t="s">
         <v>269</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242">
+        <v>1997</v>
+      </c>
+      <c r="E242" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5608,11 +6460,14 @@
       <c r="C243" t="s">
         <v>270</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243">
+        <v>1997</v>
+      </c>
+      <c r="E243" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5622,11 +6477,14 @@
       <c r="C244" t="s">
         <v>271</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244">
+        <v>1997</v>
+      </c>
+      <c r="E244" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5636,11 +6494,14 @@
       <c r="C245" t="s">
         <v>272</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245">
+        <v>1997</v>
+      </c>
+      <c r="E245" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5650,11 +6511,14 @@
       <c r="C246" t="s">
         <v>273</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246">
+        <v>1997</v>
+      </c>
+      <c r="E246" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5664,11 +6528,14 @@
       <c r="C247" t="s">
         <v>274</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247">
+        <v>1997</v>
+      </c>
+      <c r="E247" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5678,11 +6545,14 @@
       <c r="C248" t="s">
         <v>275</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248">
+        <v>1997</v>
+      </c>
+      <c r="E248" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5692,11 +6562,14 @@
       <c r="C249" t="s">
         <v>276</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249">
+        <v>1997</v>
+      </c>
+      <c r="E249" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5706,11 +6579,14 @@
       <c r="C250" t="s">
         <v>277</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250">
+        <v>1997</v>
+      </c>
+      <c r="E250" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5720,11 +6596,14 @@
       <c r="C251" t="s">
         <v>278</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251">
+        <v>1997</v>
+      </c>
+      <c r="E251" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5734,11 +6613,14 @@
       <c r="C252" t="s">
         <v>279</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252">
+        <v>1997</v>
+      </c>
+      <c r="E252" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5748,11 +6630,14 @@
       <c r="C253" t="s">
         <v>280</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253">
+        <v>1997</v>
+      </c>
+      <c r="E253" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5762,11 +6647,14 @@
       <c r="C254" t="s">
         <v>281</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254">
+        <v>1997</v>
+      </c>
+      <c r="E254" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5776,11 +6664,14 @@
       <c r="C255" t="s">
         <v>282</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255">
+        <v>1997</v>
+      </c>
+      <c r="E255" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5790,11 +6681,14 @@
       <c r="C256" t="s">
         <v>283</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256">
+        <v>1997</v>
+      </c>
+      <c r="E256" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5804,11 +6698,14 @@
       <c r="C257" t="s">
         <v>284</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257">
+        <v>1997</v>
+      </c>
+      <c r="E257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5818,11 +6715,11 @@
       <c r="C258" t="s">
         <v>286</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5832,11 +6729,11 @@
       <c r="C259" t="s">
         <v>287</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5846,11 +6743,11 @@
       <c r="C260" t="s">
         <v>288</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5860,11 +6757,11 @@
       <c r="C261" t="s">
         <v>289</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5874,11 +6771,11 @@
       <c r="C262" t="s">
         <v>290</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5888,11 +6785,11 @@
       <c r="C263" t="s">
         <v>291</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5902,11 +6799,11 @@
       <c r="C264" t="s">
         <v>292</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5916,11 +6813,11 @@
       <c r="C265" t="s">
         <v>293</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5930,11 +6827,11 @@
       <c r="C266" t="s">
         <v>294</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5944,11 +6841,11 @@
       <c r="C267" t="s">
         <v>295</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5958,11 +6855,11 @@
       <c r="C268" t="s">
         <v>300</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5972,11 +6869,11 @@
       <c r="C269" t="s">
         <v>301</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5986,11 +6883,11 @@
       <c r="C270" t="s">
         <v>302</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6000,11 +6897,11 @@
       <c r="C271" t="s">
         <v>303</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6014,11 +6911,11 @@
       <c r="C272" t="s">
         <v>304</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6028,11 +6925,11 @@
       <c r="C273" t="s">
         <v>305</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6042,11 +6939,11 @@
       <c r="C274" t="s">
         <v>306</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6056,11 +6953,11 @@
       <c r="C275" t="s">
         <v>307</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6070,11 +6967,11 @@
       <c r="C276" t="s">
         <v>308</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6084,11 +6981,11 @@
       <c r="C277" t="s">
         <v>309</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6098,11 +6995,11 @@
       <c r="C278" t="s">
         <v>310</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6112,11 +7009,11 @@
       <c r="C279" t="s">
         <v>311</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6126,11 +7023,11 @@
       <c r="C280" t="s">
         <v>312</v>
       </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6140,11 +7037,11 @@
       <c r="C281" t="s">
         <v>313</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6154,11 +7051,11 @@
       <c r="C282" t="s">
         <v>314</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6168,11 +7065,11 @@
       <c r="C283" t="s">
         <v>315</v>
       </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6182,11 +7079,11 @@
       <c r="C284" t="s">
         <v>316</v>
       </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6196,11 +7093,11 @@
       <c r="C285" t="s">
         <v>317</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6210,11 +7107,11 @@
       <c r="C286" t="s">
         <v>318</v>
       </c>
-      <c r="D286" t="s">
+      <c r="E286" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6224,11 +7121,11 @@
       <c r="C287" t="s">
         <v>319</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6238,8 +7135,4312 @@
       <c r="C288" t="s">
         <v>96</v>
       </c>
-      <c r="D288" t="s">
+      <c r="E288" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>320</v>
+      </c>
+      <c r="C289" t="s">
+        <v>322</v>
+      </c>
+      <c r="E289" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" t="s">
+        <v>323</v>
+      </c>
+      <c r="E290" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>320</v>
+      </c>
+      <c r="C291" t="s">
+        <v>324</v>
+      </c>
+      <c r="E291" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>320</v>
+      </c>
+      <c r="C292" t="s">
+        <v>325</v>
+      </c>
+      <c r="E292" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>320</v>
+      </c>
+      <c r="C293" t="s">
+        <v>326</v>
+      </c>
+      <c r="E293" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>320</v>
+      </c>
+      <c r="C294" t="s">
+        <v>327</v>
+      </c>
+      <c r="E294" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>320</v>
+      </c>
+      <c r="C295" t="s">
+        <v>328</v>
+      </c>
+      <c r="E295" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>320</v>
+      </c>
+      <c r="C296" t="s">
+        <v>329</v>
+      </c>
+      <c r="E296" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>320</v>
+      </c>
+      <c r="C297" t="s">
+        <v>330</v>
+      </c>
+      <c r="E297" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>320</v>
+      </c>
+      <c r="C298" t="s">
+        <v>331</v>
+      </c>
+      <c r="E298" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>320</v>
+      </c>
+      <c r="C299" t="s">
+        <v>332</v>
+      </c>
+      <c r="E299" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>320</v>
+      </c>
+      <c r="C300" t="s">
+        <v>333</v>
+      </c>
+      <c r="E300" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>320</v>
+      </c>
+      <c r="C301" t="s">
+        <v>334</v>
+      </c>
+      <c r="E301" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>320</v>
+      </c>
+      <c r="C302" t="s">
+        <v>335</v>
+      </c>
+      <c r="E302" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>320</v>
+      </c>
+      <c r="C303" t="s">
+        <v>336</v>
+      </c>
+      <c r="E303" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>320</v>
+      </c>
+      <c r="C304" t="s">
+        <v>337</v>
+      </c>
+      <c r="E304" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>320</v>
+      </c>
+      <c r="C305" t="s">
+        <v>338</v>
+      </c>
+      <c r="E305" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" t="s">
+        <v>339</v>
+      </c>
+      <c r="E307" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>320</v>
+      </c>
+      <c r="C308" t="s">
+        <v>340</v>
+      </c>
+      <c r="E308" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>320</v>
+      </c>
+      <c r="C309" t="s">
+        <v>341</v>
+      </c>
+      <c r="E309" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310" t="s">
+        <v>342</v>
+      </c>
+      <c r="E310" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>320</v>
+      </c>
+      <c r="C311" t="s">
+        <v>343</v>
+      </c>
+      <c r="E311" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>320</v>
+      </c>
+      <c r="C312" t="s">
+        <v>344</v>
+      </c>
+      <c r="E312" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>320</v>
+      </c>
+      <c r="C313" t="s">
+        <v>345</v>
+      </c>
+      <c r="E313" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>320</v>
+      </c>
+      <c r="C314" t="s">
+        <v>346</v>
+      </c>
+      <c r="E314" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>320</v>
+      </c>
+      <c r="C315" t="s">
+        <v>347</v>
+      </c>
+      <c r="E315" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>320</v>
+      </c>
+      <c r="C316" t="s">
+        <v>348</v>
+      </c>
+      <c r="E316" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>320</v>
+      </c>
+      <c r="C317" t="s">
+        <v>349</v>
+      </c>
+      <c r="E317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>320</v>
+      </c>
+      <c r="C318" t="s">
+        <v>350</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>320</v>
+      </c>
+      <c r="C319" t="s">
+        <v>351</v>
+      </c>
+      <c r="E319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" t="s">
+        <v>352</v>
+      </c>
+      <c r="E320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>320</v>
+      </c>
+      <c r="C321" t="s">
+        <v>353</v>
+      </c>
+      <c r="E321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>354</v>
+      </c>
+      <c r="C322" t="s">
+        <v>355</v>
+      </c>
+      <c r="D322">
+        <v>2000</v>
+      </c>
+      <c r="E322" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>354</v>
+      </c>
+      <c r="C323" t="s">
+        <v>356</v>
+      </c>
+      <c r="D323">
+        <v>2000</v>
+      </c>
+      <c r="E323" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>354</v>
+      </c>
+      <c r="C324" t="s">
+        <v>357</v>
+      </c>
+      <c r="D324">
+        <v>2000</v>
+      </c>
+      <c r="E324" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>354</v>
+      </c>
+      <c r="C325" t="s">
+        <v>358</v>
+      </c>
+      <c r="D325">
+        <v>2000</v>
+      </c>
+      <c r="E325" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>354</v>
+      </c>
+      <c r="C326" t="s">
+        <v>359</v>
+      </c>
+      <c r="D326">
+        <v>2000</v>
+      </c>
+      <c r="E326" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>354</v>
+      </c>
+      <c r="C327" t="s">
+        <v>360</v>
+      </c>
+      <c r="D327">
+        <v>2000</v>
+      </c>
+      <c r="E327" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>354</v>
+      </c>
+      <c r="C328" t="s">
+        <v>361</v>
+      </c>
+      <c r="D328">
+        <v>2000</v>
+      </c>
+      <c r="E328" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>354</v>
+      </c>
+      <c r="C329" t="s">
+        <v>362</v>
+      </c>
+      <c r="D329">
+        <v>2000</v>
+      </c>
+      <c r="E329" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>354</v>
+      </c>
+      <c r="C330" t="s">
+        <v>363</v>
+      </c>
+      <c r="D330">
+        <v>2000</v>
+      </c>
+      <c r="E330" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>354</v>
+      </c>
+      <c r="C331" t="s">
+        <v>364</v>
+      </c>
+      <c r="D331">
+        <v>2000</v>
+      </c>
+      <c r="E331" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>354</v>
+      </c>
+      <c r="C332" t="s">
+        <v>365</v>
+      </c>
+      <c r="D332">
+        <v>2000</v>
+      </c>
+      <c r="E332" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>354</v>
+      </c>
+      <c r="C333" t="s">
+        <v>366</v>
+      </c>
+      <c r="D333">
+        <v>2000</v>
+      </c>
+      <c r="E333" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>354</v>
+      </c>
+      <c r="C334" t="s">
+        <v>367</v>
+      </c>
+      <c r="D334">
+        <v>2000</v>
+      </c>
+      <c r="E334" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>354</v>
+      </c>
+      <c r="C335" t="s">
+        <v>368</v>
+      </c>
+      <c r="D335">
+        <v>2000</v>
+      </c>
+      <c r="E335" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>354</v>
+      </c>
+      <c r="C336" t="s">
+        <v>369</v>
+      </c>
+      <c r="D336">
+        <v>2000</v>
+      </c>
+      <c r="E336" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>354</v>
+      </c>
+      <c r="C337" t="s">
+        <v>370</v>
+      </c>
+      <c r="D337">
+        <v>2000</v>
+      </c>
+      <c r="E337" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>354</v>
+      </c>
+      <c r="C338" t="s">
+        <v>371</v>
+      </c>
+      <c r="D338">
+        <v>2000</v>
+      </c>
+      <c r="E338" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>354</v>
+      </c>
+      <c r="C339" t="s">
+        <v>372</v>
+      </c>
+      <c r="D339">
+        <v>2000</v>
+      </c>
+      <c r="E339" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>354</v>
+      </c>
+      <c r="C340" t="s">
+        <v>373</v>
+      </c>
+      <c r="D340">
+        <v>2000</v>
+      </c>
+      <c r="E340" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>354</v>
+      </c>
+      <c r="C341" t="s">
+        <v>374</v>
+      </c>
+      <c r="D341">
+        <v>2000</v>
+      </c>
+      <c r="E341" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>354</v>
+      </c>
+      <c r="C342" t="s">
+        <v>375</v>
+      </c>
+      <c r="D342">
+        <v>2000</v>
+      </c>
+      <c r="E342" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>354</v>
+      </c>
+      <c r="C343" t="s">
+        <v>376</v>
+      </c>
+      <c r="D343">
+        <v>2000</v>
+      </c>
+      <c r="E343" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>354</v>
+      </c>
+      <c r="C344" t="s">
+        <v>377</v>
+      </c>
+      <c r="D344">
+        <v>2000</v>
+      </c>
+      <c r="E344" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>354</v>
+      </c>
+      <c r="C345" t="s">
+        <v>378</v>
+      </c>
+      <c r="D345">
+        <v>2000</v>
+      </c>
+      <c r="E345" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>354</v>
+      </c>
+      <c r="C346" t="s">
+        <v>379</v>
+      </c>
+      <c r="D346">
+        <v>2000</v>
+      </c>
+      <c r="E346" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>354</v>
+      </c>
+      <c r="C347" t="s">
+        <v>380</v>
+      </c>
+      <c r="D347">
+        <v>2000</v>
+      </c>
+      <c r="E347" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>354</v>
+      </c>
+      <c r="C348" t="s">
+        <v>381</v>
+      </c>
+      <c r="D348">
+        <v>2000</v>
+      </c>
+      <c r="E348" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>354</v>
+      </c>
+      <c r="C349" t="s">
+        <v>382</v>
+      </c>
+      <c r="D349">
+        <v>2000</v>
+      </c>
+      <c r="E349" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>354</v>
+      </c>
+      <c r="C350" t="s">
+        <v>383</v>
+      </c>
+      <c r="D350">
+        <v>2000</v>
+      </c>
+      <c r="E350" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>354</v>
+      </c>
+      <c r="C351" t="s">
+        <v>384</v>
+      </c>
+      <c r="D351">
+        <v>2000</v>
+      </c>
+      <c r="E351" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>354</v>
+      </c>
+      <c r="C352" t="s">
+        <v>385</v>
+      </c>
+      <c r="D352">
+        <v>2000</v>
+      </c>
+      <c r="E352" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>354</v>
+      </c>
+      <c r="C353" t="s">
+        <v>386</v>
+      </c>
+      <c r="D353">
+        <v>2000</v>
+      </c>
+      <c r="E353" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354" t="s">
+        <v>387</v>
+      </c>
+      <c r="D354">
+        <v>2000</v>
+      </c>
+      <c r="E354" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>389</v>
+      </c>
+      <c r="C355" t="s">
+        <v>391</v>
+      </c>
+      <c r="D355">
+        <v>1999</v>
+      </c>
+      <c r="E355" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>389</v>
+      </c>
+      <c r="C356" t="s">
+        <v>392</v>
+      </c>
+      <c r="D356">
+        <v>1999</v>
+      </c>
+      <c r="E356" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>389</v>
+      </c>
+      <c r="C357" t="s">
+        <v>393</v>
+      </c>
+      <c r="D357">
+        <v>1999</v>
+      </c>
+      <c r="E357" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>389</v>
+      </c>
+      <c r="C358" t="s">
+        <v>394</v>
+      </c>
+      <c r="D358">
+        <v>1999</v>
+      </c>
+      <c r="E358" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>389</v>
+      </c>
+      <c r="C359" t="s">
+        <v>395</v>
+      </c>
+      <c r="D359">
+        <v>1999</v>
+      </c>
+      <c r="E359" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>389</v>
+      </c>
+      <c r="C360" t="s">
+        <v>396</v>
+      </c>
+      <c r="D360">
+        <v>1999</v>
+      </c>
+      <c r="E360" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>389</v>
+      </c>
+      <c r="C361" t="s">
+        <v>397</v>
+      </c>
+      <c r="D361">
+        <v>1999</v>
+      </c>
+      <c r="E361" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>389</v>
+      </c>
+      <c r="C362" t="s">
+        <v>398</v>
+      </c>
+      <c r="D362">
+        <v>1999</v>
+      </c>
+      <c r="E362" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>389</v>
+      </c>
+      <c r="C363" t="s">
+        <v>399</v>
+      </c>
+      <c r="D363">
+        <v>1999</v>
+      </c>
+      <c r="E363" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>389</v>
+      </c>
+      <c r="C364" t="s">
+        <v>400</v>
+      </c>
+      <c r="D364">
+        <v>1999</v>
+      </c>
+      <c r="E364" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>389</v>
+      </c>
+      <c r="C365" t="s">
+        <v>401</v>
+      </c>
+      <c r="D365">
+        <v>1999</v>
+      </c>
+      <c r="E365" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>389</v>
+      </c>
+      <c r="C366" t="s">
+        <v>402</v>
+      </c>
+      <c r="D366">
+        <v>1999</v>
+      </c>
+      <c r="E366" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>389</v>
+      </c>
+      <c r="C367" t="s">
+        <v>403</v>
+      </c>
+      <c r="D367">
+        <v>1999</v>
+      </c>
+      <c r="E367" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>389</v>
+      </c>
+      <c r="C368" t="s">
+        <v>404</v>
+      </c>
+      <c r="D368">
+        <v>1999</v>
+      </c>
+      <c r="E368" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>389</v>
+      </c>
+      <c r="C369" t="s">
+        <v>405</v>
+      </c>
+      <c r="D369">
+        <v>1999</v>
+      </c>
+      <c r="E369" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>389</v>
+      </c>
+      <c r="C370" t="s">
+        <v>406</v>
+      </c>
+      <c r="D370">
+        <v>1999</v>
+      </c>
+      <c r="E370" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>422</v>
+      </c>
+      <c r="C371" t="s">
+        <v>407</v>
+      </c>
+      <c r="D371">
+        <v>2000</v>
+      </c>
+      <c r="E371" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>423</v>
+      </c>
+      <c r="C372" t="s">
+        <v>408</v>
+      </c>
+      <c r="D372">
+        <v>2000</v>
+      </c>
+      <c r="E372" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>424</v>
+      </c>
+      <c r="C373" t="s">
+        <v>409</v>
+      </c>
+      <c r="D373">
+        <v>2000</v>
+      </c>
+      <c r="E373" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>425</v>
+      </c>
+      <c r="C374" t="s">
+        <v>410</v>
+      </c>
+      <c r="D374">
+        <v>2000</v>
+      </c>
+      <c r="E374" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>426</v>
+      </c>
+      <c r="C375" t="s">
+        <v>411</v>
+      </c>
+      <c r="D375">
+        <v>2000</v>
+      </c>
+      <c r="E375" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>427</v>
+      </c>
+      <c r="C376" t="s">
+        <v>412</v>
+      </c>
+      <c r="D376">
+        <v>2000</v>
+      </c>
+      <c r="E376" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>428</v>
+      </c>
+      <c r="C377" t="s">
+        <v>413</v>
+      </c>
+      <c r="D377">
+        <v>2000</v>
+      </c>
+      <c r="E377" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>429</v>
+      </c>
+      <c r="C378" t="s">
+        <v>414</v>
+      </c>
+      <c r="D378">
+        <v>2000</v>
+      </c>
+      <c r="E378" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>430</v>
+      </c>
+      <c r="C379" t="s">
+        <v>415</v>
+      </c>
+      <c r="D379">
+        <v>2000</v>
+      </c>
+      <c r="E379" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>431</v>
+      </c>
+      <c r="C380" t="s">
+        <v>416</v>
+      </c>
+      <c r="D380">
+        <v>2000</v>
+      </c>
+      <c r="E380" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>432</v>
+      </c>
+      <c r="C381" t="s">
+        <v>417</v>
+      </c>
+      <c r="D381">
+        <v>2000</v>
+      </c>
+      <c r="E381" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>433</v>
+      </c>
+      <c r="C382" t="s">
+        <v>418</v>
+      </c>
+      <c r="D382">
+        <v>2000</v>
+      </c>
+      <c r="E382" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>434</v>
+      </c>
+      <c r="C383" t="s">
+        <v>419</v>
+      </c>
+      <c r="D383">
+        <v>2000</v>
+      </c>
+      <c r="E383" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>435</v>
+      </c>
+      <c r="C384" t="s">
+        <v>420</v>
+      </c>
+      <c r="D384">
+        <v>2000</v>
+      </c>
+      <c r="E384" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>436</v>
+      </c>
+      <c r="C385" t="s">
+        <v>421</v>
+      </c>
+      <c r="D385">
+        <v>2000</v>
+      </c>
+      <c r="E385" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>438</v>
+      </c>
+      <c r="C386" t="s">
+        <v>439</v>
+      </c>
+      <c r="D386">
+        <v>1994</v>
+      </c>
+      <c r="E386" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>438</v>
+      </c>
+      <c r="C387" t="s">
+        <v>440</v>
+      </c>
+      <c r="D387">
+        <v>1994</v>
+      </c>
+      <c r="E387" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>438</v>
+      </c>
+      <c r="C388" t="s">
+        <v>441</v>
+      </c>
+      <c r="D388">
+        <v>1994</v>
+      </c>
+      <c r="E388" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>438</v>
+      </c>
+      <c r="C389" t="s">
+        <v>442</v>
+      </c>
+      <c r="D389">
+        <v>1994</v>
+      </c>
+      <c r="E389" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>438</v>
+      </c>
+      <c r="C390" t="s">
+        <v>443</v>
+      </c>
+      <c r="D390">
+        <v>1994</v>
+      </c>
+      <c r="E390" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>438</v>
+      </c>
+      <c r="C391" t="s">
+        <v>444</v>
+      </c>
+      <c r="D391">
+        <v>1994</v>
+      </c>
+      <c r="E391" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>438</v>
+      </c>
+      <c r="C392" t="s">
+        <v>445</v>
+      </c>
+      <c r="D392">
+        <v>1994</v>
+      </c>
+      <c r="E392" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>438</v>
+      </c>
+      <c r="C393" t="s">
+        <v>446</v>
+      </c>
+      <c r="D393">
+        <v>1994</v>
+      </c>
+      <c r="E393" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>438</v>
+      </c>
+      <c r="C394" t="s">
+        <v>447</v>
+      </c>
+      <c r="D394">
+        <v>1994</v>
+      </c>
+      <c r="E394" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>438</v>
+      </c>
+      <c r="C395" t="s">
+        <v>448</v>
+      </c>
+      <c r="D395">
+        <v>1994</v>
+      </c>
+      <c r="E395" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>438</v>
+      </c>
+      <c r="C396" t="s">
+        <v>449</v>
+      </c>
+      <c r="D396">
+        <v>1994</v>
+      </c>
+      <c r="E396" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>438</v>
+      </c>
+      <c r="C397" t="s">
+        <v>450</v>
+      </c>
+      <c r="D397">
+        <v>1994</v>
+      </c>
+      <c r="E397" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>438</v>
+      </c>
+      <c r="C398" t="s">
+        <v>451</v>
+      </c>
+      <c r="D398">
+        <v>1994</v>
+      </c>
+      <c r="E398" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>438</v>
+      </c>
+      <c r="C399" t="s">
+        <v>452</v>
+      </c>
+      <c r="D399">
+        <v>1994</v>
+      </c>
+      <c r="E399" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>438</v>
+      </c>
+      <c r="C400" t="s">
+        <v>453</v>
+      </c>
+      <c r="D400">
+        <v>1994</v>
+      </c>
+      <c r="E400" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>438</v>
+      </c>
+      <c r="C401" t="s">
+        <v>454</v>
+      </c>
+      <c r="D401">
+        <v>1994</v>
+      </c>
+      <c r="E401" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>67</v>
+      </c>
+      <c r="C402" t="s">
+        <v>456</v>
+      </c>
+      <c r="D402">
+        <v>1998</v>
+      </c>
+      <c r="E402" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>67</v>
+      </c>
+      <c r="C403" t="s">
+        <v>457</v>
+      </c>
+      <c r="D403">
+        <v>1998</v>
+      </c>
+      <c r="E403" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>67</v>
+      </c>
+      <c r="C404" t="s">
+        <v>458</v>
+      </c>
+      <c r="D404">
+        <v>1998</v>
+      </c>
+      <c r="E404" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>67</v>
+      </c>
+      <c r="C405" t="s">
+        <v>459</v>
+      </c>
+      <c r="D405">
+        <v>1998</v>
+      </c>
+      <c r="E405" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>67</v>
+      </c>
+      <c r="C406" t="s">
+        <v>460</v>
+      </c>
+      <c r="D406">
+        <v>1998</v>
+      </c>
+      <c r="E406" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>67</v>
+      </c>
+      <c r="C407" t="s">
+        <v>461</v>
+      </c>
+      <c r="D407">
+        <v>1998</v>
+      </c>
+      <c r="E407" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>67</v>
+      </c>
+      <c r="C408" t="s">
+        <v>461</v>
+      </c>
+      <c r="D408">
+        <v>1998</v>
+      </c>
+      <c r="E408" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>67</v>
+      </c>
+      <c r="C409" t="s">
+        <v>462</v>
+      </c>
+      <c r="D409">
+        <v>1998</v>
+      </c>
+      <c r="E409" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>67</v>
+      </c>
+      <c r="C410" t="s">
+        <v>463</v>
+      </c>
+      <c r="D410">
+        <v>1998</v>
+      </c>
+      <c r="E410" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>67</v>
+      </c>
+      <c r="C411" t="s">
+        <v>464</v>
+      </c>
+      <c r="D411">
+        <v>1998</v>
+      </c>
+      <c r="E411" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>67</v>
+      </c>
+      <c r="C412" t="s">
+        <v>465</v>
+      </c>
+      <c r="D412">
+        <v>1998</v>
+      </c>
+      <c r="E412" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>67</v>
+      </c>
+      <c r="C413" t="s">
+        <v>466</v>
+      </c>
+      <c r="D413">
+        <v>1998</v>
+      </c>
+      <c r="E413" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>67</v>
+      </c>
+      <c r="C414" t="s">
+        <v>467</v>
+      </c>
+      <c r="D414">
+        <v>1998</v>
+      </c>
+      <c r="E414" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>67</v>
+      </c>
+      <c r="C415" t="s">
+        <v>468</v>
+      </c>
+      <c r="D415">
+        <v>1998</v>
+      </c>
+      <c r="E415" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>67</v>
+      </c>
+      <c r="C416" t="s">
+        <v>469</v>
+      </c>
+      <c r="D416">
+        <v>1998</v>
+      </c>
+      <c r="E416" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>67</v>
+      </c>
+      <c r="C417" t="s">
+        <v>470</v>
+      </c>
+      <c r="D417">
+        <v>1998</v>
+      </c>
+      <c r="E417" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>67</v>
+      </c>
+      <c r="C418" t="s">
+        <v>471</v>
+      </c>
+      <c r="D418">
+        <v>1998</v>
+      </c>
+      <c r="E418" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>67</v>
+      </c>
+      <c r="C419" t="s">
+        <v>472</v>
+      </c>
+      <c r="D419">
+        <v>1998</v>
+      </c>
+      <c r="E419" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>67</v>
+      </c>
+      <c r="C420" t="s">
+        <v>473</v>
+      </c>
+      <c r="D420">
+        <v>1998</v>
+      </c>
+      <c r="E420" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>67</v>
+      </c>
+      <c r="C421" t="s">
+        <v>474</v>
+      </c>
+      <c r="D421">
+        <v>1998</v>
+      </c>
+      <c r="E421" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>67</v>
+      </c>
+      <c r="C422" t="s">
+        <v>475</v>
+      </c>
+      <c r="D422">
+        <v>1998</v>
+      </c>
+      <c r="E422" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>67</v>
+      </c>
+      <c r="C423" t="s">
+        <v>476</v>
+      </c>
+      <c r="D423">
+        <v>1998</v>
+      </c>
+      <c r="E423" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>67</v>
+      </c>
+      <c r="C424" t="s">
+        <v>477</v>
+      </c>
+      <c r="D424">
+        <v>1998</v>
+      </c>
+      <c r="E424" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>67</v>
+      </c>
+      <c r="C425" t="s">
+        <v>478</v>
+      </c>
+      <c r="D425">
+        <v>1998</v>
+      </c>
+      <c r="E425" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>67</v>
+      </c>
+      <c r="C426" t="s">
+        <v>479</v>
+      </c>
+      <c r="D426">
+        <v>1998</v>
+      </c>
+      <c r="E426" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>67</v>
+      </c>
+      <c r="C427" t="s">
+        <v>459</v>
+      </c>
+      <c r="D427">
+        <v>1998</v>
+      </c>
+      <c r="E427" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>67</v>
+      </c>
+      <c r="C428" t="s">
+        <v>480</v>
+      </c>
+      <c r="D428">
+        <v>1998</v>
+      </c>
+      <c r="E428" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>67</v>
+      </c>
+      <c r="C429" t="s">
+        <v>481</v>
+      </c>
+      <c r="D429">
+        <v>1998</v>
+      </c>
+      <c r="E429" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>67</v>
+      </c>
+      <c r="C430" t="s">
+        <v>482</v>
+      </c>
+      <c r="D430">
+        <v>1998</v>
+      </c>
+      <c r="E430" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>67</v>
+      </c>
+      <c r="C431" t="s">
+        <v>483</v>
+      </c>
+      <c r="D431">
+        <v>1998</v>
+      </c>
+      <c r="E431" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>67</v>
+      </c>
+      <c r="C432" t="s">
+        <v>478</v>
+      </c>
+      <c r="D432">
+        <v>1998</v>
+      </c>
+      <c r="E432" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>67</v>
+      </c>
+      <c r="C433" t="s">
+        <v>484</v>
+      </c>
+      <c r="D433">
+        <v>1998</v>
+      </c>
+      <c r="E433" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>67</v>
+      </c>
+      <c r="C434" t="s">
+        <v>485</v>
+      </c>
+      <c r="D434">
+        <v>1998</v>
+      </c>
+      <c r="E434" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>67</v>
+      </c>
+      <c r="C435" t="s">
+        <v>486</v>
+      </c>
+      <c r="D435">
+        <v>1998</v>
+      </c>
+      <c r="E435" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>67</v>
+      </c>
+      <c r="C436" t="s">
+        <v>487</v>
+      </c>
+      <c r="D436">
+        <v>1998</v>
+      </c>
+      <c r="E436" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>67</v>
+      </c>
+      <c r="C437" t="s">
+        <v>488</v>
+      </c>
+      <c r="D437">
+        <v>1998</v>
+      </c>
+      <c r="E437" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>67</v>
+      </c>
+      <c r="C438" t="s">
+        <v>489</v>
+      </c>
+      <c r="D438">
+        <v>1998</v>
+      </c>
+      <c r="E438" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>67</v>
+      </c>
+      <c r="C439" t="s">
+        <v>490</v>
+      </c>
+      <c r="D439">
+        <v>1998</v>
+      </c>
+      <c r="E439" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>67</v>
+      </c>
+      <c r="C440" t="s">
+        <v>491</v>
+      </c>
+      <c r="D440">
+        <v>1998</v>
+      </c>
+      <c r="E440" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>67</v>
+      </c>
+      <c r="C441" t="s">
+        <v>492</v>
+      </c>
+      <c r="D441">
+        <v>1998</v>
+      </c>
+      <c r="E441" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>67</v>
+      </c>
+      <c r="C442" t="s">
+        <v>493</v>
+      </c>
+      <c r="D442">
+        <v>1998</v>
+      </c>
+      <c r="E442" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>67</v>
+      </c>
+      <c r="C443" t="s">
+        <v>494</v>
+      </c>
+      <c r="D443">
+        <v>1998</v>
+      </c>
+      <c r="E443" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>67</v>
+      </c>
+      <c r="C444" t="s">
+        <v>495</v>
+      </c>
+      <c r="D444">
+        <v>1998</v>
+      </c>
+      <c r="E444" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>67</v>
+      </c>
+      <c r="C445" t="s">
+        <v>496</v>
+      </c>
+      <c r="D445">
+        <v>1998</v>
+      </c>
+      <c r="E445" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>67</v>
+      </c>
+      <c r="C446" t="s">
+        <v>497</v>
+      </c>
+      <c r="D446">
+        <v>1998</v>
+      </c>
+      <c r="E446" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>67</v>
+      </c>
+      <c r="C447" t="s">
+        <v>498</v>
+      </c>
+      <c r="D447">
+        <v>1998</v>
+      </c>
+      <c r="E447" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>67</v>
+      </c>
+      <c r="C448" t="s">
+        <v>499</v>
+      </c>
+      <c r="D448">
+        <v>1998</v>
+      </c>
+      <c r="E448" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
+        <v>67</v>
+      </c>
+      <c r="C449" t="s">
+        <v>500</v>
+      </c>
+      <c r="D449">
+        <v>1998</v>
+      </c>
+      <c r="E449" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
+        <v>67</v>
+      </c>
+      <c r="C450" t="s">
+        <v>501</v>
+      </c>
+      <c r="D450">
+        <v>1998</v>
+      </c>
+      <c r="E450" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
+        <v>67</v>
+      </c>
+      <c r="C451" t="s">
+        <v>502</v>
+      </c>
+      <c r="D451">
+        <v>1998</v>
+      </c>
+      <c r="E451" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
+        <v>67</v>
+      </c>
+      <c r="C452" t="s">
+        <v>503</v>
+      </c>
+      <c r="D452">
+        <v>1998</v>
+      </c>
+      <c r="E452" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>67</v>
+      </c>
+      <c r="C453" t="s">
+        <v>483</v>
+      </c>
+      <c r="D453">
+        <v>1998</v>
+      </c>
+      <c r="E453" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
+        <v>67</v>
+      </c>
+      <c r="C454" t="s">
+        <v>504</v>
+      </c>
+      <c r="D454">
+        <v>1998</v>
+      </c>
+      <c r="E454" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
+        <v>67</v>
+      </c>
+      <c r="C455" t="s">
+        <v>505</v>
+      </c>
+      <c r="D455">
+        <v>1998</v>
+      </c>
+      <c r="E455" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
+        <v>67</v>
+      </c>
+      <c r="C456" t="s">
+        <v>501</v>
+      </c>
+      <c r="D456">
+        <v>1998</v>
+      </c>
+      <c r="E456" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
+        <v>67</v>
+      </c>
+      <c r="C457" t="s">
+        <v>494</v>
+      </c>
+      <c r="D457">
+        <v>1998</v>
+      </c>
+      <c r="E457" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
+        <v>67</v>
+      </c>
+      <c r="C458" t="s">
+        <v>506</v>
+      </c>
+      <c r="D458">
+        <v>1998</v>
+      </c>
+      <c r="E458" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
+        <v>67</v>
+      </c>
+      <c r="C459" t="s">
+        <v>507</v>
+      </c>
+      <c r="D459">
+        <v>1998</v>
+      </c>
+      <c r="E459" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
+        <v>67</v>
+      </c>
+      <c r="C460" t="s">
+        <v>508</v>
+      </c>
+      <c r="D460">
+        <v>1998</v>
+      </c>
+      <c r="E460" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
+        <v>67</v>
+      </c>
+      <c r="C461" t="s">
+        <v>509</v>
+      </c>
+      <c r="D461">
+        <v>1998</v>
+      </c>
+      <c r="E461" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
+        <v>67</v>
+      </c>
+      <c r="C462" t="s">
+        <v>510</v>
+      </c>
+      <c r="D462">
+        <v>1998</v>
+      </c>
+      <c r="E462" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>67</v>
+      </c>
+      <c r="C463" t="s">
+        <v>511</v>
+      </c>
+      <c r="D463">
+        <v>1998</v>
+      </c>
+      <c r="E463" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>67</v>
+      </c>
+      <c r="C464" t="s">
+        <v>512</v>
+      </c>
+      <c r="D464">
+        <v>1998</v>
+      </c>
+      <c r="E464" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>67</v>
+      </c>
+      <c r="C465" t="s">
+        <v>513</v>
+      </c>
+      <c r="D465">
+        <v>1998</v>
+      </c>
+      <c r="E465" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>67</v>
+      </c>
+      <c r="C466" t="s">
+        <v>514</v>
+      </c>
+      <c r="D466">
+        <v>1998</v>
+      </c>
+      <c r="E466" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>67</v>
+      </c>
+      <c r="C467" t="s">
+        <v>515</v>
+      </c>
+      <c r="D467">
+        <v>1998</v>
+      </c>
+      <c r="E467" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>67</v>
+      </c>
+      <c r="C468" t="s">
+        <v>516</v>
+      </c>
+      <c r="D468">
+        <v>1998</v>
+      </c>
+      <c r="E468" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>67</v>
+      </c>
+      <c r="C469" t="s">
+        <v>517</v>
+      </c>
+      <c r="D469">
+        <v>1998</v>
+      </c>
+      <c r="E469" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>67</v>
+      </c>
+      <c r="C470" t="s">
+        <v>518</v>
+      </c>
+      <c r="D470">
+        <v>1998</v>
+      </c>
+      <c r="E470" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
+        <v>67</v>
+      </c>
+      <c r="C471" t="s">
+        <v>66</v>
+      </c>
+      <c r="D471">
+        <v>1998</v>
+      </c>
+      <c r="E471" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
+        <v>67</v>
+      </c>
+      <c r="C472" t="s">
+        <v>500</v>
+      </c>
+      <c r="D472">
+        <v>1998</v>
+      </c>
+      <c r="E472" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>67</v>
+      </c>
+      <c r="C473" t="s">
+        <v>519</v>
+      </c>
+      <c r="D473">
+        <v>1998</v>
+      </c>
+      <c r="E473" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>67</v>
+      </c>
+      <c r="C474" t="s">
+        <v>520</v>
+      </c>
+      <c r="D474">
+        <v>1998</v>
+      </c>
+      <c r="E474" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>67</v>
+      </c>
+      <c r="C475" t="s">
+        <v>489</v>
+      </c>
+      <c r="D475">
+        <v>1998</v>
+      </c>
+      <c r="E475" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>67</v>
+      </c>
+      <c r="C476" t="s">
+        <v>521</v>
+      </c>
+      <c r="D476">
+        <v>1998</v>
+      </c>
+      <c r="E476" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>67</v>
+      </c>
+      <c r="C477" t="s">
+        <v>522</v>
+      </c>
+      <c r="D477">
+        <v>1998</v>
+      </c>
+      <c r="E477" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>67</v>
+      </c>
+      <c r="C478" t="s">
+        <v>523</v>
+      </c>
+      <c r="D478">
+        <v>1998</v>
+      </c>
+      <c r="E478" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>67</v>
+      </c>
+      <c r="C479" t="s">
+        <v>524</v>
+      </c>
+      <c r="D479">
+        <v>1998</v>
+      </c>
+      <c r="E479" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>67</v>
+      </c>
+      <c r="C480" t="s">
+        <v>525</v>
+      </c>
+      <c r="D480">
+        <v>1998</v>
+      </c>
+      <c r="E480" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>67</v>
+      </c>
+      <c r="C481" t="s">
+        <v>526</v>
+      </c>
+      <c r="D481">
+        <v>1998</v>
+      </c>
+      <c r="E481" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>67</v>
+      </c>
+      <c r="C482" t="s">
+        <v>527</v>
+      </c>
+      <c r="D482">
+        <v>1998</v>
+      </c>
+      <c r="E482" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>67</v>
+      </c>
+      <c r="C483" t="s">
+        <v>528</v>
+      </c>
+      <c r="D483">
+        <v>1998</v>
+      </c>
+      <c r="E483" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>67</v>
+      </c>
+      <c r="C484" t="s">
+        <v>529</v>
+      </c>
+      <c r="D484">
+        <v>1998</v>
+      </c>
+      <c r="E484" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>67</v>
+      </c>
+      <c r="C485" t="s">
+        <v>530</v>
+      </c>
+      <c r="D485">
+        <v>1998</v>
+      </c>
+      <c r="E485" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>67</v>
+      </c>
+      <c r="C486" t="s">
+        <v>531</v>
+      </c>
+      <c r="D486">
+        <v>1998</v>
+      </c>
+      <c r="E486" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>67</v>
+      </c>
+      <c r="C487" t="s">
+        <v>532</v>
+      </c>
+      <c r="D487">
+        <v>1998</v>
+      </c>
+      <c r="E487" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>67</v>
+      </c>
+      <c r="C488" t="s">
+        <v>533</v>
+      </c>
+      <c r="D488">
+        <v>1998</v>
+      </c>
+      <c r="E488" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>67</v>
+      </c>
+      <c r="C489" t="s">
+        <v>534</v>
+      </c>
+      <c r="D489">
+        <v>1998</v>
+      </c>
+      <c r="E489" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>67</v>
+      </c>
+      <c r="C490" t="s">
+        <v>492</v>
+      </c>
+      <c r="D490">
+        <v>1998</v>
+      </c>
+      <c r="E490" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>67</v>
+      </c>
+      <c r="C491" t="s">
+        <v>535</v>
+      </c>
+      <c r="D491">
+        <v>1998</v>
+      </c>
+      <c r="E491" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>557</v>
+      </c>
+      <c r="C492" t="s">
+        <v>537</v>
+      </c>
+      <c r="D492">
+        <v>1997</v>
+      </c>
+      <c r="E492" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>557</v>
+      </c>
+      <c r="C493" t="s">
+        <v>538</v>
+      </c>
+      <c r="D493">
+        <v>1997</v>
+      </c>
+      <c r="E493" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>557</v>
+      </c>
+      <c r="C494" t="s">
+        <v>539</v>
+      </c>
+      <c r="D494">
+        <v>1997</v>
+      </c>
+      <c r="E494" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>557</v>
+      </c>
+      <c r="C495" t="s">
+        <v>540</v>
+      </c>
+      <c r="D495">
+        <v>1997</v>
+      </c>
+      <c r="E495" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>557</v>
+      </c>
+      <c r="C496" t="s">
+        <v>541</v>
+      </c>
+      <c r="D496">
+        <v>1997</v>
+      </c>
+      <c r="E496" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>557</v>
+      </c>
+      <c r="C497" t="s">
+        <v>102</v>
+      </c>
+      <c r="D497">
+        <v>1997</v>
+      </c>
+      <c r="E497" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>557</v>
+      </c>
+      <c r="C498" t="s">
+        <v>542</v>
+      </c>
+      <c r="D498">
+        <v>1997</v>
+      </c>
+      <c r="E498" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>557</v>
+      </c>
+      <c r="C499" t="s">
+        <v>543</v>
+      </c>
+      <c r="D499">
+        <v>1997</v>
+      </c>
+      <c r="E499" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>557</v>
+      </c>
+      <c r="C500" t="s">
+        <v>94</v>
+      </c>
+      <c r="D500">
+        <v>1997</v>
+      </c>
+      <c r="E500" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>557</v>
+      </c>
+      <c r="C501" t="s">
+        <v>544</v>
+      </c>
+      <c r="D501">
+        <v>1997</v>
+      </c>
+      <c r="E501" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
+        <v>557</v>
+      </c>
+      <c r="C502" t="s">
+        <v>545</v>
+      </c>
+      <c r="D502">
+        <v>1997</v>
+      </c>
+      <c r="E502" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
+        <v>557</v>
+      </c>
+      <c r="C503" t="s">
+        <v>546</v>
+      </c>
+      <c r="D503">
+        <v>1997</v>
+      </c>
+      <c r="E503" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>557</v>
+      </c>
+      <c r="C504" t="s">
+        <v>547</v>
+      </c>
+      <c r="D504">
+        <v>1997</v>
+      </c>
+      <c r="E504" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>557</v>
+      </c>
+      <c r="C505" t="s">
+        <v>548</v>
+      </c>
+      <c r="D505">
+        <v>1997</v>
+      </c>
+      <c r="E505" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
+        <v>557</v>
+      </c>
+      <c r="C506" t="s">
+        <v>549</v>
+      </c>
+      <c r="D506">
+        <v>1997</v>
+      </c>
+      <c r="E506" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
+        <v>557</v>
+      </c>
+      <c r="C507" t="s">
+        <v>550</v>
+      </c>
+      <c r="D507">
+        <v>1997</v>
+      </c>
+      <c r="E507" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" t="s">
+        <v>557</v>
+      </c>
+      <c r="C508" t="s">
+        <v>551</v>
+      </c>
+      <c r="D508">
+        <v>1997</v>
+      </c>
+      <c r="E508" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
+        <v>557</v>
+      </c>
+      <c r="C509" t="s">
+        <v>552</v>
+      </c>
+      <c r="D509">
+        <v>1997</v>
+      </c>
+      <c r="E509" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
+        <v>557</v>
+      </c>
+      <c r="C510" t="s">
+        <v>553</v>
+      </c>
+      <c r="D510">
+        <v>1997</v>
+      </c>
+      <c r="E510" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
+        <v>557</v>
+      </c>
+      <c r="C511" t="s">
+        <v>554</v>
+      </c>
+      <c r="D511">
+        <v>1997</v>
+      </c>
+      <c r="E511" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
+        <v>557</v>
+      </c>
+      <c r="C512" t="s">
+        <v>555</v>
+      </c>
+      <c r="D512">
+        <v>1997</v>
+      </c>
+      <c r="E512" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" t="s">
+        <v>557</v>
+      </c>
+      <c r="C513" t="s">
+        <v>556</v>
+      </c>
+      <c r="D513">
+        <v>1997</v>
+      </c>
+      <c r="E513" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
+        <v>592</v>
+      </c>
+      <c r="C514" t="s">
+        <v>558</v>
+      </c>
+      <c r="D514">
+        <v>1997</v>
+      </c>
+      <c r="E514" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
+        <v>592</v>
+      </c>
+      <c r="C515" t="s">
+        <v>559</v>
+      </c>
+      <c r="D515">
+        <v>1997</v>
+      </c>
+      <c r="E515" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
+        <v>592</v>
+      </c>
+      <c r="C516" t="s">
+        <v>560</v>
+      </c>
+      <c r="D516">
+        <v>1997</v>
+      </c>
+      <c r="E516" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
+        <v>592</v>
+      </c>
+      <c r="C517" t="s">
+        <v>561</v>
+      </c>
+      <c r="D517">
+        <v>1997</v>
+      </c>
+      <c r="E517" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
+        <v>592</v>
+      </c>
+      <c r="C518" t="s">
+        <v>562</v>
+      </c>
+      <c r="D518">
+        <v>1997</v>
+      </c>
+      <c r="E518" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
+        <v>592</v>
+      </c>
+      <c r="C519" t="s">
+        <v>563</v>
+      </c>
+      <c r="D519">
+        <v>1997</v>
+      </c>
+      <c r="E519" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
+        <v>592</v>
+      </c>
+      <c r="C520" t="s">
+        <v>564</v>
+      </c>
+      <c r="D520">
+        <v>1997</v>
+      </c>
+      <c r="E520" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>592</v>
+      </c>
+      <c r="C521" t="s">
+        <v>565</v>
+      </c>
+      <c r="D521">
+        <v>1997</v>
+      </c>
+      <c r="E521" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
+        <v>592</v>
+      </c>
+      <c r="C522" t="s">
+        <v>566</v>
+      </c>
+      <c r="D522">
+        <v>1997</v>
+      </c>
+      <c r="E522" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
+        <v>592</v>
+      </c>
+      <c r="C523" t="s">
+        <v>567</v>
+      </c>
+      <c r="D523">
+        <v>1997</v>
+      </c>
+      <c r="E523" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524" t="s">
+        <v>592</v>
+      </c>
+      <c r="C524" t="s">
+        <v>568</v>
+      </c>
+      <c r="D524">
+        <v>1997</v>
+      </c>
+      <c r="E524" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
+        <v>592</v>
+      </c>
+      <c r="C525" t="s">
+        <v>569</v>
+      </c>
+      <c r="D525">
+        <v>1997</v>
+      </c>
+      <c r="E525" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526" t="s">
+        <v>592</v>
+      </c>
+      <c r="C526" t="s">
+        <v>570</v>
+      </c>
+      <c r="D526">
+        <v>1997</v>
+      </c>
+      <c r="E526" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
+        <v>592</v>
+      </c>
+      <c r="C527" t="s">
+        <v>571</v>
+      </c>
+      <c r="D527">
+        <v>1997</v>
+      </c>
+      <c r="E527" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
+        <v>592</v>
+      </c>
+      <c r="C528" t="s">
+        <v>572</v>
+      </c>
+      <c r="D528">
+        <v>1997</v>
+      </c>
+      <c r="E528" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
+        <v>592</v>
+      </c>
+      <c r="C529" t="s">
+        <v>573</v>
+      </c>
+      <c r="D529">
+        <v>1997</v>
+      </c>
+      <c r="E529" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
+        <v>592</v>
+      </c>
+      <c r="C530" t="s">
+        <v>574</v>
+      </c>
+      <c r="D530">
+        <v>1997</v>
+      </c>
+      <c r="E530" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
+        <v>592</v>
+      </c>
+      <c r="C531" t="s">
+        <v>575</v>
+      </c>
+      <c r="D531">
+        <v>1997</v>
+      </c>
+      <c r="E531" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
+        <v>592</v>
+      </c>
+      <c r="C532" t="s">
+        <v>576</v>
+      </c>
+      <c r="D532">
+        <v>1997</v>
+      </c>
+      <c r="E532" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
+        <v>592</v>
+      </c>
+      <c r="C533" t="s">
+        <v>577</v>
+      </c>
+      <c r="D533">
+        <v>1997</v>
+      </c>
+      <c r="E533" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>592</v>
+      </c>
+      <c r="C534" t="s">
+        <v>578</v>
+      </c>
+      <c r="D534">
+        <v>1997</v>
+      </c>
+      <c r="E534" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
+        <v>592</v>
+      </c>
+      <c r="C535" t="s">
+        <v>579</v>
+      </c>
+      <c r="D535">
+        <v>1997</v>
+      </c>
+      <c r="E535" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
+        <v>592</v>
+      </c>
+      <c r="C536" t="s">
+        <v>580</v>
+      </c>
+      <c r="D536">
+        <v>1997</v>
+      </c>
+      <c r="E536" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
+        <v>592</v>
+      </c>
+      <c r="C537" t="s">
+        <v>581</v>
+      </c>
+      <c r="D537">
+        <v>1997</v>
+      </c>
+      <c r="E537" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538" t="s">
+        <v>592</v>
+      </c>
+      <c r="C538" t="s">
+        <v>582</v>
+      </c>
+      <c r="D538">
+        <v>1997</v>
+      </c>
+      <c r="E538" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539" t="s">
+        <v>592</v>
+      </c>
+      <c r="C539" t="s">
+        <v>583</v>
+      </c>
+      <c r="D539">
+        <v>1997</v>
+      </c>
+      <c r="E539" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540" t="s">
+        <v>592</v>
+      </c>
+      <c r="C540" t="s">
+        <v>584</v>
+      </c>
+      <c r="D540">
+        <v>1997</v>
+      </c>
+      <c r="E540" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541" t="s">
+        <v>592</v>
+      </c>
+      <c r="C541" t="s">
+        <v>585</v>
+      </c>
+      <c r="D541">
+        <v>1997</v>
+      </c>
+      <c r="E541" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542" t="s">
+        <v>592</v>
+      </c>
+      <c r="C542" t="s">
+        <v>586</v>
+      </c>
+      <c r="D542">
+        <v>1997</v>
+      </c>
+      <c r="E542" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543" t="s">
+        <v>592</v>
+      </c>
+      <c r="C543" t="s">
+        <v>587</v>
+      </c>
+      <c r="D543">
+        <v>1997</v>
+      </c>
+      <c r="E543" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544" t="s">
+        <v>592</v>
+      </c>
+      <c r="C544" t="s">
+        <v>588</v>
+      </c>
+      <c r="D544">
+        <v>1997</v>
+      </c>
+      <c r="E544" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
+        <v>592</v>
+      </c>
+      <c r="C545" t="s">
+        <v>589</v>
+      </c>
+      <c r="D545">
+        <v>1997</v>
+      </c>
+      <c r="E545" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
+        <v>592</v>
+      </c>
+      <c r="C546" t="s">
+        <v>590</v>
+      </c>
+      <c r="D546">
+        <v>1997</v>
+      </c>
+      <c r="E546" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
+        <v>592</v>
+      </c>
+      <c r="C547" t="s">
+        <v>591</v>
+      </c>
+      <c r="D547">
+        <v>1997</v>
+      </c>
+      <c r="E547" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="702">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -1993,6 +1993,138 @@
   </si>
   <si>
     <t>112900-warcraft-ii-tides-of-darkness-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>The Dig</t>
+  </si>
+  <si>
+    <t>618-the-dig-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Mission to the Asteroid</t>
+  </si>
+  <si>
+    <t>Outside the Asteroid</t>
+  </si>
+  <si>
+    <t>Descent Down the Asteroid</t>
+  </si>
+  <si>
+    <t>Ghosts</t>
+  </si>
+  <si>
+    <t>Inside the Asteroid</t>
+  </si>
+  <si>
+    <t>Down the Tunnel</t>
+  </si>
+  <si>
+    <t>The Ancient City</t>
+  </si>
+  <si>
+    <t>Asteroid Core</t>
+  </si>
+  <si>
+    <t>Underwater Cavern</t>
+  </si>
+  <si>
+    <t>A River Canyon</t>
+  </si>
+  <si>
+    <t>Canyon Landing</t>
+  </si>
+  <si>
+    <t>Exploring the Canyon</t>
+  </si>
+  <si>
+    <t>The Madness of the Crystals</t>
+  </si>
+  <si>
+    <t>Finding the Wreck</t>
+  </si>
+  <si>
+    <t>Tomb of the Past</t>
+  </si>
+  <si>
+    <t>The Monument</t>
+  </si>
+  <si>
+    <t>Dimensions in Time</t>
+  </si>
+  <si>
+    <t>The Airlock</t>
+  </si>
+  <si>
+    <t>Cathedral of the Lost</t>
+  </si>
+  <si>
+    <t>Ramp to the Power Room</t>
+  </si>
+  <si>
+    <t>Museum Tram Platform</t>
+  </si>
+  <si>
+    <t>Planetarium Tram Platform</t>
+  </si>
+  <si>
+    <t>Tomb Tram Platform</t>
+  </si>
+  <si>
+    <t>Map Tram Platform</t>
+  </si>
+  <si>
+    <t>Cathedral Tram Platform</t>
+  </si>
+  <si>
+    <t>Museum Spire Ambience</t>
+  </si>
+  <si>
+    <t>Diving</t>
+  </si>
+  <si>
+    <t>The Museum</t>
+  </si>
+  <si>
+    <t>Planetarium Spire Ambience</t>
+  </si>
+  <si>
+    <t>The Planetarium</t>
+  </si>
+  <si>
+    <t>Map Spire Canyon Ambience</t>
+  </si>
+  <si>
+    <t>Map Spire Klein</t>
+  </si>
+  <si>
+    <t>Cathedral Access</t>
+  </si>
+  <si>
+    <t>The Cathedral</t>
+  </si>
+  <si>
+    <t>Rescuing Maggie</t>
+  </si>
+  <si>
+    <t>Tomb Spire Ambience</t>
+  </si>
+  <si>
+    <t>The Crypt</t>
+  </si>
+  <si>
+    <t>The Crypt Guards</t>
+  </si>
+  <si>
+    <t>The Creator's Resting Place</t>
+  </si>
+  <si>
+    <t>Brink's Crevice Dilemma</t>
+  </si>
+  <si>
+    <t>Brink's Madness</t>
+  </si>
+  <si>
+    <t>Finale</t>
   </si>
 </sst>
 </file>
@@ -2352,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J607"/>
+  <dimension ref="A2:J652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="B602" sqref="B602"/>
+    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="E635" sqref="E635:E652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12495,6 +12627,771 @@
         <v>657</v>
       </c>
     </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608" t="s">
+        <v>658</v>
+      </c>
+      <c r="C608" t="s">
+        <v>660</v>
+      </c>
+      <c r="D608">
+        <v>1995</v>
+      </c>
+      <c r="E608" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609" t="s">
+        <v>658</v>
+      </c>
+      <c r="C609" t="s">
+        <v>661</v>
+      </c>
+      <c r="D609">
+        <v>1995</v>
+      </c>
+      <c r="E609" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610" t="s">
+        <v>658</v>
+      </c>
+      <c r="C610" t="s">
+        <v>2</v>
+      </c>
+      <c r="D610">
+        <v>1995</v>
+      </c>
+      <c r="E610" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611" t="s">
+        <v>658</v>
+      </c>
+      <c r="C611" t="s">
+        <v>662</v>
+      </c>
+      <c r="D611">
+        <v>1995</v>
+      </c>
+      <c r="E611" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612" t="s">
+        <v>658</v>
+      </c>
+      <c r="C612" t="s">
+        <v>663</v>
+      </c>
+      <c r="D612">
+        <v>1995</v>
+      </c>
+      <c r="E612" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613" t="s">
+        <v>658</v>
+      </c>
+      <c r="C613" t="s">
+        <v>664</v>
+      </c>
+      <c r="D613">
+        <v>1995</v>
+      </c>
+      <c r="E613" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614" t="s">
+        <v>658</v>
+      </c>
+      <c r="C614" t="s">
+        <v>665</v>
+      </c>
+      <c r="D614">
+        <v>1995</v>
+      </c>
+      <c r="E614" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615" t="s">
+        <v>658</v>
+      </c>
+      <c r="C615" t="s">
+        <v>666</v>
+      </c>
+      <c r="D615">
+        <v>1995</v>
+      </c>
+      <c r="E615" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
+        <v>658</v>
+      </c>
+      <c r="C616" t="s">
+        <v>667</v>
+      </c>
+      <c r="D616">
+        <v>1995</v>
+      </c>
+      <c r="E616" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
+        <v>658</v>
+      </c>
+      <c r="C617" t="s">
+        <v>668</v>
+      </c>
+      <c r="D617">
+        <v>1995</v>
+      </c>
+      <c r="E617" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
+        <v>658</v>
+      </c>
+      <c r="C618" t="s">
+        <v>669</v>
+      </c>
+      <c r="D618">
+        <v>1995</v>
+      </c>
+      <c r="E618" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619" t="s">
+        <v>658</v>
+      </c>
+      <c r="C619" t="s">
+        <v>670</v>
+      </c>
+      <c r="D619">
+        <v>1995</v>
+      </c>
+      <c r="E619" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
+        <v>658</v>
+      </c>
+      <c r="C620" t="s">
+        <v>671</v>
+      </c>
+      <c r="D620">
+        <v>1995</v>
+      </c>
+      <c r="E620" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
+        <v>658</v>
+      </c>
+      <c r="C621" t="s">
+        <v>672</v>
+      </c>
+      <c r="D621">
+        <v>1995</v>
+      </c>
+      <c r="E621" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622" t="s">
+        <v>658</v>
+      </c>
+      <c r="C622" t="s">
+        <v>673</v>
+      </c>
+      <c r="D622">
+        <v>1995</v>
+      </c>
+      <c r="E622" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623" t="s">
+        <v>658</v>
+      </c>
+      <c r="C623" t="s">
+        <v>674</v>
+      </c>
+      <c r="D623">
+        <v>1995</v>
+      </c>
+      <c r="E623" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624" t="s">
+        <v>658</v>
+      </c>
+      <c r="C624" t="s">
+        <v>663</v>
+      </c>
+      <c r="D624">
+        <v>1995</v>
+      </c>
+      <c r="E624" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625" t="s">
+        <v>658</v>
+      </c>
+      <c r="C625" t="s">
+        <v>675</v>
+      </c>
+      <c r="D625">
+        <v>1995</v>
+      </c>
+      <c r="E625" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626" t="s">
+        <v>658</v>
+      </c>
+      <c r="C626" t="s">
+        <v>676</v>
+      </c>
+      <c r="D626">
+        <v>1995</v>
+      </c>
+      <c r="E626" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627" t="s">
+        <v>658</v>
+      </c>
+      <c r="C627" t="s">
+        <v>677</v>
+      </c>
+      <c r="D627">
+        <v>1995</v>
+      </c>
+      <c r="E627" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628" t="s">
+        <v>658</v>
+      </c>
+      <c r="C628" t="s">
+        <v>678</v>
+      </c>
+      <c r="D628">
+        <v>1995</v>
+      </c>
+      <c r="E628" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629" t="s">
+        <v>658</v>
+      </c>
+      <c r="C629" t="s">
+        <v>679</v>
+      </c>
+      <c r="D629">
+        <v>1995</v>
+      </c>
+      <c r="E629" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630" t="s">
+        <v>658</v>
+      </c>
+      <c r="C630" t="s">
+        <v>680</v>
+      </c>
+      <c r="D630">
+        <v>1995</v>
+      </c>
+      <c r="E630" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631" t="s">
+        <v>658</v>
+      </c>
+      <c r="C631" t="s">
+        <v>681</v>
+      </c>
+      <c r="D631">
+        <v>1995</v>
+      </c>
+      <c r="E631" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632" t="s">
+        <v>658</v>
+      </c>
+      <c r="C632" t="s">
+        <v>682</v>
+      </c>
+      <c r="D632">
+        <v>1995</v>
+      </c>
+      <c r="E632" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633" t="s">
+        <v>658</v>
+      </c>
+      <c r="C633" t="s">
+        <v>683</v>
+      </c>
+      <c r="D633">
+        <v>1995</v>
+      </c>
+      <c r="E633" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634" t="s">
+        <v>658</v>
+      </c>
+      <c r="C634" t="s">
+        <v>684</v>
+      </c>
+      <c r="D634">
+        <v>1995</v>
+      </c>
+      <c r="E634" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635" t="s">
+        <v>658</v>
+      </c>
+      <c r="C635" t="s">
+        <v>685</v>
+      </c>
+      <c r="D635">
+        <v>1995</v>
+      </c>
+      <c r="E635" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636" t="s">
+        <v>658</v>
+      </c>
+      <c r="C636" t="s">
+        <v>686</v>
+      </c>
+      <c r="D636">
+        <v>1995</v>
+      </c>
+      <c r="E636" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s">
+        <v>658</v>
+      </c>
+      <c r="C637" t="s">
+        <v>668</v>
+      </c>
+      <c r="D637">
+        <v>1995</v>
+      </c>
+      <c r="E637" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638" t="s">
+        <v>658</v>
+      </c>
+      <c r="C638" t="s">
+        <v>687</v>
+      </c>
+      <c r="D638">
+        <v>1995</v>
+      </c>
+      <c r="E638" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639" t="s">
+        <v>658</v>
+      </c>
+      <c r="C639" t="s">
+        <v>688</v>
+      </c>
+      <c r="D639">
+        <v>1995</v>
+      </c>
+      <c r="E639" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640" t="s">
+        <v>658</v>
+      </c>
+      <c r="C640" t="s">
+        <v>689</v>
+      </c>
+      <c r="D640">
+        <v>1995</v>
+      </c>
+      <c r="E640" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641" t="s">
+        <v>658</v>
+      </c>
+      <c r="C641" t="s">
+        <v>690</v>
+      </c>
+      <c r="D641">
+        <v>1995</v>
+      </c>
+      <c r="E641" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642" t="s">
+        <v>658</v>
+      </c>
+      <c r="C642" t="s">
+        <v>691</v>
+      </c>
+      <c r="D642">
+        <v>1995</v>
+      </c>
+      <c r="E642" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643" t="s">
+        <v>658</v>
+      </c>
+      <c r="C643" t="s">
+        <v>692</v>
+      </c>
+      <c r="D643">
+        <v>1995</v>
+      </c>
+      <c r="E643" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644" t="s">
+        <v>658</v>
+      </c>
+      <c r="C644" t="s">
+        <v>693</v>
+      </c>
+      <c r="D644">
+        <v>1995</v>
+      </c>
+      <c r="E644" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="B645" t="s">
+        <v>658</v>
+      </c>
+      <c r="C645" t="s">
+        <v>694</v>
+      </c>
+      <c r="D645">
+        <v>1995</v>
+      </c>
+      <c r="E645" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="B646" t="s">
+        <v>658</v>
+      </c>
+      <c r="C646" t="s">
+        <v>695</v>
+      </c>
+      <c r="D646">
+        <v>1995</v>
+      </c>
+      <c r="E646" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="B647" t="s">
+        <v>658</v>
+      </c>
+      <c r="C647" t="s">
+        <v>696</v>
+      </c>
+      <c r="D647">
+        <v>1995</v>
+      </c>
+      <c r="E647" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="B648" t="s">
+        <v>658</v>
+      </c>
+      <c r="C648" t="s">
+        <v>697</v>
+      </c>
+      <c r="D648">
+        <v>1995</v>
+      </c>
+      <c r="E648" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="B649" t="s">
+        <v>658</v>
+      </c>
+      <c r="C649" t="s">
+        <v>698</v>
+      </c>
+      <c r="D649">
+        <v>1995</v>
+      </c>
+      <c r="E649" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="B650" t="s">
+        <v>658</v>
+      </c>
+      <c r="C650" t="s">
+        <v>699</v>
+      </c>
+      <c r="D650">
+        <v>1995</v>
+      </c>
+      <c r="E650" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="B651" t="s">
+        <v>658</v>
+      </c>
+      <c r="C651" t="s">
+        <v>700</v>
+      </c>
+      <c r="D651">
+        <v>1995</v>
+      </c>
+      <c r="E651" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="B652" t="s">
+        <v>658</v>
+      </c>
+      <c r="C652" t="s">
+        <v>701</v>
+      </c>
+      <c r="D652">
+        <v>1995</v>
+      </c>
+      <c r="E652" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="728">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -2125,6 +2125,84 @@
   </si>
   <si>
     <t>Finale</t>
+  </si>
+  <si>
+    <t>gabriel-knight-sins-of-the-fathers-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Gabriel Knight: Sins of the Fathers</t>
+  </si>
+  <si>
+    <t>St. Louis Cathedral</t>
+  </si>
+  <si>
+    <t>Desert Theme</t>
+  </si>
+  <si>
+    <t>Theme 2</t>
+  </si>
+  <si>
+    <t>Theme 3</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Fate of Atlantis</t>
+  </si>
+  <si>
+    <t>indiana-jones-and-the-fate-of-atlantis-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>51687-relentless-twinsen-s-adventure-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>LBA</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>The Quest</t>
+  </si>
+  <si>
+    <t>The Rebels</t>
+  </si>
+  <si>
+    <t>In the Temple</t>
+  </si>
+  <si>
+    <t>The Village</t>
+  </si>
+  <si>
+    <t>Hamalayi</t>
+  </si>
+  <si>
+    <t>Funky Town</t>
+  </si>
+  <si>
+    <t>Song 9</t>
+  </si>
+  <si>
+    <t>3691-twinsen-s-odyssey-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>LBA 2</t>
+  </si>
+  <si>
+    <t>The Empire</t>
+  </si>
+  <si>
+    <t>Honey Bee</t>
+  </si>
+  <si>
+    <t>Emerald Moon</t>
+  </si>
+  <si>
+    <t>Zeelich</t>
+  </si>
+  <si>
+    <t>Track 6</t>
+  </si>
+  <si>
+    <t>LBA's Theme</t>
   </si>
 </sst>
 </file>
@@ -2484,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J652"/>
+  <dimension ref="A2:J671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="E635" sqref="E635:E652"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="B656" sqref="B656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6949,20 +7027,20 @@
       </c>
       <c r="J263" s="6"/>
     </row>
-    <row r="264" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="5">
+    <row r="264" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E264" s="5" t="s">
+      <c r="E264" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J264" s="6"/>
+      <c r="J264" s="4"/>
     </row>
     <row r="265" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
@@ -6994,20 +7072,20 @@
       </c>
       <c r="J266" s="6"/>
     </row>
-    <row r="267" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="5">
+    <row r="267" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <v>266</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E267" s="5" t="s">
+      <c r="E267" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J267" s="6"/>
+      <c r="J267" s="4"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -11556,7 +11634,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -11573,7 +11651,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -11590,7 +11668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -11607,7 +11685,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -11624,7 +11702,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -11641,7 +11719,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -11658,7 +11736,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -11675,7 +11753,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -11692,7 +11770,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -11709,7 +11787,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -11726,7 +11804,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -11743,24 +11821,25 @@
         <v>614</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556">
+    <row r="556" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
         <v>555</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C556" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="3">
         <v>1999</v>
       </c>
-      <c r="E556" t="s">
+      <c r="E556" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J556" s="4"/>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -11777,7 +11856,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -11794,7 +11873,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -11811,7 +11890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -13390,6 +13469,329 @@
       </c>
       <c r="E652" t="s">
         <v>659</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="B653" t="s">
+        <v>703</v>
+      </c>
+      <c r="C653" t="s">
+        <v>704</v>
+      </c>
+      <c r="D653">
+        <v>1993</v>
+      </c>
+      <c r="E653" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="B654" t="s">
+        <v>708</v>
+      </c>
+      <c r="C654" t="s">
+        <v>705</v>
+      </c>
+      <c r="D654">
+        <v>1992</v>
+      </c>
+      <c r="E654" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="B655" t="s">
+        <v>708</v>
+      </c>
+      <c r="C655" t="s">
+        <v>706</v>
+      </c>
+      <c r="D655">
+        <v>1992</v>
+      </c>
+      <c r="E655" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="B656" t="s">
+        <v>708</v>
+      </c>
+      <c r="C656" t="s">
+        <v>707</v>
+      </c>
+      <c r="D656">
+        <v>1992</v>
+      </c>
+      <c r="E656" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="B657" t="s">
+        <v>711</v>
+      </c>
+      <c r="C657" t="s">
+        <v>712</v>
+      </c>
+      <c r="D657">
+        <v>1995</v>
+      </c>
+      <c r="E657" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="B658" t="s">
+        <v>711</v>
+      </c>
+      <c r="C658" t="s">
+        <v>713</v>
+      </c>
+      <c r="D658">
+        <v>1995</v>
+      </c>
+      <c r="E658" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="B659" t="s">
+        <v>711</v>
+      </c>
+      <c r="C659" t="s">
+        <v>714</v>
+      </c>
+      <c r="D659">
+        <v>1995</v>
+      </c>
+      <c r="E659" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>659</v>
+      </c>
+      <c r="B660" t="s">
+        <v>711</v>
+      </c>
+      <c r="C660" t="s">
+        <v>101</v>
+      </c>
+      <c r="D660">
+        <v>1995</v>
+      </c>
+      <c r="E660" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>660</v>
+      </c>
+      <c r="B661" t="s">
+        <v>711</v>
+      </c>
+      <c r="C661" t="s">
+        <v>715</v>
+      </c>
+      <c r="D661">
+        <v>1995</v>
+      </c>
+      <c r="E661" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>661</v>
+      </c>
+      <c r="B662" t="s">
+        <v>711</v>
+      </c>
+      <c r="C662" t="s">
+        <v>716</v>
+      </c>
+      <c r="D662">
+        <v>1995</v>
+      </c>
+      <c r="E662" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>662</v>
+      </c>
+      <c r="B663" t="s">
+        <v>711</v>
+      </c>
+      <c r="C663" t="s">
+        <v>717</v>
+      </c>
+      <c r="D663">
+        <v>1995</v>
+      </c>
+      <c r="E663" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>663</v>
+      </c>
+      <c r="B664" t="s">
+        <v>711</v>
+      </c>
+      <c r="C664" t="s">
+        <v>718</v>
+      </c>
+      <c r="D664">
+        <v>1995</v>
+      </c>
+      <c r="E664" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>664</v>
+      </c>
+      <c r="B665" t="s">
+        <v>711</v>
+      </c>
+      <c r="C665" t="s">
+        <v>719</v>
+      </c>
+      <c r="D665">
+        <v>1995</v>
+      </c>
+      <c r="E665" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>665</v>
+      </c>
+      <c r="B666" t="s">
+        <v>721</v>
+      </c>
+      <c r="C666" t="s">
+        <v>722</v>
+      </c>
+      <c r="D666">
+        <v>1997</v>
+      </c>
+      <c r="E666" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>666</v>
+      </c>
+      <c r="B667" t="s">
+        <v>721</v>
+      </c>
+      <c r="C667" t="s">
+        <v>723</v>
+      </c>
+      <c r="D667">
+        <v>1997</v>
+      </c>
+      <c r="E667" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>667</v>
+      </c>
+      <c r="B668" t="s">
+        <v>721</v>
+      </c>
+      <c r="C668" t="s">
+        <v>724</v>
+      </c>
+      <c r="D668">
+        <v>1997</v>
+      </c>
+      <c r="E668" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>668</v>
+      </c>
+      <c r="B669" t="s">
+        <v>721</v>
+      </c>
+      <c r="C669" t="s">
+        <v>725</v>
+      </c>
+      <c r="D669">
+        <v>1997</v>
+      </c>
+      <c r="E669" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>669</v>
+      </c>
+      <c r="B670" t="s">
+        <v>721</v>
+      </c>
+      <c r="C670" t="s">
+        <v>726</v>
+      </c>
+      <c r="D670">
+        <v>1997</v>
+      </c>
+      <c r="E670" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>670</v>
+      </c>
+      <c r="B671" t="s">
+        <v>721</v>
+      </c>
+      <c r="C671" t="s">
+        <v>727</v>
+      </c>
+      <c r="D671">
+        <v>1997</v>
+      </c>
+      <c r="E671" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="935">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -2203,6 +2203,627 @@
   </si>
   <si>
     <t>LBA's Theme</t>
+  </si>
+  <si>
+    <t>Botmca #10</t>
+  </si>
+  <si>
+    <t>Botpack #9</t>
+  </si>
+  <si>
+    <t>Cannonade</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>Foregone Destruction</t>
+  </si>
+  <si>
+    <t>Go Down</t>
+  </si>
+  <si>
+    <t>Into the Darkness</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Mechanism Eight - Necros 2</t>
+  </si>
+  <si>
+    <t>Mechanism Eight - Necros</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Mission Landing</t>
+  </si>
+  <si>
+    <t>Nether Animal</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Razorback (Unreal Mix - Rage Loop)</t>
+  </si>
+  <si>
+    <t>Razorback (Unreal Mix)</t>
+  </si>
+  <si>
+    <t>Room of Champions</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Save Me 1</t>
+  </si>
+  <si>
+    <t>Save Me</t>
+  </si>
+  <si>
+    <t>Skyward Fire</t>
+  </si>
+  <si>
+    <t>Superfist</t>
+  </si>
+  <si>
+    <t>The Course</t>
+  </si>
+  <si>
+    <t>Three Wheels Turning</t>
+  </si>
+  <si>
+    <t>Underworld Ii</t>
+  </si>
+  <si>
+    <t>Unnamed</t>
+  </si>
+  <si>
+    <t>Unreal Add-on (Seeker)</t>
+  </si>
+  <si>
+    <t>Unreal Add-on (Seeker2)</t>
+  </si>
+  <si>
+    <t>Unreal Add-On</t>
+  </si>
+  <si>
+    <t>Unreal Tournament</t>
+  </si>
+  <si>
+    <t>1410-unreal-tournament-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Unreal</t>
+  </si>
+  <si>
+    <t>448-unreal-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Bluff Eversmoking</t>
+  </si>
+  <si>
+    <t>Chizra</t>
+  </si>
+  <si>
+    <t>Dusk Horizon</t>
+  </si>
+  <si>
+    <t>Flightcastle</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Hub 2</t>
+  </si>
+  <si>
+    <t>hub 4</t>
+  </si>
+  <si>
+    <t>Hub 5</t>
+  </si>
+  <si>
+    <t>Hub 7</t>
+  </si>
+  <si>
+    <t>Shared Dig</t>
+  </si>
+  <si>
+    <t>Ultima IX: Ascension</t>
+  </si>
+  <si>
+    <t>A Moment of Clarity</t>
+  </si>
+  <si>
+    <t>A Moment of Peace</t>
+  </si>
+  <si>
+    <t>A Warm Place</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Atarkan March</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Awakening</t>
+  </si>
+  <si>
+    <t>Britain Sunset</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Cathedral (Alternate 2)</t>
+  </si>
+  <si>
+    <t>Cathedral (Alternate)</t>
+  </si>
+  <si>
+    <t>Cathedral</t>
+  </si>
+  <si>
+    <t>Caverns</t>
+  </si>
+  <si>
+    <t>Chamber</t>
+  </si>
+  <si>
+    <t>Cold Breeze</t>
+  </si>
+  <si>
+    <t>Commemoration</t>
+  </si>
+  <si>
+    <t>Conversation With Gwenno</t>
+  </si>
+  <si>
+    <t>Country Joy</t>
+  </si>
+  <si>
+    <t>Countryside</t>
+  </si>
+  <si>
+    <t>Cozy Room</t>
+  </si>
+  <si>
+    <t>Danger</t>
+  </si>
+  <si>
+    <t>Dark Prophecy</t>
+  </si>
+  <si>
+    <t>Dark Stones</t>
+  </si>
+  <si>
+    <t>Deep Forest</t>
+  </si>
+  <si>
+    <t>Descent Into Darkness (Long)</t>
+  </si>
+  <si>
+    <t>Descent Into Darkness</t>
+  </si>
+  <si>
+    <t>Desert Village</t>
+  </si>
+  <si>
+    <t>Determination</t>
+  </si>
+  <si>
+    <t>Dreaming</t>
+  </si>
+  <si>
+    <t>Dreamweaving</t>
+  </si>
+  <si>
+    <t>Dungeon Theme 2</t>
+  </si>
+  <si>
+    <t>Dungeon Theme</t>
+  </si>
+  <si>
+    <t>Empath Abbey</t>
+  </si>
+  <si>
+    <t>Ethereal Void 1</t>
+  </si>
+  <si>
+    <t>Ethereal Void 2</t>
+  </si>
+  <si>
+    <t>Ethereal Void 3</t>
+  </si>
+  <si>
+    <t>Evening Falls</t>
+  </si>
+  <si>
+    <t>Evening Waltz (Orchestral)</t>
+  </si>
+  <si>
+    <t>Evening Waltz (Short)</t>
+  </si>
+  <si>
+    <t>Evening Waltz</t>
+  </si>
+  <si>
+    <t>Fade Away</t>
+  </si>
+  <si>
+    <t>Faire</t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>Fortune Teller</t>
+  </si>
+  <si>
+    <t>Frozen North</t>
+  </si>
+  <si>
+    <t>Frustration</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Hallways</t>
+  </si>
+  <si>
+    <t>Hurry</t>
+  </si>
+  <si>
+    <t>Icy Caves 2</t>
+  </si>
+  <si>
+    <t>Icy Caves</t>
+  </si>
+  <si>
+    <t>Interlude</t>
+  </si>
+  <si>
+    <t>Introduction (Alternate)</t>
+  </si>
+  <si>
+    <t>Introduction (Ultima Remix)</t>
+  </si>
+  <si>
+    <t>Introduction Remix (Ultima 6)</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Iolo's Song</t>
+  </si>
+  <si>
+    <t>Joyful Spirits</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Loneliness</t>
+  </si>
+  <si>
+    <t>Long Gone Day</t>
+  </si>
+  <si>
+    <t>Looking for Clues</t>
+  </si>
+  <si>
+    <t>Love A Virtue</t>
+  </si>
+  <si>
+    <t>Magic Tricks</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>Midwives</t>
+  </si>
+  <si>
+    <t>Morning Sun</t>
+  </si>
+  <si>
+    <t>Music Box</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Old Friends</t>
+  </si>
+  <si>
+    <t>Old Woman</t>
+  </si>
+  <si>
+    <t>Past and Present</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Procession</t>
+  </si>
+  <si>
+    <t>Rainy Day</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Roomful of Emptiness</t>
+  </si>
+  <si>
+    <t>Rule Britannia</t>
+  </si>
+  <si>
+    <t>Seaside</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>Spring Day</t>
+  </si>
+  <si>
+    <t>Strange Apparatus</t>
+  </si>
+  <si>
+    <t>Streets of Britain</t>
+  </si>
+  <si>
+    <t>Suppressed Feelings</t>
+  </si>
+  <si>
+    <t>Tall Shadows</t>
+  </si>
+  <si>
+    <t>The Avatar</t>
+  </si>
+  <si>
+    <t>Theme (Remix)</t>
+  </si>
+  <si>
+    <t>Then He Realizes</t>
+  </si>
+  <si>
+    <t>Traveling</t>
+  </si>
+  <si>
+    <t>Trinsic Theme</t>
+  </si>
+  <si>
+    <t>Trinsic</t>
+  </si>
+  <si>
+    <t>Wandering In Memories</t>
+  </si>
+  <si>
+    <t>Why Worry_</t>
+  </si>
+  <si>
+    <t>1649-ultima-ix-ascension-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Aliens Ate My Railways</t>
+  </si>
+  <si>
+    <t>Broomer's Oil Rag</t>
+  </si>
+  <si>
+    <t>Can't Get There From Here</t>
+  </si>
+  <si>
+    <t>City Groove</t>
+  </si>
+  <si>
+    <t>Cruise Control</t>
+  </si>
+  <si>
+    <t>Don't Walk!</t>
+  </si>
+  <si>
+    <t>Easy Driver</t>
+  </si>
+  <si>
+    <t>Fell Apart On Me</t>
+  </si>
+  <si>
+    <t>Funk Central</t>
+  </si>
+  <si>
+    <t>Goss Groove</t>
+  </si>
+  <si>
+    <t>Hard Drivin'</t>
+  </si>
+  <si>
+    <t>Hold That Train!</t>
+  </si>
+  <si>
+    <t>Jammit</t>
+  </si>
+  <si>
+    <t>Little Red Diesel</t>
+  </si>
+  <si>
+    <t>Movin' On</t>
+  </si>
+  <si>
+    <t>Road Hog</t>
+  </si>
+  <si>
+    <t>Sawyer's Tune</t>
+  </si>
+  <si>
+    <t>Small Town</t>
+  </si>
+  <si>
+    <t>Snarl Up</t>
+  </si>
+  <si>
+    <t>Stoke It</t>
+  </si>
+  <si>
+    <t>Stroll On</t>
+  </si>
+  <si>
+    <t>TT Deluxe Theme</t>
+  </si>
+  <si>
+    <t>Transport Tycoon Deluxe</t>
+  </si>
+  <si>
+    <t>445143-transport-tycoon-deluxe-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Interstate '76</t>
+  </si>
+  <si>
+    <t>7000-interstate-76-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Desert Sky Groove</t>
+  </si>
+  <si>
+    <t>Henshin V3!</t>
+  </si>
+  <si>
+    <t>Interstate '76 Theme</t>
+  </si>
+  <si>
+    <t>Just Call Me Daddy</t>
+  </si>
+  <si>
+    <t>Malochio Down</t>
+  </si>
+  <si>
+    <t>Mission Code  B.F.A.M.</t>
+  </si>
+  <si>
+    <t>Never Get Outta The Car</t>
+  </si>
+  <si>
+    <t>Ovum Bisquit (Alternate Mix)</t>
+  </si>
+  <si>
+    <t>Pimp Like Me</t>
+  </si>
+  <si>
+    <t>Revenge Rocco Style</t>
+  </si>
+  <si>
+    <t>Skeeter Gettin' Medieval</t>
+  </si>
+  <si>
+    <t>The T'aint</t>
+  </si>
+  <si>
+    <t>Track 4</t>
+  </si>
+  <si>
+    <t>Vigilante Shuffle</t>
+  </si>
+  <si>
+    <t>4333-giants-citizen-kabuto-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Giants: Citizen Kabuto</t>
+  </si>
+  <si>
+    <t>A Creature of Legend</t>
+  </si>
+  <si>
+    <t>A More Perfect Daughter</t>
+  </si>
+  <si>
+    <t>Baz's Adagio</t>
+  </si>
+  <si>
+    <t>Dangerous Magic</t>
+  </si>
+  <si>
+    <t>Delphi's Journey</t>
+  </si>
+  <si>
+    <t>Flight of the Meccs</t>
+  </si>
+  <si>
+    <t>Inside Whittington Prison</t>
+  </si>
+  <si>
+    <t>Island Overture</t>
+  </si>
+  <si>
+    <t>Kabuto Stone</t>
+  </si>
+  <si>
+    <t>Kabuto's Awakening</t>
+  </si>
+  <si>
+    <t>Kill, Crush, Destroy</t>
+  </si>
+  <si>
+    <t>La Mer Agitée</t>
+  </si>
+  <si>
+    <t>Les Nuages</t>
+  </si>
+  <si>
+    <t>Majorcan Voyage</t>
+  </si>
+  <si>
+    <t>Meccs at the Ready</t>
+  </si>
+  <si>
+    <t>Ripping Rippers</t>
+  </si>
+  <si>
+    <t>Sappho's Demise</t>
+  </si>
+  <si>
+    <t>Sappho's Scheme</t>
+  </si>
+  <si>
+    <t>The Four Elements</t>
+  </si>
+  <si>
+    <t>The Vimp Hunt</t>
+  </si>
+  <si>
+    <t>Torture Square</t>
+  </si>
+  <si>
+    <t>Yan's Apprentice</t>
+  </si>
+  <si>
+    <t>Yan's Dojo</t>
   </si>
 </sst>
 </file>
@@ -2562,10 +3183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J671"/>
+  <dimension ref="A2:J876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="B656" sqref="B656"/>
+    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
+      <selection activeCell="B869" sqref="B869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13794,6 +14415,3491 @@
         <v>720</v>
       </c>
     </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>671</v>
+      </c>
+      <c r="B672" t="s">
+        <v>728</v>
+      </c>
+      <c r="C672" t="s">
+        <v>758</v>
+      </c>
+      <c r="D672">
+        <v>1999</v>
+      </c>
+      <c r="E672" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>672</v>
+      </c>
+      <c r="B673" t="s">
+        <v>729</v>
+      </c>
+      <c r="C673" t="s">
+        <v>758</v>
+      </c>
+      <c r="D673">
+        <v>1999</v>
+      </c>
+      <c r="E673" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>673</v>
+      </c>
+      <c r="B674" t="s">
+        <v>730</v>
+      </c>
+      <c r="C674" t="s">
+        <v>758</v>
+      </c>
+      <c r="D674">
+        <v>1999</v>
+      </c>
+      <c r="E674" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>674</v>
+      </c>
+      <c r="B675" t="s">
+        <v>731</v>
+      </c>
+      <c r="C675" t="s">
+        <v>758</v>
+      </c>
+      <c r="D675">
+        <v>1999</v>
+      </c>
+      <c r="E675" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>675</v>
+      </c>
+      <c r="B676" t="s">
+        <v>441</v>
+      </c>
+      <c r="C676" t="s">
+        <v>758</v>
+      </c>
+      <c r="D676">
+        <v>1999</v>
+      </c>
+      <c r="E676" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>676</v>
+      </c>
+      <c r="B677" t="s">
+        <v>732</v>
+      </c>
+      <c r="C677" t="s">
+        <v>758</v>
+      </c>
+      <c r="D677">
+        <v>1999</v>
+      </c>
+      <c r="E677" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>677</v>
+      </c>
+      <c r="B678" t="s">
+        <v>733</v>
+      </c>
+      <c r="C678" t="s">
+        <v>758</v>
+      </c>
+      <c r="D678">
+        <v>1999</v>
+      </c>
+      <c r="E678" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>678</v>
+      </c>
+      <c r="B679" t="s">
+        <v>734</v>
+      </c>
+      <c r="C679" t="s">
+        <v>758</v>
+      </c>
+      <c r="D679">
+        <v>1999</v>
+      </c>
+      <c r="E679" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>679</v>
+      </c>
+      <c r="B680" t="s">
+        <v>735</v>
+      </c>
+      <c r="C680" t="s">
+        <v>758</v>
+      </c>
+      <c r="D680">
+        <v>1999</v>
+      </c>
+      <c r="E680" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>680</v>
+      </c>
+      <c r="B681" t="s">
+        <v>736</v>
+      </c>
+      <c r="C681" t="s">
+        <v>758</v>
+      </c>
+      <c r="D681">
+        <v>1999</v>
+      </c>
+      <c r="E681" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>681</v>
+      </c>
+      <c r="B682" t="s">
+        <v>737</v>
+      </c>
+      <c r="C682" t="s">
+        <v>758</v>
+      </c>
+      <c r="D682">
+        <v>1999</v>
+      </c>
+      <c r="E682" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="B683" t="s">
+        <v>738</v>
+      </c>
+      <c r="C683" t="s">
+        <v>758</v>
+      </c>
+      <c r="D683">
+        <v>1999</v>
+      </c>
+      <c r="E683" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="B684" t="s">
+        <v>739</v>
+      </c>
+      <c r="C684" t="s">
+        <v>758</v>
+      </c>
+      <c r="D684">
+        <v>1999</v>
+      </c>
+      <c r="E684" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>684</v>
+      </c>
+      <c r="B685" t="s">
+        <v>740</v>
+      </c>
+      <c r="C685" t="s">
+        <v>758</v>
+      </c>
+      <c r="D685">
+        <v>1999</v>
+      </c>
+      <c r="E685" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="B686" t="s">
+        <v>712</v>
+      </c>
+      <c r="C686" t="s">
+        <v>758</v>
+      </c>
+      <c r="D686">
+        <v>1999</v>
+      </c>
+      <c r="E686" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>686</v>
+      </c>
+      <c r="B687" t="s">
+        <v>741</v>
+      </c>
+      <c r="C687" t="s">
+        <v>758</v>
+      </c>
+      <c r="D687">
+        <v>1999</v>
+      </c>
+      <c r="E687" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>687</v>
+      </c>
+      <c r="B688" t="s">
+        <v>742</v>
+      </c>
+      <c r="C688" t="s">
+        <v>758</v>
+      </c>
+      <c r="D688">
+        <v>1999</v>
+      </c>
+      <c r="E688" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>688</v>
+      </c>
+      <c r="B689" t="s">
+        <v>743</v>
+      </c>
+      <c r="C689" t="s">
+        <v>758</v>
+      </c>
+      <c r="D689">
+        <v>1999</v>
+      </c>
+      <c r="E689" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="B690" t="s">
+        <v>744</v>
+      </c>
+      <c r="C690" t="s">
+        <v>758</v>
+      </c>
+      <c r="D690">
+        <v>1999</v>
+      </c>
+      <c r="E690" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="B691" t="s">
+        <v>745</v>
+      </c>
+      <c r="C691" t="s">
+        <v>758</v>
+      </c>
+      <c r="D691">
+        <v>1999</v>
+      </c>
+      <c r="E691" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="B692" t="s">
+        <v>746</v>
+      </c>
+      <c r="C692" t="s">
+        <v>758</v>
+      </c>
+      <c r="D692">
+        <v>1999</v>
+      </c>
+      <c r="E692" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="B693" t="s">
+        <v>747</v>
+      </c>
+      <c r="C693" t="s">
+        <v>758</v>
+      </c>
+      <c r="D693">
+        <v>1999</v>
+      </c>
+      <c r="E693" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="B694" t="s">
+        <v>748</v>
+      </c>
+      <c r="C694" t="s">
+        <v>758</v>
+      </c>
+      <c r="D694">
+        <v>1999</v>
+      </c>
+      <c r="E694" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>694</v>
+      </c>
+      <c r="B695" t="s">
+        <v>749</v>
+      </c>
+      <c r="C695" t="s">
+        <v>758</v>
+      </c>
+      <c r="D695">
+        <v>1999</v>
+      </c>
+      <c r="E695" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>695</v>
+      </c>
+      <c r="B696" t="s">
+        <v>750</v>
+      </c>
+      <c r="C696" t="s">
+        <v>758</v>
+      </c>
+      <c r="D696">
+        <v>1999</v>
+      </c>
+      <c r="E696" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>696</v>
+      </c>
+      <c r="B697" t="s">
+        <v>751</v>
+      </c>
+      <c r="C697" t="s">
+        <v>758</v>
+      </c>
+      <c r="D697">
+        <v>1999</v>
+      </c>
+      <c r="E697" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>697</v>
+      </c>
+      <c r="B698" t="s">
+        <v>752</v>
+      </c>
+      <c r="C698" t="s">
+        <v>758</v>
+      </c>
+      <c r="D698">
+        <v>1999</v>
+      </c>
+      <c r="E698" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>698</v>
+      </c>
+      <c r="B699" t="s">
+        <v>753</v>
+      </c>
+      <c r="C699" t="s">
+        <v>758</v>
+      </c>
+      <c r="D699">
+        <v>1999</v>
+      </c>
+      <c r="E699" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>699</v>
+      </c>
+      <c r="B700" t="s">
+        <v>754</v>
+      </c>
+      <c r="C700" t="s">
+        <v>758</v>
+      </c>
+      <c r="D700">
+        <v>1999</v>
+      </c>
+      <c r="E700" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>700</v>
+      </c>
+      <c r="B701" t="s">
+        <v>755</v>
+      </c>
+      <c r="C701" t="s">
+        <v>758</v>
+      </c>
+      <c r="D701">
+        <v>1999</v>
+      </c>
+      <c r="E701" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>701</v>
+      </c>
+      <c r="B702" t="s">
+        <v>756</v>
+      </c>
+      <c r="C702" t="s">
+        <v>758</v>
+      </c>
+      <c r="D702">
+        <v>1999</v>
+      </c>
+      <c r="E702" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>702</v>
+      </c>
+      <c r="B703" t="s">
+        <v>757</v>
+      </c>
+      <c r="C703" t="s">
+        <v>758</v>
+      </c>
+      <c r="D703">
+        <v>1999</v>
+      </c>
+      <c r="E703" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>703</v>
+      </c>
+      <c r="B704" t="s">
+        <v>758</v>
+      </c>
+      <c r="C704" t="s">
+        <v>758</v>
+      </c>
+      <c r="D704">
+        <v>1999</v>
+      </c>
+      <c r="E704" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>704</v>
+      </c>
+      <c r="B705" t="s">
+        <v>762</v>
+      </c>
+      <c r="C705" t="s">
+        <v>760</v>
+      </c>
+      <c r="D705">
+        <v>1998</v>
+      </c>
+      <c r="E705" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>705</v>
+      </c>
+      <c r="B706" t="s">
+        <v>763</v>
+      </c>
+      <c r="C706" t="s">
+        <v>760</v>
+      </c>
+      <c r="D706">
+        <v>1998</v>
+      </c>
+      <c r="E706" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>706</v>
+      </c>
+      <c r="B707" t="s">
+        <v>764</v>
+      </c>
+      <c r="C707" t="s">
+        <v>760</v>
+      </c>
+      <c r="D707">
+        <v>1998</v>
+      </c>
+      <c r="E707" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>707</v>
+      </c>
+      <c r="B708" t="s">
+        <v>765</v>
+      </c>
+      <c r="C708" t="s">
+        <v>760</v>
+      </c>
+      <c r="D708">
+        <v>1998</v>
+      </c>
+      <c r="E708" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>708</v>
+      </c>
+      <c r="B709" t="s">
+        <v>766</v>
+      </c>
+      <c r="C709" t="s">
+        <v>760</v>
+      </c>
+      <c r="D709">
+        <v>1998</v>
+      </c>
+      <c r="E709" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>709</v>
+      </c>
+      <c r="B710" t="s">
+        <v>767</v>
+      </c>
+      <c r="C710" t="s">
+        <v>760</v>
+      </c>
+      <c r="D710">
+        <v>1998</v>
+      </c>
+      <c r="E710" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>710</v>
+      </c>
+      <c r="B711" t="s">
+        <v>768</v>
+      </c>
+      <c r="C711" t="s">
+        <v>760</v>
+      </c>
+      <c r="D711">
+        <v>1998</v>
+      </c>
+      <c r="E711" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>711</v>
+      </c>
+      <c r="B712" t="s">
+        <v>769</v>
+      </c>
+      <c r="C712" t="s">
+        <v>760</v>
+      </c>
+      <c r="D712">
+        <v>1998</v>
+      </c>
+      <c r="E712" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>712</v>
+      </c>
+      <c r="B713" t="s">
+        <v>770</v>
+      </c>
+      <c r="C713" t="s">
+        <v>760</v>
+      </c>
+      <c r="D713">
+        <v>1998</v>
+      </c>
+      <c r="E713" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>713</v>
+      </c>
+      <c r="B714" t="s">
+        <v>771</v>
+      </c>
+      <c r="C714" t="s">
+        <v>760</v>
+      </c>
+      <c r="D714">
+        <v>1998</v>
+      </c>
+      <c r="E714" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>364</v>
+      </c>
+      <c r="C715" t="s">
+        <v>760</v>
+      </c>
+      <c r="D715">
+        <v>1998</v>
+      </c>
+      <c r="E715" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>715</v>
+      </c>
+      <c r="B716" t="s">
+        <v>773</v>
+      </c>
+      <c r="C716" t="s">
+        <v>772</v>
+      </c>
+      <c r="D716">
+        <v>1999</v>
+      </c>
+      <c r="E716" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>774</v>
+      </c>
+      <c r="C717" t="s">
+        <v>772</v>
+      </c>
+      <c r="D717">
+        <v>1999</v>
+      </c>
+      <c r="E717" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>717</v>
+      </c>
+      <c r="B718" t="s">
+        <v>775</v>
+      </c>
+      <c r="C718" t="s">
+        <v>772</v>
+      </c>
+      <c r="D718">
+        <v>1999</v>
+      </c>
+      <c r="E718" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>776</v>
+      </c>
+      <c r="C719" t="s">
+        <v>772</v>
+      </c>
+      <c r="D719">
+        <v>1999</v>
+      </c>
+      <c r="E719" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>777</v>
+      </c>
+      <c r="C720" t="s">
+        <v>772</v>
+      </c>
+      <c r="D720">
+        <v>1999</v>
+      </c>
+      <c r="E720" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>778</v>
+      </c>
+      <c r="C721" t="s">
+        <v>772</v>
+      </c>
+      <c r="D721">
+        <v>1999</v>
+      </c>
+      <c r="E721" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>779</v>
+      </c>
+      <c r="C722" t="s">
+        <v>772</v>
+      </c>
+      <c r="D722">
+        <v>1999</v>
+      </c>
+      <c r="E722" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>722</v>
+      </c>
+      <c r="B723" t="s">
+        <v>780</v>
+      </c>
+      <c r="C723" t="s">
+        <v>772</v>
+      </c>
+      <c r="D723">
+        <v>1999</v>
+      </c>
+      <c r="E723" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>781</v>
+      </c>
+      <c r="C724" t="s">
+        <v>772</v>
+      </c>
+      <c r="D724">
+        <v>1999</v>
+      </c>
+      <c r="E724" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>724</v>
+      </c>
+      <c r="B725" t="s">
+        <v>782</v>
+      </c>
+      <c r="C725" t="s">
+        <v>772</v>
+      </c>
+      <c r="D725">
+        <v>1999</v>
+      </c>
+      <c r="E725" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>725</v>
+      </c>
+      <c r="B726" t="s">
+        <v>783</v>
+      </c>
+      <c r="C726" t="s">
+        <v>772</v>
+      </c>
+      <c r="D726">
+        <v>1999</v>
+      </c>
+      <c r="E726" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>726</v>
+      </c>
+      <c r="B727" t="s">
+        <v>784</v>
+      </c>
+      <c r="C727" t="s">
+        <v>772</v>
+      </c>
+      <c r="D727">
+        <v>1999</v>
+      </c>
+      <c r="E727" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>727</v>
+      </c>
+      <c r="B728" t="s">
+        <v>785</v>
+      </c>
+      <c r="C728" t="s">
+        <v>772</v>
+      </c>
+      <c r="D728">
+        <v>1999</v>
+      </c>
+      <c r="E728" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>728</v>
+      </c>
+      <c r="B729" t="s">
+        <v>786</v>
+      </c>
+      <c r="C729" t="s">
+        <v>772</v>
+      </c>
+      <c r="D729">
+        <v>1999</v>
+      </c>
+      <c r="E729" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>729</v>
+      </c>
+      <c r="B730" t="s">
+        <v>787</v>
+      </c>
+      <c r="C730" t="s">
+        <v>772</v>
+      </c>
+      <c r="D730">
+        <v>1999</v>
+      </c>
+      <c r="E730" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>730</v>
+      </c>
+      <c r="B731" t="s">
+        <v>788</v>
+      </c>
+      <c r="C731" t="s">
+        <v>772</v>
+      </c>
+      <c r="D731">
+        <v>1999</v>
+      </c>
+      <c r="E731" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>731</v>
+      </c>
+      <c r="B732" t="s">
+        <v>789</v>
+      </c>
+      <c r="C732" t="s">
+        <v>772</v>
+      </c>
+      <c r="D732">
+        <v>1999</v>
+      </c>
+      <c r="E732" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>732</v>
+      </c>
+      <c r="B733" t="s">
+        <v>790</v>
+      </c>
+      <c r="C733" t="s">
+        <v>772</v>
+      </c>
+      <c r="D733">
+        <v>1999</v>
+      </c>
+      <c r="E733" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>733</v>
+      </c>
+      <c r="B734" t="s">
+        <v>791</v>
+      </c>
+      <c r="C734" t="s">
+        <v>772</v>
+      </c>
+      <c r="D734">
+        <v>1999</v>
+      </c>
+      <c r="E734" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>734</v>
+      </c>
+      <c r="B735" t="s">
+        <v>792</v>
+      </c>
+      <c r="C735" t="s">
+        <v>772</v>
+      </c>
+      <c r="D735">
+        <v>1999</v>
+      </c>
+      <c r="E735" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>735</v>
+      </c>
+      <c r="B736" t="s">
+        <v>793</v>
+      </c>
+      <c r="C736" t="s">
+        <v>772</v>
+      </c>
+      <c r="D736">
+        <v>1999</v>
+      </c>
+      <c r="E736" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>736</v>
+      </c>
+      <c r="B737" t="s">
+        <v>794</v>
+      </c>
+      <c r="C737" t="s">
+        <v>772</v>
+      </c>
+      <c r="D737">
+        <v>1999</v>
+      </c>
+      <c r="E737" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>737</v>
+      </c>
+      <c r="B738" t="s">
+        <v>795</v>
+      </c>
+      <c r="C738" t="s">
+        <v>772</v>
+      </c>
+      <c r="D738">
+        <v>1999</v>
+      </c>
+      <c r="E738" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>738</v>
+      </c>
+      <c r="B739" t="s">
+        <v>796</v>
+      </c>
+      <c r="C739" t="s">
+        <v>772</v>
+      </c>
+      <c r="D739">
+        <v>1999</v>
+      </c>
+      <c r="E739" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>739</v>
+      </c>
+      <c r="B740" t="s">
+        <v>797</v>
+      </c>
+      <c r="C740" t="s">
+        <v>772</v>
+      </c>
+      <c r="D740">
+        <v>1999</v>
+      </c>
+      <c r="E740" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>740</v>
+      </c>
+      <c r="B741" t="s">
+        <v>798</v>
+      </c>
+      <c r="C741" t="s">
+        <v>772</v>
+      </c>
+      <c r="D741">
+        <v>1999</v>
+      </c>
+      <c r="E741" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>741</v>
+      </c>
+      <c r="B742" t="s">
+        <v>799</v>
+      </c>
+      <c r="C742" t="s">
+        <v>772</v>
+      </c>
+      <c r="D742">
+        <v>1999</v>
+      </c>
+      <c r="E742" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>742</v>
+      </c>
+      <c r="B743" t="s">
+        <v>800</v>
+      </c>
+      <c r="C743" t="s">
+        <v>772</v>
+      </c>
+      <c r="D743">
+        <v>1999</v>
+      </c>
+      <c r="E743" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>743</v>
+      </c>
+      <c r="B744" t="s">
+        <v>801</v>
+      </c>
+      <c r="C744" t="s">
+        <v>772</v>
+      </c>
+      <c r="D744">
+        <v>1999</v>
+      </c>
+      <c r="E744" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>744</v>
+      </c>
+      <c r="B745" t="s">
+        <v>802</v>
+      </c>
+      <c r="C745" t="s">
+        <v>772</v>
+      </c>
+      <c r="D745">
+        <v>1999</v>
+      </c>
+      <c r="E745" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>745</v>
+      </c>
+      <c r="B746" t="s">
+        <v>803</v>
+      </c>
+      <c r="C746" t="s">
+        <v>772</v>
+      </c>
+      <c r="D746">
+        <v>1999</v>
+      </c>
+      <c r="E746" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>746</v>
+      </c>
+      <c r="B747" t="s">
+        <v>804</v>
+      </c>
+      <c r="C747" t="s">
+        <v>772</v>
+      </c>
+      <c r="D747">
+        <v>1999</v>
+      </c>
+      <c r="E747" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>747</v>
+      </c>
+      <c r="B748" t="s">
+        <v>82</v>
+      </c>
+      <c r="C748" t="s">
+        <v>772</v>
+      </c>
+      <c r="D748">
+        <v>1999</v>
+      </c>
+      <c r="E748" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>748</v>
+      </c>
+      <c r="B749" t="s">
+        <v>805</v>
+      </c>
+      <c r="C749" t="s">
+        <v>772</v>
+      </c>
+      <c r="D749">
+        <v>1999</v>
+      </c>
+      <c r="E749" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>749</v>
+      </c>
+      <c r="B750" t="s">
+        <v>806</v>
+      </c>
+      <c r="C750" t="s">
+        <v>772</v>
+      </c>
+      <c r="D750">
+        <v>1999</v>
+      </c>
+      <c r="E750" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>750</v>
+      </c>
+      <c r="B751" t="s">
+        <v>807</v>
+      </c>
+      <c r="C751" t="s">
+        <v>772</v>
+      </c>
+      <c r="D751">
+        <v>1999</v>
+      </c>
+      <c r="E751" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="B752" t="s">
+        <v>808</v>
+      </c>
+      <c r="C752" t="s">
+        <v>772</v>
+      </c>
+      <c r="D752">
+        <v>1999</v>
+      </c>
+      <c r="E752" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="B753" t="s">
+        <v>809</v>
+      </c>
+      <c r="C753" t="s">
+        <v>772</v>
+      </c>
+      <c r="D753">
+        <v>1999</v>
+      </c>
+      <c r="E753" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="B754" t="s">
+        <v>810</v>
+      </c>
+      <c r="C754" t="s">
+        <v>772</v>
+      </c>
+      <c r="D754">
+        <v>1999</v>
+      </c>
+      <c r="E754" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="B755" t="s">
+        <v>811</v>
+      </c>
+      <c r="C755" t="s">
+        <v>772</v>
+      </c>
+      <c r="D755">
+        <v>1999</v>
+      </c>
+      <c r="E755" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="B756" t="s">
+        <v>812</v>
+      </c>
+      <c r="C756" t="s">
+        <v>772</v>
+      </c>
+      <c r="D756">
+        <v>1999</v>
+      </c>
+      <c r="E756" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="B757" t="s">
+        <v>813</v>
+      </c>
+      <c r="C757" t="s">
+        <v>772</v>
+      </c>
+      <c r="D757">
+        <v>1999</v>
+      </c>
+      <c r="E757" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="B758" t="s">
+        <v>814</v>
+      </c>
+      <c r="C758" t="s">
+        <v>772</v>
+      </c>
+      <c r="D758">
+        <v>1999</v>
+      </c>
+      <c r="E758" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="B759" t="s">
+        <v>815</v>
+      </c>
+      <c r="C759" t="s">
+        <v>772</v>
+      </c>
+      <c r="D759">
+        <v>1999</v>
+      </c>
+      <c r="E759" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="B760" t="s">
+        <v>816</v>
+      </c>
+      <c r="C760" t="s">
+        <v>772</v>
+      </c>
+      <c r="D760">
+        <v>1999</v>
+      </c>
+      <c r="E760" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="B761" t="s">
+        <v>817</v>
+      </c>
+      <c r="C761" t="s">
+        <v>772</v>
+      </c>
+      <c r="D761">
+        <v>1999</v>
+      </c>
+      <c r="E761" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="B762" t="s">
+        <v>818</v>
+      </c>
+      <c r="C762" t="s">
+        <v>772</v>
+      </c>
+      <c r="D762">
+        <v>1999</v>
+      </c>
+      <c r="E762" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="B763" t="s">
+        <v>819</v>
+      </c>
+      <c r="C763" t="s">
+        <v>772</v>
+      </c>
+      <c r="D763">
+        <v>1999</v>
+      </c>
+      <c r="E763" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="B764" t="s">
+        <v>820</v>
+      </c>
+      <c r="C764" t="s">
+        <v>772</v>
+      </c>
+      <c r="D764">
+        <v>1999</v>
+      </c>
+      <c r="E764" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="B765" t="s">
+        <v>821</v>
+      </c>
+      <c r="C765" t="s">
+        <v>772</v>
+      </c>
+      <c r="D765">
+        <v>1999</v>
+      </c>
+      <c r="E765" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="B766" t="s">
+        <v>822</v>
+      </c>
+      <c r="C766" t="s">
+        <v>772</v>
+      </c>
+      <c r="D766">
+        <v>1999</v>
+      </c>
+      <c r="E766" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="B767" t="s">
+        <v>823</v>
+      </c>
+      <c r="C767" t="s">
+        <v>772</v>
+      </c>
+      <c r="D767">
+        <v>1999</v>
+      </c>
+      <c r="E767" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="B768" t="s">
+        <v>824</v>
+      </c>
+      <c r="C768" t="s">
+        <v>772</v>
+      </c>
+      <c r="D768">
+        <v>1999</v>
+      </c>
+      <c r="E768" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="B769" t="s">
+        <v>825</v>
+      </c>
+      <c r="C769" t="s">
+        <v>772</v>
+      </c>
+      <c r="D769">
+        <v>1999</v>
+      </c>
+      <c r="E769" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="B770" t="s">
+        <v>826</v>
+      </c>
+      <c r="C770" t="s">
+        <v>772</v>
+      </c>
+      <c r="D770">
+        <v>1999</v>
+      </c>
+      <c r="E770" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="B771" t="s">
+        <v>827</v>
+      </c>
+      <c r="C771" t="s">
+        <v>772</v>
+      </c>
+      <c r="D771">
+        <v>1999</v>
+      </c>
+      <c r="E771" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="B772" t="s">
+        <v>828</v>
+      </c>
+      <c r="C772" t="s">
+        <v>772</v>
+      </c>
+      <c r="D772">
+        <v>1999</v>
+      </c>
+      <c r="E772" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="B773" t="s">
+        <v>829</v>
+      </c>
+      <c r="C773" t="s">
+        <v>772</v>
+      </c>
+      <c r="D773">
+        <v>1999</v>
+      </c>
+      <c r="E773" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="B774" t="s">
+        <v>830</v>
+      </c>
+      <c r="C774" t="s">
+        <v>772</v>
+      </c>
+      <c r="D774">
+        <v>1999</v>
+      </c>
+      <c r="E774" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="B775" t="s">
+        <v>831</v>
+      </c>
+      <c r="C775" t="s">
+        <v>772</v>
+      </c>
+      <c r="D775">
+        <v>1999</v>
+      </c>
+      <c r="E775" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="B776" t="s">
+        <v>832</v>
+      </c>
+      <c r="C776" t="s">
+        <v>772</v>
+      </c>
+      <c r="D776">
+        <v>1999</v>
+      </c>
+      <c r="E776" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="B777" t="s">
+        <v>833</v>
+      </c>
+      <c r="C777" t="s">
+        <v>772</v>
+      </c>
+      <c r="D777">
+        <v>1999</v>
+      </c>
+      <c r="E777" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>834</v>
+      </c>
+      <c r="C778" t="s">
+        <v>772</v>
+      </c>
+      <c r="D778">
+        <v>1999</v>
+      </c>
+      <c r="E778" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>835</v>
+      </c>
+      <c r="C779" t="s">
+        <v>772</v>
+      </c>
+      <c r="D779">
+        <v>1999</v>
+      </c>
+      <c r="E779" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>836</v>
+      </c>
+      <c r="C780" t="s">
+        <v>772</v>
+      </c>
+      <c r="D780">
+        <v>1999</v>
+      </c>
+      <c r="E780" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>837</v>
+      </c>
+      <c r="C781" t="s">
+        <v>772</v>
+      </c>
+      <c r="D781">
+        <v>1999</v>
+      </c>
+      <c r="E781" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="B782" t="s">
+        <v>838</v>
+      </c>
+      <c r="C782" t="s">
+        <v>772</v>
+      </c>
+      <c r="D782">
+        <v>1999</v>
+      </c>
+      <c r="E782" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>839</v>
+      </c>
+      <c r="C783" t="s">
+        <v>772</v>
+      </c>
+      <c r="D783">
+        <v>1999</v>
+      </c>
+      <c r="E783" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="B784" t="s">
+        <v>840</v>
+      </c>
+      <c r="C784" t="s">
+        <v>772</v>
+      </c>
+      <c r="D784">
+        <v>1999</v>
+      </c>
+      <c r="E784" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>841</v>
+      </c>
+      <c r="C785" t="s">
+        <v>772</v>
+      </c>
+      <c r="D785">
+        <v>1999</v>
+      </c>
+      <c r="E785" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="B786" t="s">
+        <v>842</v>
+      </c>
+      <c r="C786" t="s">
+        <v>772</v>
+      </c>
+      <c r="D786">
+        <v>1999</v>
+      </c>
+      <c r="E786" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>843</v>
+      </c>
+      <c r="C787" t="s">
+        <v>772</v>
+      </c>
+      <c r="D787">
+        <v>1999</v>
+      </c>
+      <c r="E787" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="B788" t="s">
+        <v>844</v>
+      </c>
+      <c r="C788" t="s">
+        <v>772</v>
+      </c>
+      <c r="D788">
+        <v>1999</v>
+      </c>
+      <c r="E788" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="B789" t="s">
+        <v>845</v>
+      </c>
+      <c r="C789" t="s">
+        <v>772</v>
+      </c>
+      <c r="D789">
+        <v>1999</v>
+      </c>
+      <c r="E789" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="B790" t="s">
+        <v>846</v>
+      </c>
+      <c r="C790" t="s">
+        <v>772</v>
+      </c>
+      <c r="D790">
+        <v>1999</v>
+      </c>
+      <c r="E790" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="B791" t="s">
+        <v>847</v>
+      </c>
+      <c r="C791" t="s">
+        <v>772</v>
+      </c>
+      <c r="D791">
+        <v>1999</v>
+      </c>
+      <c r="E791" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="B792" t="s">
+        <v>848</v>
+      </c>
+      <c r="C792" t="s">
+        <v>772</v>
+      </c>
+      <c r="D792">
+        <v>1999</v>
+      </c>
+      <c r="E792" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="B793" t="s">
+        <v>849</v>
+      </c>
+      <c r="C793" t="s">
+        <v>772</v>
+      </c>
+      <c r="D793">
+        <v>1999</v>
+      </c>
+      <c r="E793" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="B794" t="s">
+        <v>850</v>
+      </c>
+      <c r="C794" t="s">
+        <v>772</v>
+      </c>
+      <c r="D794">
+        <v>1999</v>
+      </c>
+      <c r="E794" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="B795" t="s">
+        <v>851</v>
+      </c>
+      <c r="C795" t="s">
+        <v>772</v>
+      </c>
+      <c r="D795">
+        <v>1999</v>
+      </c>
+      <c r="E795" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="B796" t="s">
+        <v>852</v>
+      </c>
+      <c r="C796" t="s">
+        <v>772</v>
+      </c>
+      <c r="D796">
+        <v>1999</v>
+      </c>
+      <c r="E796" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="B797" t="s">
+        <v>853</v>
+      </c>
+      <c r="C797" t="s">
+        <v>772</v>
+      </c>
+      <c r="D797">
+        <v>1999</v>
+      </c>
+      <c r="E797" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="B798" t="s">
+        <v>854</v>
+      </c>
+      <c r="C798" t="s">
+        <v>772</v>
+      </c>
+      <c r="D798">
+        <v>1999</v>
+      </c>
+      <c r="E798" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="B799" t="s">
+        <v>855</v>
+      </c>
+      <c r="C799" t="s">
+        <v>772</v>
+      </c>
+      <c r="D799">
+        <v>1999</v>
+      </c>
+      <c r="E799" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="B800" t="s">
+        <v>856</v>
+      </c>
+      <c r="C800" t="s">
+        <v>772</v>
+      </c>
+      <c r="D800">
+        <v>1999</v>
+      </c>
+      <c r="E800" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="B801" t="s">
+        <v>857</v>
+      </c>
+      <c r="C801" t="s">
+        <v>772</v>
+      </c>
+      <c r="D801">
+        <v>1999</v>
+      </c>
+      <c r="E801" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="B802" t="s">
+        <v>858</v>
+      </c>
+      <c r="C802" t="s">
+        <v>772</v>
+      </c>
+      <c r="D802">
+        <v>1999</v>
+      </c>
+      <c r="E802" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="B803" t="s">
+        <v>859</v>
+      </c>
+      <c r="C803" t="s">
+        <v>772</v>
+      </c>
+      <c r="D803">
+        <v>1999</v>
+      </c>
+      <c r="E803" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="B804" t="s">
+        <v>860</v>
+      </c>
+      <c r="C804" t="s">
+        <v>772</v>
+      </c>
+      <c r="D804">
+        <v>1999</v>
+      </c>
+      <c r="E804" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="B805" t="s">
+        <v>861</v>
+      </c>
+      <c r="C805" t="s">
+        <v>772</v>
+      </c>
+      <c r="D805">
+        <v>1999</v>
+      </c>
+      <c r="E805" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="B806" t="s">
+        <v>693</v>
+      </c>
+      <c r="C806" t="s">
+        <v>772</v>
+      </c>
+      <c r="D806">
+        <v>1999</v>
+      </c>
+      <c r="E806" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="B807" t="s">
+        <v>716</v>
+      </c>
+      <c r="C807" t="s">
+        <v>772</v>
+      </c>
+      <c r="D807">
+        <v>1999</v>
+      </c>
+      <c r="E807" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="B808" t="s">
+        <v>862</v>
+      </c>
+      <c r="C808" t="s">
+        <v>772</v>
+      </c>
+      <c r="D808">
+        <v>1999</v>
+      </c>
+      <c r="E808" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="B809" t="s">
+        <v>863</v>
+      </c>
+      <c r="C809" t="s">
+        <v>772</v>
+      </c>
+      <c r="D809">
+        <v>1999</v>
+      </c>
+      <c r="E809" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="B810" t="s">
+        <v>864</v>
+      </c>
+      <c r="C810" t="s">
+        <v>772</v>
+      </c>
+      <c r="D810">
+        <v>1999</v>
+      </c>
+      <c r="E810" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="B811" t="s">
+        <v>865</v>
+      </c>
+      <c r="C811" t="s">
+        <v>772</v>
+      </c>
+      <c r="D811">
+        <v>1999</v>
+      </c>
+      <c r="E811" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="B812" t="s">
+        <v>866</v>
+      </c>
+      <c r="C812" t="s">
+        <v>772</v>
+      </c>
+      <c r="D812">
+        <v>1999</v>
+      </c>
+      <c r="E812" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="B813" t="s">
+        <v>867</v>
+      </c>
+      <c r="C813" t="s">
+        <v>772</v>
+      </c>
+      <c r="D813">
+        <v>1999</v>
+      </c>
+      <c r="E813" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="B814" t="s">
+        <v>868</v>
+      </c>
+      <c r="C814" t="s">
+        <v>772</v>
+      </c>
+      <c r="D814">
+        <v>1999</v>
+      </c>
+      <c r="E814" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="B815" t="s">
+        <v>870</v>
+      </c>
+      <c r="C815" t="s">
+        <v>892</v>
+      </c>
+      <c r="D815">
+        <v>1995</v>
+      </c>
+      <c r="E815" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="B816" t="s">
+        <v>871</v>
+      </c>
+      <c r="C816" t="s">
+        <v>892</v>
+      </c>
+      <c r="D816">
+        <v>1995</v>
+      </c>
+      <c r="E816" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="B817" t="s">
+        <v>872</v>
+      </c>
+      <c r="C817" t="s">
+        <v>892</v>
+      </c>
+      <c r="D817">
+        <v>1995</v>
+      </c>
+      <c r="E817" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="B818" t="s">
+        <v>873</v>
+      </c>
+      <c r="C818" t="s">
+        <v>892</v>
+      </c>
+      <c r="D818">
+        <v>1995</v>
+      </c>
+      <c r="E818" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="B819" t="s">
+        <v>874</v>
+      </c>
+      <c r="C819" t="s">
+        <v>892</v>
+      </c>
+      <c r="D819">
+        <v>1995</v>
+      </c>
+      <c r="E819" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="B820" t="s">
+        <v>875</v>
+      </c>
+      <c r="C820" t="s">
+        <v>892</v>
+      </c>
+      <c r="D820">
+        <v>1995</v>
+      </c>
+      <c r="E820" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="B821" t="s">
+        <v>876</v>
+      </c>
+      <c r="C821" t="s">
+        <v>892</v>
+      </c>
+      <c r="D821">
+        <v>1995</v>
+      </c>
+      <c r="E821" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="B822" t="s">
+        <v>877</v>
+      </c>
+      <c r="C822" t="s">
+        <v>892</v>
+      </c>
+      <c r="D822">
+        <v>1995</v>
+      </c>
+      <c r="E822" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>822</v>
+      </c>
+      <c r="B823" t="s">
+        <v>878</v>
+      </c>
+      <c r="C823" t="s">
+        <v>892</v>
+      </c>
+      <c r="D823">
+        <v>1995</v>
+      </c>
+      <c r="E823" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>823</v>
+      </c>
+      <c r="B824" t="s">
+        <v>879</v>
+      </c>
+      <c r="C824" t="s">
+        <v>892</v>
+      </c>
+      <c r="D824">
+        <v>1995</v>
+      </c>
+      <c r="E824" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>824</v>
+      </c>
+      <c r="B825" t="s">
+        <v>880</v>
+      </c>
+      <c r="C825" t="s">
+        <v>892</v>
+      </c>
+      <c r="D825">
+        <v>1995</v>
+      </c>
+      <c r="E825" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>825</v>
+      </c>
+      <c r="B826" t="s">
+        <v>881</v>
+      </c>
+      <c r="C826" t="s">
+        <v>892</v>
+      </c>
+      <c r="D826">
+        <v>1995</v>
+      </c>
+      <c r="E826" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>826</v>
+      </c>
+      <c r="B827" t="s">
+        <v>882</v>
+      </c>
+      <c r="C827" t="s">
+        <v>892</v>
+      </c>
+      <c r="D827">
+        <v>1995</v>
+      </c>
+      <c r="E827" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>827</v>
+      </c>
+      <c r="B828" t="s">
+        <v>883</v>
+      </c>
+      <c r="C828" t="s">
+        <v>892</v>
+      </c>
+      <c r="D828">
+        <v>1995</v>
+      </c>
+      <c r="E828" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>828</v>
+      </c>
+      <c r="B829" t="s">
+        <v>884</v>
+      </c>
+      <c r="C829" t="s">
+        <v>892</v>
+      </c>
+      <c r="D829">
+        <v>1995</v>
+      </c>
+      <c r="E829" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>829</v>
+      </c>
+      <c r="B830" t="s">
+        <v>885</v>
+      </c>
+      <c r="C830" t="s">
+        <v>892</v>
+      </c>
+      <c r="D830">
+        <v>1995</v>
+      </c>
+      <c r="E830" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>830</v>
+      </c>
+      <c r="B831" t="s">
+        <v>886</v>
+      </c>
+      <c r="C831" t="s">
+        <v>892</v>
+      </c>
+      <c r="D831">
+        <v>1995</v>
+      </c>
+      <c r="E831" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>831</v>
+      </c>
+      <c r="B832" t="s">
+        <v>887</v>
+      </c>
+      <c r="C832" t="s">
+        <v>892</v>
+      </c>
+      <c r="D832">
+        <v>1995</v>
+      </c>
+      <c r="E832" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>832</v>
+      </c>
+      <c r="B833" t="s">
+        <v>888</v>
+      </c>
+      <c r="C833" t="s">
+        <v>892</v>
+      </c>
+      <c r="D833">
+        <v>1995</v>
+      </c>
+      <c r="E833" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>833</v>
+      </c>
+      <c r="B834" t="s">
+        <v>889</v>
+      </c>
+      <c r="C834" t="s">
+        <v>892</v>
+      </c>
+      <c r="D834">
+        <v>1995</v>
+      </c>
+      <c r="E834" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>834</v>
+      </c>
+      <c r="B835" t="s">
+        <v>890</v>
+      </c>
+      <c r="C835" t="s">
+        <v>892</v>
+      </c>
+      <c r="D835">
+        <v>1995</v>
+      </c>
+      <c r="E835" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>835</v>
+      </c>
+      <c r="B836" t="s">
+        <v>891</v>
+      </c>
+      <c r="C836" t="s">
+        <v>892</v>
+      </c>
+      <c r="D836">
+        <v>1995</v>
+      </c>
+      <c r="E836" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>836</v>
+      </c>
+      <c r="B837" t="s">
+        <v>896</v>
+      </c>
+      <c r="C837" t="s">
+        <v>894</v>
+      </c>
+      <c r="D837">
+        <v>1997</v>
+      </c>
+      <c r="E837" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>837</v>
+      </c>
+      <c r="B838" t="s">
+        <v>897</v>
+      </c>
+      <c r="C838" t="s">
+        <v>894</v>
+      </c>
+      <c r="D838">
+        <v>1997</v>
+      </c>
+      <c r="E838" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>838</v>
+      </c>
+      <c r="B839" t="s">
+        <v>898</v>
+      </c>
+      <c r="C839" t="s">
+        <v>894</v>
+      </c>
+      <c r="D839">
+        <v>1997</v>
+      </c>
+      <c r="E839" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>839</v>
+      </c>
+      <c r="B840" t="s">
+        <v>899</v>
+      </c>
+      <c r="C840" t="s">
+        <v>894</v>
+      </c>
+      <c r="D840">
+        <v>1997</v>
+      </c>
+      <c r="E840" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>840</v>
+      </c>
+      <c r="B841" t="s">
+        <v>900</v>
+      </c>
+      <c r="C841" t="s">
+        <v>894</v>
+      </c>
+      <c r="D841">
+        <v>1997</v>
+      </c>
+      <c r="E841" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>841</v>
+      </c>
+      <c r="B842" t="s">
+        <v>901</v>
+      </c>
+      <c r="C842" t="s">
+        <v>894</v>
+      </c>
+      <c r="D842">
+        <v>1997</v>
+      </c>
+      <c r="E842" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>842</v>
+      </c>
+      <c r="B843" t="s">
+        <v>902</v>
+      </c>
+      <c r="C843" t="s">
+        <v>894</v>
+      </c>
+      <c r="D843">
+        <v>1997</v>
+      </c>
+      <c r="E843" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>843</v>
+      </c>
+      <c r="B844" t="s">
+        <v>903</v>
+      </c>
+      <c r="C844" t="s">
+        <v>894</v>
+      </c>
+      <c r="D844">
+        <v>1997</v>
+      </c>
+      <c r="E844" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>844</v>
+      </c>
+      <c r="B845" t="s">
+        <v>904</v>
+      </c>
+      <c r="C845" t="s">
+        <v>894</v>
+      </c>
+      <c r="D845">
+        <v>1997</v>
+      </c>
+      <c r="E845" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>845</v>
+      </c>
+      <c r="B846" t="s">
+        <v>905</v>
+      </c>
+      <c r="C846" t="s">
+        <v>894</v>
+      </c>
+      <c r="D846">
+        <v>1997</v>
+      </c>
+      <c r="E846" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>846</v>
+      </c>
+      <c r="B847" t="s">
+        <v>906</v>
+      </c>
+      <c r="C847" t="s">
+        <v>894</v>
+      </c>
+      <c r="D847">
+        <v>1997</v>
+      </c>
+      <c r="E847" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>847</v>
+      </c>
+      <c r="B848" t="s">
+        <v>907</v>
+      </c>
+      <c r="C848" t="s">
+        <v>894</v>
+      </c>
+      <c r="D848">
+        <v>1997</v>
+      </c>
+      <c r="E848" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>848</v>
+      </c>
+      <c r="B849" t="s">
+        <v>294</v>
+      </c>
+      <c r="C849" t="s">
+        <v>894</v>
+      </c>
+      <c r="D849">
+        <v>1997</v>
+      </c>
+      <c r="E849" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>849</v>
+      </c>
+      <c r="B850" t="s">
+        <v>448</v>
+      </c>
+      <c r="C850" t="s">
+        <v>894</v>
+      </c>
+      <c r="D850">
+        <v>1997</v>
+      </c>
+      <c r="E850" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>850</v>
+      </c>
+      <c r="B851" t="s">
+        <v>908</v>
+      </c>
+      <c r="C851" t="s">
+        <v>894</v>
+      </c>
+      <c r="D851">
+        <v>1997</v>
+      </c>
+      <c r="E851" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>851</v>
+      </c>
+      <c r="B852" t="s">
+        <v>909</v>
+      </c>
+      <c r="C852" t="s">
+        <v>894</v>
+      </c>
+      <c r="D852">
+        <v>1997</v>
+      </c>
+      <c r="E852" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853" t="s">
+        <v>912</v>
+      </c>
+      <c r="C853" t="s">
+        <v>911</v>
+      </c>
+      <c r="D853">
+        <v>2000</v>
+      </c>
+      <c r="E853" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854" t="s">
+        <v>913</v>
+      </c>
+      <c r="C854" t="s">
+        <v>911</v>
+      </c>
+      <c r="D854">
+        <v>2000</v>
+      </c>
+      <c r="E854" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855" t="s">
+        <v>914</v>
+      </c>
+      <c r="C855" t="s">
+        <v>911</v>
+      </c>
+      <c r="D855">
+        <v>2000</v>
+      </c>
+      <c r="E855" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856" t="s">
+        <v>915</v>
+      </c>
+      <c r="C856" t="s">
+        <v>911</v>
+      </c>
+      <c r="D856">
+        <v>2000</v>
+      </c>
+      <c r="E856" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857" t="s">
+        <v>916</v>
+      </c>
+      <c r="C857" t="s">
+        <v>911</v>
+      </c>
+      <c r="D857">
+        <v>2000</v>
+      </c>
+      <c r="E857" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>857</v>
+      </c>
+      <c r="B858" t="s">
+        <v>917</v>
+      </c>
+      <c r="C858" t="s">
+        <v>911</v>
+      </c>
+      <c r="D858">
+        <v>2000</v>
+      </c>
+      <c r="E858" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>858</v>
+      </c>
+      <c r="B859" t="s">
+        <v>918</v>
+      </c>
+      <c r="C859" t="s">
+        <v>911</v>
+      </c>
+      <c r="D859">
+        <v>2000</v>
+      </c>
+      <c r="E859" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>859</v>
+      </c>
+      <c r="B860" t="s">
+        <v>919</v>
+      </c>
+      <c r="C860" t="s">
+        <v>911</v>
+      </c>
+      <c r="D860">
+        <v>2000</v>
+      </c>
+      <c r="E860" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>860</v>
+      </c>
+      <c r="B861" t="s">
+        <v>920</v>
+      </c>
+      <c r="C861" t="s">
+        <v>911</v>
+      </c>
+      <c r="D861">
+        <v>2000</v>
+      </c>
+      <c r="E861" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>861</v>
+      </c>
+      <c r="B862" t="s">
+        <v>921</v>
+      </c>
+      <c r="C862" t="s">
+        <v>911</v>
+      </c>
+      <c r="D862">
+        <v>2000</v>
+      </c>
+      <c r="E862" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863" t="s">
+        <v>922</v>
+      </c>
+      <c r="C863" t="s">
+        <v>911</v>
+      </c>
+      <c r="D863">
+        <v>2000</v>
+      </c>
+      <c r="E863" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864" t="s">
+        <v>923</v>
+      </c>
+      <c r="C864" t="s">
+        <v>911</v>
+      </c>
+      <c r="D864">
+        <v>2000</v>
+      </c>
+      <c r="E864" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865" t="s">
+        <v>924</v>
+      </c>
+      <c r="C865" t="s">
+        <v>911</v>
+      </c>
+      <c r="D865">
+        <v>2000</v>
+      </c>
+      <c r="E865" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866" t="s">
+        <v>925</v>
+      </c>
+      <c r="C866" t="s">
+        <v>911</v>
+      </c>
+      <c r="D866">
+        <v>2000</v>
+      </c>
+      <c r="E866" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867" t="s">
+        <v>926</v>
+      </c>
+      <c r="C867" t="s">
+        <v>911</v>
+      </c>
+      <c r="D867">
+        <v>2000</v>
+      </c>
+      <c r="E867" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868" t="s">
+        <v>712</v>
+      </c>
+      <c r="C868" t="s">
+        <v>911</v>
+      </c>
+      <c r="D868">
+        <v>2000</v>
+      </c>
+      <c r="E868" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869" t="s">
+        <v>927</v>
+      </c>
+      <c r="C869" t="s">
+        <v>911</v>
+      </c>
+      <c r="D869">
+        <v>2000</v>
+      </c>
+      <c r="E869" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870" t="s">
+        <v>928</v>
+      </c>
+      <c r="C870" t="s">
+        <v>911</v>
+      </c>
+      <c r="D870">
+        <v>2000</v>
+      </c>
+      <c r="E870" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871" t="s">
+        <v>929</v>
+      </c>
+      <c r="C871" t="s">
+        <v>911</v>
+      </c>
+      <c r="D871">
+        <v>2000</v>
+      </c>
+      <c r="E871" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872" t="s">
+        <v>930</v>
+      </c>
+      <c r="C872" t="s">
+        <v>911</v>
+      </c>
+      <c r="D872">
+        <v>2000</v>
+      </c>
+      <c r="E872" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873" t="s">
+        <v>931</v>
+      </c>
+      <c r="C873" t="s">
+        <v>911</v>
+      </c>
+      <c r="D873">
+        <v>2000</v>
+      </c>
+      <c r="E873" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874" t="s">
+        <v>932</v>
+      </c>
+      <c r="C874" t="s">
+        <v>911</v>
+      </c>
+      <c r="D874">
+        <v>2000</v>
+      </c>
+      <c r="E874" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875" t="s">
+        <v>933</v>
+      </c>
+      <c r="C875" t="s">
+        <v>911</v>
+      </c>
+      <c r="D875">
+        <v>2000</v>
+      </c>
+      <c r="E875" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876" t="s">
+        <v>934</v>
+      </c>
+      <c r="C876" t="s">
+        <v>911</v>
+      </c>
+      <c r="D876">
+        <v>2000</v>
+      </c>
+      <c r="E876" t="s">
+        <v>910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="1090">
   <si>
     <t>Alone In The Dark 2</t>
   </si>
@@ -2824,6 +2824,471 @@
   </si>
   <si>
     <t>Yan's Dojo</t>
+  </si>
+  <si>
+    <t>Monkey Island 2</t>
+  </si>
+  <si>
+    <t>324533-monkey-island-2-lechuck-s-revenge-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Opening Themes &amp; Introduction</t>
+  </si>
+  <si>
+    <t>Phatt Island Map</t>
+  </si>
+  <si>
+    <t>Chapter Screen</t>
+  </si>
+  <si>
+    <t>Phatt Island Wheel Of Fortune</t>
+  </si>
+  <si>
+    <t>If This Is Three</t>
+  </si>
+  <si>
+    <t>Scabb Island Overview</t>
+  </si>
+  <si>
+    <t>Phatt Island Alley Dealer</t>
+  </si>
+  <si>
+    <t>Woodtick</t>
+  </si>
+  <si>
+    <t>Largo LaGrande</t>
+  </si>
+  <si>
+    <t>The Booty Boutique</t>
+  </si>
+  <si>
+    <t>Governor Marleys Guard House</t>
+  </si>
+  <si>
+    <t>The Swamp</t>
+  </si>
+  <si>
+    <t>Governor Marleys Mardi Gras Fish Fry</t>
+  </si>
+  <si>
+    <t>The Cemetery</t>
+  </si>
+  <si>
+    <t>Elaine And Guybrush</t>
+  </si>
+  <si>
+    <t>Stabbing Largo And LeChuck Returns</t>
+  </si>
+  <si>
+    <t>Stealing Elaines Map</t>
+  </si>
+  <si>
+    <t>The Cook</t>
+  </si>
+  <si>
+    <t>Captain Dread</t>
+  </si>
+  <si>
+    <t>Wow, What a Dream &amp; The Bone Song</t>
+  </si>
+  <si>
+    <t>Captain Dread And The Map</t>
+  </si>
+  <si>
+    <t>Woodtick Revisited</t>
+  </si>
+  <si>
+    <t>LeChucks Lament</t>
+  </si>
+  <si>
+    <t>Phatt Island</t>
+  </si>
+  <si>
+    <t>Phatt Island Jail</t>
+  </si>
+  <si>
+    <t>Rooms Of Ugly Bone Things</t>
+  </si>
+  <si>
+    <t>Outside Phatt Mansion</t>
+  </si>
+  <si>
+    <t>The Escape From LeChucks Fortress</t>
+  </si>
+  <si>
+    <t>Phatt Mansion Guard</t>
+  </si>
+  <si>
+    <t>The Voodoo Dolly</t>
+  </si>
+  <si>
+    <t>Governeur Phatts Room</t>
+  </si>
+  <si>
+    <t>The Underground Tunnels</t>
+  </si>
+  <si>
+    <t>Closing Themes</t>
+  </si>
+  <si>
+    <t>Stans Previously Used Coffins</t>
+  </si>
+  <si>
+    <t>Monkey Island 2 - Medley (Bonus)</t>
+  </si>
+  <si>
+    <t>The Crypt - Rapp Scallion</t>
+  </si>
+  <si>
+    <t>The Spitting Contest</t>
+  </si>
+  <si>
+    <t>Captain Kates Boat - Booty Island</t>
+  </si>
+  <si>
+    <t>Jojo The Monkey</t>
+  </si>
+  <si>
+    <t>Phatt Island Waterfall</t>
+  </si>
+  <si>
+    <t>Secret Waterfall Tunnel</t>
+  </si>
+  <si>
+    <t>Rum Rogers Cottage Exteriors</t>
+  </si>
+  <si>
+    <t>The Drinking Contest</t>
+  </si>
+  <si>
+    <t>Return of Largo LaGrande (Bonus)</t>
+  </si>
+  <si>
+    <t>Underground Club</t>
+  </si>
+  <si>
+    <t>Fight in Underground Club</t>
+  </si>
+  <si>
+    <t>New Arbat Club</t>
+  </si>
+  <si>
+    <t>Kick from New Arbat</t>
+  </si>
+  <si>
+    <t>Mutant Club</t>
+  </si>
+  <si>
+    <t>Kick from Mutant Club</t>
+  </si>
+  <si>
+    <t>Titan Club</t>
+  </si>
+  <si>
+    <t>Kick from Titan Club</t>
+  </si>
+  <si>
+    <t>Butterfly Club</t>
+  </si>
+  <si>
+    <t>With Girl from Butterfly Club</t>
+  </si>
+  <si>
+    <t>Gold Kozel Club</t>
+  </si>
+  <si>
+    <t>The Provincial Player</t>
+  </si>
+  <si>
+    <t>2017-11-06-17-50-43-3861.jpg</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert</t>
+  </si>
+  <si>
+    <t>Hell March</t>
+  </si>
+  <si>
+    <t>Workmen</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Twin Cannon</t>
+  </si>
+  <si>
+    <t>Terminate</t>
+  </si>
+  <si>
+    <t>Smash</t>
+  </si>
+  <si>
+    <t>Roll Out</t>
+  </si>
+  <si>
+    <t>Radio 2</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>Militant Force (Score Theme)</t>
+  </si>
+  <si>
+    <t>Fogger</t>
+  </si>
+  <si>
+    <t>Face the Enemy</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t>Big Foot</t>
+  </si>
+  <si>
+    <t>Trenches</t>
+  </si>
+  <si>
+    <t>Face the Enemy 1</t>
+  </si>
+  <si>
+    <t>81033-command-conquer-red-alert-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Voice Rhythm 2</t>
+  </si>
+  <si>
+    <t>Underlying Thoughts</t>
+  </si>
+  <si>
+    <t>The Second Hand</t>
+  </si>
+  <si>
+    <t>Shut It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio 2 Remix </t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>Backstab</t>
+  </si>
+  <si>
+    <t>Arazoid</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert – Counterstrike</t>
+  </si>
+  <si>
+    <t>27424-command-conquer-red-alert-counterstrike-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer: Red Alert – The Aftermath</t>
+  </si>
+  <si>
+    <t>Wasteland</t>
+  </si>
+  <si>
+    <t>Traction</t>
+  </si>
+  <si>
+    <t>The Search</t>
+  </si>
+  <si>
+    <t>Running through pipes</t>
+  </si>
+  <si>
+    <t>Groundwire</t>
+  </si>
+  <si>
+    <t>Floating</t>
+  </si>
+  <si>
+    <t>Bog</t>
+  </si>
+  <si>
+    <t>26999-command-conquer-red-alert-the-aftermath-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Sam &amp; Max Hit the Road</t>
+  </si>
+  <si>
+    <t>''Friends...'' (Complete)</t>
+  </si>
+  <si>
+    <t>Pleasently Understated Credit Sequence</t>
+  </si>
+  <si>
+    <t>Another Idiotic and Baffling Assignment</t>
+  </si>
+  <si>
+    <t>Outside Headquarters</t>
+  </si>
+  <si>
+    <t>Carnival of the Odd</t>
+  </si>
+  <si>
+    <t>Wak-a-Rat</t>
+  </si>
+  <si>
+    <t>Hall of Oddities</t>
+  </si>
+  <si>
+    <t>Trixie's Trailer</t>
+  </si>
+  <si>
+    <t>Doug the Moleman</t>
+  </si>
+  <si>
+    <t>Greetings from the USA</t>
+  </si>
+  <si>
+    <t>Highway Surfing</t>
+  </si>
+  <si>
+    <t>The World's Largest Ball of Twine</t>
+  </si>
+  <si>
+    <t>World of Fish &amp; ''I'm a Trout, Stupid''</t>
+  </si>
+  <si>
+    <t>Dino Bungee National Memorial</t>
+  </si>
+  <si>
+    <t>Extracting the Tooth from a Per... Predator</t>
+  </si>
+  <si>
+    <t>Celebrity Vegetable Museum</t>
+  </si>
+  <si>
+    <t>Childhood in Brighton</t>
+  </si>
+  <si>
+    <t>Virtual Reality or The Tale of Brave Sir Sam</t>
+  </si>
+  <si>
+    <t>Savage Jungle Inn</t>
+  </si>
+  <si>
+    <t>Bigfoot Party</t>
+  </si>
+  <si>
+    <t>End Titles</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>249177-sam-max-hit-the-road-dos-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>69781-killing-time-windows-front-cover.jpg</t>
+  </si>
+  <si>
+    <t>Killing Time</t>
+  </si>
+  <si>
+    <t>Track 11</t>
+  </si>
+  <si>
+    <t>Track 12</t>
+  </si>
+  <si>
+    <t>Track 14</t>
+  </si>
+  <si>
+    <t>Track 16</t>
+  </si>
+  <si>
+    <t>Track 17</t>
+  </si>
+  <si>
+    <t>Track 18</t>
+  </si>
+  <si>
+    <t>Track 19</t>
+  </si>
+  <si>
+    <t>Track 20</t>
+  </si>
+  <si>
+    <t>Track 21</t>
+  </si>
+  <si>
+    <t>Track 22</t>
+  </si>
+  <si>
+    <t>Track 23</t>
+  </si>
+  <si>
+    <t>Track 24</t>
+  </si>
+  <si>
+    <t>Track 25</t>
+  </si>
+  <si>
+    <t>Track 26</t>
+  </si>
+  <si>
+    <t>Track 27</t>
+  </si>
+  <si>
+    <t>Track 28</t>
+  </si>
+  <si>
+    <t>Track 29</t>
+  </si>
+  <si>
+    <t>Track 30</t>
+  </si>
+  <si>
+    <t>Track 31</t>
+  </si>
+  <si>
+    <t>Track 32</t>
+  </si>
+  <si>
+    <t>Track 33</t>
+  </si>
+  <si>
+    <t>Track 34</t>
+  </si>
+  <si>
+    <t>Track 35</t>
+  </si>
+  <si>
+    <t>Track 36</t>
+  </si>
+  <si>
+    <t>Track 37</t>
+  </si>
+  <si>
+    <t>Track 38</t>
+  </si>
+  <si>
+    <t>Track 39</t>
+  </si>
+  <si>
+    <t>Track 40</t>
+  </si>
+  <si>
+    <t>Track 41</t>
+  </si>
+  <si>
+    <t>Track 42</t>
+  </si>
+  <si>
+    <t>Track 43</t>
   </si>
 </sst>
 </file>
@@ -3183,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J876"/>
+  <dimension ref="A2:J1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
-      <selection activeCell="B869" sqref="B869"/>
+    <sheetView tabSelected="1" topLeftCell="A981" workbookViewId="0">
+      <selection activeCell="I1018" sqref="I1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17900,6 +18365,2709 @@
         <v>910</v>
       </c>
     </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877" t="s">
+        <v>937</v>
+      </c>
+      <c r="C877" t="s">
+        <v>935</v>
+      </c>
+      <c r="D877">
+        <v>1991</v>
+      </c>
+      <c r="E877" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878" t="s">
+        <v>938</v>
+      </c>
+      <c r="C878" t="s">
+        <v>935</v>
+      </c>
+      <c r="D878">
+        <v>1991</v>
+      </c>
+      <c r="E878" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879" t="s">
+        <v>939</v>
+      </c>
+      <c r="C879" t="s">
+        <v>935</v>
+      </c>
+      <c r="D879">
+        <v>1991</v>
+      </c>
+      <c r="E879" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880" t="s">
+        <v>940</v>
+      </c>
+      <c r="C880" t="s">
+        <v>935</v>
+      </c>
+      <c r="D880">
+        <v>1991</v>
+      </c>
+      <c r="E880" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881" t="s">
+        <v>941</v>
+      </c>
+      <c r="C881" t="s">
+        <v>935</v>
+      </c>
+      <c r="D881">
+        <v>1991</v>
+      </c>
+      <c r="E881" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882" t="s">
+        <v>942</v>
+      </c>
+      <c r="C882" t="s">
+        <v>935</v>
+      </c>
+      <c r="D882">
+        <v>1991</v>
+      </c>
+      <c r="E882" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883" t="s">
+        <v>943</v>
+      </c>
+      <c r="C883" t="s">
+        <v>935</v>
+      </c>
+      <c r="D883">
+        <v>1991</v>
+      </c>
+      <c r="E883" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884" t="s">
+        <v>944</v>
+      </c>
+      <c r="C884" t="s">
+        <v>935</v>
+      </c>
+      <c r="D884">
+        <v>1991</v>
+      </c>
+      <c r="E884" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>884</v>
+      </c>
+      <c r="B885" t="s">
+        <v>945</v>
+      </c>
+      <c r="C885" t="s">
+        <v>935</v>
+      </c>
+      <c r="D885">
+        <v>1991</v>
+      </c>
+      <c r="E885" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>885</v>
+      </c>
+      <c r="B886" t="s">
+        <v>946</v>
+      </c>
+      <c r="C886" t="s">
+        <v>935</v>
+      </c>
+      <c r="D886">
+        <v>1991</v>
+      </c>
+      <c r="E886" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>886</v>
+      </c>
+      <c r="B887" t="s">
+        <v>947</v>
+      </c>
+      <c r="C887" t="s">
+        <v>935</v>
+      </c>
+      <c r="D887">
+        <v>1991</v>
+      </c>
+      <c r="E887" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>887</v>
+      </c>
+      <c r="B888" t="s">
+        <v>948</v>
+      </c>
+      <c r="C888" t="s">
+        <v>935</v>
+      </c>
+      <c r="D888">
+        <v>1991</v>
+      </c>
+      <c r="E888" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>888</v>
+      </c>
+      <c r="B889" t="s">
+        <v>949</v>
+      </c>
+      <c r="C889" t="s">
+        <v>935</v>
+      </c>
+      <c r="D889">
+        <v>1991</v>
+      </c>
+      <c r="E889" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>889</v>
+      </c>
+      <c r="B890" t="s">
+        <v>950</v>
+      </c>
+      <c r="C890" t="s">
+        <v>935</v>
+      </c>
+      <c r="D890">
+        <v>1991</v>
+      </c>
+      <c r="E890" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>890</v>
+      </c>
+      <c r="B891" t="s">
+        <v>951</v>
+      </c>
+      <c r="C891" t="s">
+        <v>935</v>
+      </c>
+      <c r="D891">
+        <v>1991</v>
+      </c>
+      <c r="E891" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>891</v>
+      </c>
+      <c r="B892" t="s">
+        <v>952</v>
+      </c>
+      <c r="C892" t="s">
+        <v>935</v>
+      </c>
+      <c r="D892">
+        <v>1991</v>
+      </c>
+      <c r="E892" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>892</v>
+      </c>
+      <c r="B893" t="s">
+        <v>953</v>
+      </c>
+      <c r="C893" t="s">
+        <v>935</v>
+      </c>
+      <c r="D893">
+        <v>1991</v>
+      </c>
+      <c r="E893" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>893</v>
+      </c>
+      <c r="B894" t="s">
+        <v>954</v>
+      </c>
+      <c r="C894" t="s">
+        <v>935</v>
+      </c>
+      <c r="D894">
+        <v>1991</v>
+      </c>
+      <c r="E894" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>894</v>
+      </c>
+      <c r="B895" t="s">
+        <v>955</v>
+      </c>
+      <c r="C895" t="s">
+        <v>935</v>
+      </c>
+      <c r="D895">
+        <v>1991</v>
+      </c>
+      <c r="E895" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>895</v>
+      </c>
+      <c r="B896" t="s">
+        <v>956</v>
+      </c>
+      <c r="C896" t="s">
+        <v>935</v>
+      </c>
+      <c r="D896">
+        <v>1991</v>
+      </c>
+      <c r="E896" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>896</v>
+      </c>
+      <c r="B897" t="s">
+        <v>957</v>
+      </c>
+      <c r="C897" t="s">
+        <v>935</v>
+      </c>
+      <c r="D897">
+        <v>1991</v>
+      </c>
+      <c r="E897" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>897</v>
+      </c>
+      <c r="B898" t="s">
+        <v>958</v>
+      </c>
+      <c r="C898" t="s">
+        <v>935</v>
+      </c>
+      <c r="D898">
+        <v>1991</v>
+      </c>
+      <c r="E898" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>898</v>
+      </c>
+      <c r="B899" t="s">
+        <v>959</v>
+      </c>
+      <c r="C899" t="s">
+        <v>935</v>
+      </c>
+      <c r="D899">
+        <v>1991</v>
+      </c>
+      <c r="E899" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>899</v>
+      </c>
+      <c r="B900" t="s">
+        <v>960</v>
+      </c>
+      <c r="C900" t="s">
+        <v>935</v>
+      </c>
+      <c r="D900">
+        <v>1991</v>
+      </c>
+      <c r="E900" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>900</v>
+      </c>
+      <c r="B901" t="s">
+        <v>961</v>
+      </c>
+      <c r="C901" t="s">
+        <v>935</v>
+      </c>
+      <c r="D901">
+        <v>1991</v>
+      </c>
+      <c r="E901" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>901</v>
+      </c>
+      <c r="B902" t="s">
+        <v>962</v>
+      </c>
+      <c r="C902" t="s">
+        <v>935</v>
+      </c>
+      <c r="D902">
+        <v>1991</v>
+      </c>
+      <c r="E902" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>902</v>
+      </c>
+      <c r="B903" t="s">
+        <v>963</v>
+      </c>
+      <c r="C903" t="s">
+        <v>935</v>
+      </c>
+      <c r="D903">
+        <v>1991</v>
+      </c>
+      <c r="E903" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>903</v>
+      </c>
+      <c r="B904" t="s">
+        <v>964</v>
+      </c>
+      <c r="C904" t="s">
+        <v>935</v>
+      </c>
+      <c r="D904">
+        <v>1991</v>
+      </c>
+      <c r="E904" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>904</v>
+      </c>
+      <c r="B905" t="s">
+        <v>965</v>
+      </c>
+      <c r="C905" t="s">
+        <v>935</v>
+      </c>
+      <c r="D905">
+        <v>1991</v>
+      </c>
+      <c r="E905" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>905</v>
+      </c>
+      <c r="B906" t="s">
+        <v>966</v>
+      </c>
+      <c r="C906" t="s">
+        <v>935</v>
+      </c>
+      <c r="D906">
+        <v>1991</v>
+      </c>
+      <c r="E906" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>906</v>
+      </c>
+      <c r="B907" t="s">
+        <v>967</v>
+      </c>
+      <c r="C907" t="s">
+        <v>935</v>
+      </c>
+      <c r="D907">
+        <v>1991</v>
+      </c>
+      <c r="E907" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>907</v>
+      </c>
+      <c r="B908" t="s">
+        <v>968</v>
+      </c>
+      <c r="C908" t="s">
+        <v>935</v>
+      </c>
+      <c r="D908">
+        <v>1991</v>
+      </c>
+      <c r="E908" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>908</v>
+      </c>
+      <c r="B909" t="s">
+        <v>969</v>
+      </c>
+      <c r="C909" t="s">
+        <v>935</v>
+      </c>
+      <c r="D909">
+        <v>1991</v>
+      </c>
+      <c r="E909" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>909</v>
+      </c>
+      <c r="B910" t="s">
+        <v>970</v>
+      </c>
+      <c r="C910" t="s">
+        <v>935</v>
+      </c>
+      <c r="D910">
+        <v>1991</v>
+      </c>
+      <c r="E910" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>910</v>
+      </c>
+      <c r="B911" t="s">
+        <v>971</v>
+      </c>
+      <c r="C911" t="s">
+        <v>935</v>
+      </c>
+      <c r="D911">
+        <v>1991</v>
+      </c>
+      <c r="E911" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>911</v>
+      </c>
+      <c r="B912" t="s">
+        <v>972</v>
+      </c>
+      <c r="C912" t="s">
+        <v>935</v>
+      </c>
+      <c r="D912">
+        <v>1991</v>
+      </c>
+      <c r="E912" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>912</v>
+      </c>
+      <c r="B913" t="s">
+        <v>973</v>
+      </c>
+      <c r="C913" t="s">
+        <v>935</v>
+      </c>
+      <c r="D913">
+        <v>1991</v>
+      </c>
+      <c r="E913" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>913</v>
+      </c>
+      <c r="B914" t="s">
+        <v>974</v>
+      </c>
+      <c r="C914" t="s">
+        <v>935</v>
+      </c>
+      <c r="D914">
+        <v>1991</v>
+      </c>
+      <c r="E914" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>914</v>
+      </c>
+      <c r="B915" t="s">
+        <v>975</v>
+      </c>
+      <c r="C915" t="s">
+        <v>935</v>
+      </c>
+      <c r="D915">
+        <v>1991</v>
+      </c>
+      <c r="E915" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>915</v>
+      </c>
+      <c r="B916" t="s">
+        <v>976</v>
+      </c>
+      <c r="C916" t="s">
+        <v>935</v>
+      </c>
+      <c r="D916">
+        <v>1991</v>
+      </c>
+      <c r="E916" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>916</v>
+      </c>
+      <c r="B917" t="s">
+        <v>977</v>
+      </c>
+      <c r="C917" t="s">
+        <v>935</v>
+      </c>
+      <c r="D917">
+        <v>1991</v>
+      </c>
+      <c r="E917" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>917</v>
+      </c>
+      <c r="B918" t="s">
+        <v>978</v>
+      </c>
+      <c r="C918" t="s">
+        <v>935</v>
+      </c>
+      <c r="D918">
+        <v>1991</v>
+      </c>
+      <c r="E918" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>918</v>
+      </c>
+      <c r="B919" t="s">
+        <v>979</v>
+      </c>
+      <c r="C919" t="s">
+        <v>935</v>
+      </c>
+      <c r="D919">
+        <v>1991</v>
+      </c>
+      <c r="E919" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>919</v>
+      </c>
+      <c r="B920" t="s">
+        <v>980</v>
+      </c>
+      <c r="C920" t="s">
+        <v>935</v>
+      </c>
+      <c r="D920">
+        <v>1991</v>
+      </c>
+      <c r="E920" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>920</v>
+      </c>
+      <c r="B921" t="s">
+        <v>72</v>
+      </c>
+      <c r="C921" t="s">
+        <v>935</v>
+      </c>
+      <c r="D921">
+        <v>1991</v>
+      </c>
+      <c r="E921" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>921</v>
+      </c>
+      <c r="B922" t="s">
+        <v>3</v>
+      </c>
+      <c r="C922" t="s">
+        <v>992</v>
+      </c>
+      <c r="D922">
+        <v>1997</v>
+      </c>
+      <c r="E922" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>922</v>
+      </c>
+      <c r="B923" t="s">
+        <v>8</v>
+      </c>
+      <c r="C923" t="s">
+        <v>992</v>
+      </c>
+      <c r="D923">
+        <v>1997</v>
+      </c>
+      <c r="E923" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>923</v>
+      </c>
+      <c r="B924" t="s">
+        <v>981</v>
+      </c>
+      <c r="C924" t="s">
+        <v>992</v>
+      </c>
+      <c r="D924">
+        <v>1997</v>
+      </c>
+      <c r="E924" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>924</v>
+      </c>
+      <c r="B925" t="s">
+        <v>982</v>
+      </c>
+      <c r="C925" t="s">
+        <v>992</v>
+      </c>
+      <c r="D925">
+        <v>1997</v>
+      </c>
+      <c r="E925" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>925</v>
+      </c>
+      <c r="B926" t="s">
+        <v>983</v>
+      </c>
+      <c r="C926" t="s">
+        <v>992</v>
+      </c>
+      <c r="D926">
+        <v>1997</v>
+      </c>
+      <c r="E926" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>926</v>
+      </c>
+      <c r="B927" t="s">
+        <v>984</v>
+      </c>
+      <c r="C927" t="s">
+        <v>992</v>
+      </c>
+      <c r="D927">
+        <v>1997</v>
+      </c>
+      <c r="E927" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>927</v>
+      </c>
+      <c r="B928" t="s">
+        <v>985</v>
+      </c>
+      <c r="C928" t="s">
+        <v>992</v>
+      </c>
+      <c r="D928">
+        <v>1997</v>
+      </c>
+      <c r="E928" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>928</v>
+      </c>
+      <c r="B929" t="s">
+        <v>986</v>
+      </c>
+      <c r="C929" t="s">
+        <v>992</v>
+      </c>
+      <c r="D929">
+        <v>1997</v>
+      </c>
+      <c r="E929" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>929</v>
+      </c>
+      <c r="B930" t="s">
+        <v>987</v>
+      </c>
+      <c r="C930" t="s">
+        <v>992</v>
+      </c>
+      <c r="D930">
+        <v>1997</v>
+      </c>
+      <c r="E930" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>930</v>
+      </c>
+      <c r="B931" t="s">
+        <v>988</v>
+      </c>
+      <c r="C931" t="s">
+        <v>992</v>
+      </c>
+      <c r="D931">
+        <v>1997</v>
+      </c>
+      <c r="E931" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>931</v>
+      </c>
+      <c r="B932" t="s">
+        <v>989</v>
+      </c>
+      <c r="C932" t="s">
+        <v>992</v>
+      </c>
+      <c r="D932">
+        <v>1997</v>
+      </c>
+      <c r="E932" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>932</v>
+      </c>
+      <c r="B933" t="s">
+        <v>990</v>
+      </c>
+      <c r="C933" t="s">
+        <v>992</v>
+      </c>
+      <c r="D933">
+        <v>1997</v>
+      </c>
+      <c r="E933" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>933</v>
+      </c>
+      <c r="B934" t="s">
+        <v>991</v>
+      </c>
+      <c r="C934" t="s">
+        <v>992</v>
+      </c>
+      <c r="D934">
+        <v>1997</v>
+      </c>
+      <c r="E934" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>934</v>
+      </c>
+      <c r="B935" t="s">
+        <v>995</v>
+      </c>
+      <c r="C935" t="s">
+        <v>994</v>
+      </c>
+      <c r="D935">
+        <v>1996</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>935</v>
+      </c>
+      <c r="B936" t="s">
+        <v>996</v>
+      </c>
+      <c r="C936" t="s">
+        <v>994</v>
+      </c>
+      <c r="D936">
+        <v>1996</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>936</v>
+      </c>
+      <c r="B937" t="s">
+        <v>997</v>
+      </c>
+      <c r="C937" t="s">
+        <v>994</v>
+      </c>
+      <c r="D937">
+        <v>1996</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>937</v>
+      </c>
+      <c r="B938" t="s">
+        <v>998</v>
+      </c>
+      <c r="C938" t="s">
+        <v>994</v>
+      </c>
+      <c r="D938">
+        <v>1996</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>938</v>
+      </c>
+      <c r="B939" t="s">
+        <v>999</v>
+      </c>
+      <c r="C939" t="s">
+        <v>994</v>
+      </c>
+      <c r="D939">
+        <v>1996</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>939</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C940" t="s">
+        <v>994</v>
+      </c>
+      <c r="D940">
+        <v>1996</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>940</v>
+      </c>
+      <c r="B941" t="s">
+        <v>746</v>
+      </c>
+      <c r="C941" t="s">
+        <v>994</v>
+      </c>
+      <c r="D941">
+        <v>1996</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>941</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C942" t="s">
+        <v>994</v>
+      </c>
+      <c r="D942">
+        <v>1996</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>942</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C943" t="s">
+        <v>994</v>
+      </c>
+      <c r="D943">
+        <v>1996</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C944" t="s">
+        <v>994</v>
+      </c>
+      <c r="D944">
+        <v>1996</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C945" t="s">
+        <v>994</v>
+      </c>
+      <c r="D945">
+        <v>1996</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>945</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C946" t="s">
+        <v>994</v>
+      </c>
+      <c r="D946">
+        <v>1996</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>946</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C947" t="s">
+        <v>994</v>
+      </c>
+      <c r="D947">
+        <v>1996</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>947</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C948" t="s">
+        <v>994</v>
+      </c>
+      <c r="D948">
+        <v>1996</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>948</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C949" t="s">
+        <v>994</v>
+      </c>
+      <c r="D949">
+        <v>1996</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>949</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C950" t="s">
+        <v>994</v>
+      </c>
+      <c r="D950">
+        <v>1996</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>950</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C951" t="s">
+        <v>994</v>
+      </c>
+      <c r="D951">
+        <v>1996</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>951</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C952" t="s">
+        <v>994</v>
+      </c>
+      <c r="D952">
+        <v>1996</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>952</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D953">
+        <v>1997</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>953</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D954">
+        <v>1997</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>954</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D955">
+        <v>1997</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>955</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D956">
+        <v>1997</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>956</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D957">
+        <v>1997</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>957</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D958">
+        <v>1997</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>958</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D959">
+        <v>1997</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>959</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D960">
+        <v>1997</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>960</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D961">
+        <v>1997</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>961</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D962">
+        <v>1997</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>962</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D963">
+        <v>1997</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>963</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D964">
+        <v>1997</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>964</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D965">
+        <v>1997</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>965</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D966">
+        <v>1997</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>966</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D967">
+        <v>1997</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>967</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D968">
+        <v>1997</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>968</v>
+      </c>
+      <c r="B969" t="s">
+        <v>393</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D969">
+        <v>1997</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D970">
+        <v>1993</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>970</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D971">
+        <v>1993</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>971</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D972">
+        <v>1993</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>972</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D973">
+        <v>1993</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>973</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D974">
+        <v>1993</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>974</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D975">
+        <v>1993</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>975</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D976">
+        <v>1993</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>976</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D977">
+        <v>1993</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>977</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D978">
+        <v>1993</v>
+      </c>
+      <c r="E978" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>978</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D979">
+        <v>1993</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>979</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D980">
+        <v>1993</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>980</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D981">
+        <v>1993</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>981</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D982">
+        <v>1993</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>982</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D983">
+        <v>1993</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>983</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D984">
+        <v>1993</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>984</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D985">
+        <v>1993</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>985</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D986">
+        <v>1993</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>986</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D987">
+        <v>1993</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>987</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D988">
+        <v>1993</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>988</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D989">
+        <v>1993</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>989</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D990">
+        <v>1993</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>990</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D991">
+        <v>1993</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>991</v>
+      </c>
+      <c r="B992" t="s">
+        <v>8</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D992">
+        <v>1993</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>992</v>
+      </c>
+      <c r="B993" t="s">
+        <v>285</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D993">
+        <v>1995</v>
+      </c>
+      <c r="E993" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>993</v>
+      </c>
+      <c r="B994" t="s">
+        <v>286</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D994">
+        <v>1995</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>994</v>
+      </c>
+      <c r="B995" t="s">
+        <v>287</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D995">
+        <v>1995</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>995</v>
+      </c>
+      <c r="B996" t="s">
+        <v>288</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D996">
+        <v>1995</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>996</v>
+      </c>
+      <c r="B997" t="s">
+        <v>289</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D997">
+        <v>1995</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>997</v>
+      </c>
+      <c r="B998" t="s">
+        <v>290</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D998">
+        <v>1995</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>998</v>
+      </c>
+      <c r="B999" t="s">
+        <v>291</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D999">
+        <v>1995</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1000">
+        <v>1995</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1001">
+        <v>1995</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1002">
+        <v>1995</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1003">
+        <v>1995</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1004">
+        <v>1995</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1005">
+        <v>1995</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1006">
+        <v>1995</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1007">
+        <v>1995</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1008">
+        <v>1995</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1009">
+        <v>1995</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1010">
+        <v>1995</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1011">
+        <v>1995</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1012">
+        <v>1995</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1013">
+        <v>1995</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1014">
+        <v>1995</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1015">
+        <v>1995</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1016">
+        <v>1995</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1017">
+        <v>1995</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1018">
+        <v>1995</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1019">
+        <v>1995</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1020">
+        <v>1995</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1021">
+        <v>1995</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1022">
+        <v>1995</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1023">
+        <v>1995</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1024">
+        <v>1995</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1025">
+        <v>1995</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1026">
+        <v>1995</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1027">
+        <v>1995</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1028">
+        <v>1995</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1029">
+        <v>1995</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1030">
+        <v>1995</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1031">
+        <v>1995</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1032">
+        <v>1995</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1033">
+        <v>1995</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1034">
+        <v>1995</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1035">
+        <v>1995</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
